--- a/Criteria Ranking.xlsx
+++ b/Criteria Ranking.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matis\Desktop\Aalto S1\Advanced Energy Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matis\Desktop\Aalto S1\Advanced Energy Project\SMR-X-H2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33EB939-F641-4CD8-A66A-0FDA8AD91073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F435461-AB11-41E9-980E-C5B96A54F63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="2" r:id="rId1"/>
     <sheet name="Template" sheetId="4" state="hidden" r:id="rId2"/>
-    <sheet name="DATA Percentage" sheetId="6" state="hidden" r:id="rId3"/>
-    <sheet name="DATA Ranking" sheetId="7" state="hidden" r:id="rId4"/>
+    <sheet name="DATA Percentage" sheetId="6" r:id="rId3"/>
+    <sheet name="DATA Ranking" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'DATA Percentage'!$B$1:$D$20</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="261">
   <si>
     <t xml:space="preserve">Safety </t>
   </si>
@@ -1226,17 +1226,68 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1260,57 +1311,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2037,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4261850-8DA1-46EB-8872-E313C5418792}">
   <dimension ref="B1:AK208"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="102" zoomScaleNormal="87" zoomScaleSheetLayoutView="64" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+    <sheetView showGridLines="0" topLeftCell="B88" zoomScale="102" zoomScaleNormal="87" zoomScaleSheetLayoutView="64" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89:T95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2061,31 +2061,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
       <c r="Y1" s="18"/>
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
@@ -2101,29 +2101,29 @@
       <c r="AK1" s="8"/>
     </row>
     <row r="2" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
       <c r="Y2" s="18"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
@@ -2139,10 +2139,10 @@
       <c r="AK2" s="8"/>
     </row>
     <row r="3" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -2179,31 +2179,31 @@
       <c r="AK3" s="8"/>
     </row>
     <row r="4" spans="2:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
       <c r="Y4" s="18"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
@@ -2219,31 +2219,31 @@
       <c r="AK4" s="8"/>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
       <c r="Y5" s="18"/>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
@@ -2259,29 +2259,29 @@
       <c r="AK5" s="8"/>
     </row>
     <row r="6" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
       <c r="Y6" s="18"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
@@ -2297,29 +2297,29 @@
       <c r="AK6" s="8"/>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
       <c r="Y7" s="18"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
@@ -2335,31 +2335,31 @@
       <c r="AK7" s="8"/>
     </row>
     <row r="8" spans="2:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
       <c r="Y8" s="18"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
@@ -2375,31 +2375,31 @@
       <c r="AK8" s="8"/>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
       <c r="Y9" s="18"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
@@ -2415,29 +2415,29 @@
       <c r="AK9" s="8"/>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
       <c r="Y10" s="18"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
@@ -2453,31 +2453,31 @@
       <c r="AK10" s="8"/>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
       <c r="Y11" s="18"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
@@ -2493,29 +2493,29 @@
       <c r="AK11" s="8"/>
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
       <c r="Y12" s="18"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
@@ -2531,31 +2531,31 @@
       <c r="AK12" s="8"/>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="34"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="51"/>
       <c r="Y13" s="18"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
@@ -2571,29 +2571,29 @@
       <c r="AK13" s="8"/>
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="34"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="51"/>
       <c r="Y14" s="18"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
@@ -2650,32 +2650,32 @@
       <c r="B16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="23" t="s">
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="31" t="s">
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="23" t="s">
+      <c r="L16" s="48"/>
+      <c r="M16" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="31" t="s">
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -2797,12 +2797,12 @@
       </c>
       <c r="R18" s="10"/>
       <c r="S18" s="8"/>
-      <c r="T18" s="25" t="s">
+      <c r="T18" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="18"/>
       <c r="Z18" s="8"/>
@@ -3468,11 +3468,11 @@
         <v>26</v>
       </c>
       <c r="R26" s="8"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
       <c r="X26" s="8"/>
       <c r="Y26" s="18"/>
       <c r="Z26" s="8"/>
@@ -3556,11 +3556,11 @@
         <v>26</v>
       </c>
       <c r="R27" s="8"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
       <c r="X27" s="8"/>
       <c r="Y27" s="18"/>
       <c r="Z27" s="8"/>
@@ -3643,11 +3643,11 @@
         <v>26</v>
       </c>
       <c r="R28" s="8"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="18"/>
       <c r="Z28" s="8"/>
@@ -4124,27 +4124,27 @@
       <c r="AK33" s="8"/>
     </row>
     <row r="34" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
@@ -4168,25 +4168,25 @@
       <c r="AK34" s="8"/>
     </row>
     <row r="35" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
@@ -4248,10 +4248,10 @@
       <c r="AK36" s="8"/>
     </row>
     <row r="37" spans="2:37" ht="21" x14ac:dyDescent="0.4">
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="24"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
@@ -4339,37 +4339,37 @@
       <c r="AK38" s="8"/>
     </row>
     <row r="39" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="39" t="s">
+      <c r="G39" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
       <c r="O39" s="16"/>
       <c r="P39" s="8"/>
-      <c r="Q39" s="37" t="s">
+      <c r="Q39" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
       <c r="U39" s="8"/>
-      <c r="V39" s="36" t="s">
+      <c r="V39" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
       <c r="Y39" s="18"/>
       <c r="Z39" s="8"/>
       <c r="AA39" s="8" t="s">
@@ -4389,37 +4389,37 @@
       <c r="AK39" s="8"/>
     </row>
     <row r="40" spans="2:37" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="35" t="s">
+      <c r="G40" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
       <c r="O40" s="13"/>
       <c r="P40" s="8"/>
-      <c r="Q40" s="35" t="s">
+      <c r="Q40" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="R40" s="35"/>
-      <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
       <c r="U40" s="13"/>
-      <c r="V40" s="35" t="s">
+      <c r="V40" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="W40" s="35"/>
-      <c r="X40" s="35"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
       <c r="Y40" s="18"/>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8" t="s">
@@ -4479,37 +4479,37 @@
       <c r="AK41" s="8"/>
     </row>
     <row r="42" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="37" t="s">
+      <c r="G42" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
       <c r="O42" s="1"/>
       <c r="P42" s="8"/>
-      <c r="Q42" s="36" t="s">
+      <c r="Q42" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="R42" s="36"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="36"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
       <c r="U42" s="8"/>
-      <c r="V42" s="36" t="s">
+      <c r="V42" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="W42" s="36"/>
-      <c r="X42" s="36"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
       <c r="Y42" s="18"/>
       <c r="Z42" s="8"/>
       <c r="AA42" s="8" t="s">
@@ -4527,37 +4527,37 @@
       <c r="AK42" s="8"/>
     </row>
     <row r="43" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="35" t="s">
+      <c r="G43" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
       <c r="O43" s="15"/>
       <c r="P43" s="8"/>
-      <c r="Q43" s="43" t="s">
+      <c r="Q43" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="37"/>
       <c r="U43" s="8"/>
-      <c r="V43" s="43" t="s">
+      <c r="V43" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="W43" s="44"/>
-      <c r="X43" s="44"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
       <c r="Y43" s="18"/>
       <c r="Z43" s="8"/>
       <c r="AA43" s="8" t="s">
@@ -4577,29 +4577,29 @@
       <c r="AK43" s="8"/>
     </row>
     <row r="44" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
       <c r="O44" s="15"/>
       <c r="P44" s="8"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="37"/>
       <c r="U44" s="8"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="44"/>
-      <c r="X44" s="44"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
       <c r="Y44" s="18"/>
       <c r="Z44" s="8"/>
       <c r="AA44" s="8" t="s">
@@ -4619,29 +4619,29 @@
       <c r="AK44" s="8"/>
     </row>
     <row r="45" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
       <c r="O45" s="15"/>
       <c r="P45" s="8"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="44"/>
-      <c r="S45" s="44"/>
-      <c r="T45" s="44"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
       <c r="U45" s="8"/>
-      <c r="V45" s="44"/>
-      <c r="W45" s="44"/>
-      <c r="X45" s="44"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
       <c r="Y45" s="18"/>
       <c r="Z45" s="8"/>
       <c r="AA45" s="8" t="s">
@@ -4659,29 +4659,29 @@
       <c r="AK45" s="8"/>
     </row>
     <row r="46" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
       <c r="O46" s="15"/>
       <c r="P46" s="8"/>
-      <c r="Q46" s="44"/>
-      <c r="R46" s="44"/>
-      <c r="S46" s="44"/>
-      <c r="T46" s="44"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
       <c r="U46" s="8"/>
-      <c r="V46" s="44"/>
-      <c r="W46" s="44"/>
-      <c r="X46" s="44"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
       <c r="Y46" s="18"/>
       <c r="Z46" s="8"/>
       <c r="AA46" s="8" t="s">
@@ -4701,29 +4701,29 @@
       <c r="AK46" s="8"/>
     </row>
     <row r="47" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
       <c r="O47" s="15"/>
       <c r="P47" s="8"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="44"/>
-      <c r="S47" s="44"/>
-      <c r="T47" s="44"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37"/>
       <c r="U47" s="8"/>
-      <c r="V47" s="44"/>
-      <c r="W47" s="44"/>
-      <c r="X47" s="44"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="37"/>
       <c r="Y47" s="18"/>
       <c r="Z47" s="8"/>
       <c r="AA47" s="8" t="s">
@@ -4743,29 +4743,29 @@
       <c r="AK47" s="8"/>
     </row>
     <row r="48" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
       <c r="O48" s="15"/>
       <c r="P48" s="8"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="44"/>
-      <c r="S48" s="44"/>
-      <c r="T48" s="44"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="37"/>
       <c r="U48" s="8"/>
-      <c r="V48" s="44"/>
-      <c r="W48" s="44"/>
-      <c r="X48" s="44"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="37"/>
       <c r="Y48" s="18"/>
       <c r="Z48" s="8"/>
       <c r="AA48" s="8" t="s">
@@ -4785,29 +4785,29 @@
       <c r="AK48" s="8"/>
     </row>
     <row r="49" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
       <c r="O49" s="15"/>
       <c r="P49" s="8"/>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="44"/>
-      <c r="S49" s="44"/>
-      <c r="T49" s="44"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="37"/>
       <c r="U49" s="8"/>
-      <c r="V49" s="44"/>
-      <c r="W49" s="44"/>
-      <c r="X49" s="44"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="37"/>
       <c r="Y49" s="18"/>
       <c r="Z49" s="8"/>
       <c r="AA49" s="8" t="s">
@@ -4827,29 +4827,29 @@
       <c r="AK49" s="8"/>
     </row>
     <row r="50" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
       <c r="F50" s="8"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
       <c r="O50" s="15"/>
       <c r="P50" s="8"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="44"/>
-      <c r="T50" s="44"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="37"/>
       <c r="U50" s="8"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="44"/>
-      <c r="X50" s="44"/>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
       <c r="Y50" s="18"/>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8" t="s">
@@ -4869,29 +4869,29 @@
       <c r="AK50" s="8"/>
     </row>
     <row r="51" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
       <c r="F51" s="8"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
       <c r="O51" s="15"/>
       <c r="P51" s="8"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="44"/>
-      <c r="T51" s="44"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="37"/>
       <c r="U51" s="8"/>
-      <c r="V51" s="44"/>
-      <c r="W51" s="44"/>
-      <c r="X51" s="44"/>
+      <c r="V51" s="37"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="37"/>
       <c r="Y51" s="18"/>
       <c r="Z51" s="8"/>
       <c r="AA51" s="8" t="s">
@@ -4911,25 +4911,25 @@
       <c r="AK51" s="8"/>
     </row>
     <row r="52" spans="2:37" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
       <c r="F52" s="8"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
       <c r="O52" s="15"/>
       <c r="P52" s="8"/>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="44"/>
-      <c r="S52" s="44"/>
-      <c r="T52" s="44"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="37"/>
       <c r="U52" s="8"/>
       <c r="V52" s="8"/>
       <c r="W52" s="8"/>
@@ -4953,19 +4953,19 @@
       <c r="AK52" s="8"/>
     </row>
     <row r="53" spans="2:37" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
@@ -4995,19 +4995,19 @@
       <c r="AK53" s="8"/>
     </row>
     <row r="54" spans="2:37" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
       <c r="O54" s="8"/>
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
@@ -5077,37 +5077,37 @@
       <c r="AK55" s="8"/>
     </row>
     <row r="56" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B56" s="45" t="s">
+      <c r="B56" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
       <c r="F56" s="8"/>
-      <c r="G56" s="36" t="s">
+      <c r="G56" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="36"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
       <c r="O56" s="8"/>
-      <c r="P56" s="36" t="s">
+      <c r="P56" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="Q56" s="36"/>
-      <c r="R56" s="36"/>
-      <c r="S56" s="36"/>
-      <c r="T56" s="36"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+      <c r="S56" s="35"/>
+      <c r="T56" s="35"/>
       <c r="U56" s="8"/>
-      <c r="V56" s="36" t="s">
+      <c r="V56" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="W56" s="36"/>
-      <c r="X56" s="36"/>
+      <c r="W56" s="35"/>
+      <c r="X56" s="35"/>
       <c r="Y56" s="18"/>
       <c r="Z56" s="8"/>
       <c r="AA56" s="8" t="s">
@@ -5127,37 +5127,37 @@
       <c r="AK56" s="8"/>
     </row>
     <row r="57" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="35" t="s">
+      <c r="G57" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="26" t="s">
+      <c r="P57" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="Q57" s="26"/>
-      <c r="R57" s="26"/>
-      <c r="S57" s="26"/>
-      <c r="T57" s="26"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="38"/>
+      <c r="S57" s="38"/>
+      <c r="T57" s="38"/>
       <c r="U57" s="8"/>
-      <c r="V57" s="35" t="s">
+      <c r="V57" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="W57" s="35"/>
-      <c r="X57" s="35"/>
+      <c r="W57" s="32"/>
+      <c r="X57" s="32"/>
       <c r="Y57" s="18"/>
       <c r="Z57" s="8"/>
       <c r="AA57" s="8" t="s">
@@ -5177,29 +5177,29 @@
       <c r="AK57" s="8"/>
     </row>
     <row r="58" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
       <c r="F58" s="8"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="26"/>
-      <c r="Q58" s="26"/>
-      <c r="R58" s="26"/>
-      <c r="S58" s="26"/>
-      <c r="T58" s="26"/>
+      <c r="P58" s="38"/>
+      <c r="Q58" s="38"/>
+      <c r="R58" s="38"/>
+      <c r="S58" s="38"/>
+      <c r="T58" s="38"/>
       <c r="U58" s="8"/>
-      <c r="V58" s="35"/>
-      <c r="W58" s="35"/>
-      <c r="X58" s="35"/>
+      <c r="V58" s="32"/>
+      <c r="W58" s="32"/>
+      <c r="X58" s="32"/>
       <c r="Y58" s="18"/>
       <c r="Z58" s="8"/>
       <c r="AA58" s="8" t="s">
@@ -5219,29 +5219,29 @@
       <c r="AK58" s="8"/>
     </row>
     <row r="59" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
       <c r="F59" s="8"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
       <c r="O59" s="8"/>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="26"/>
-      <c r="S59" s="26"/>
-      <c r="T59" s="26"/>
+      <c r="P59" s="38"/>
+      <c r="Q59" s="38"/>
+      <c r="R59" s="38"/>
+      <c r="S59" s="38"/>
+      <c r="T59" s="38"/>
       <c r="U59" s="8"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="35"/>
+      <c r="V59" s="32"/>
+      <c r="W59" s="32"/>
+      <c r="X59" s="32"/>
       <c r="Y59" s="18"/>
       <c r="Z59" s="8"/>
       <c r="AA59" s="8" t="s">
@@ -5261,29 +5261,29 @@
       <c r="AK59" s="8"/>
     </row>
     <row r="60" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
       <c r="F60" s="8"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="35"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
       <c r="O60" s="8"/>
-      <c r="P60" s="26"/>
-      <c r="Q60" s="26"/>
-      <c r="R60" s="26"/>
-      <c r="S60" s="26"/>
-      <c r="T60" s="26"/>
+      <c r="P60" s="38"/>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="38"/>
+      <c r="S60" s="38"/>
+      <c r="T60" s="38"/>
       <c r="U60" s="8"/>
-      <c r="V60" s="35"/>
-      <c r="W60" s="35"/>
-      <c r="X60" s="35"/>
+      <c r="V60" s="32"/>
+      <c r="W60" s="32"/>
+      <c r="X60" s="32"/>
       <c r="Y60" s="18"/>
       <c r="Z60" s="8"/>
       <c r="AA60" s="8" t="s">
@@ -5303,29 +5303,29 @@
       <c r="AK60" s="8"/>
     </row>
     <row r="61" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
       <c r="F61" s="8"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
       <c r="O61" s="8"/>
-      <c r="P61" s="26"/>
-      <c r="Q61" s="26"/>
-      <c r="R61" s="26"/>
-      <c r="S61" s="26"/>
-      <c r="T61" s="26"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="38"/>
       <c r="U61" s="8"/>
-      <c r="V61" s="35"/>
-      <c r="W61" s="35"/>
-      <c r="X61" s="35"/>
+      <c r="V61" s="32"/>
+      <c r="W61" s="32"/>
+      <c r="X61" s="32"/>
       <c r="Y61" s="18"/>
       <c r="Z61" s="8"/>
       <c r="AA61" s="8" t="s">
@@ -5345,29 +5345,29 @@
       <c r="AK61" s="8"/>
     </row>
     <row r="62" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
       <c r="F62" s="8"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="35"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
       <c r="O62" s="8"/>
-      <c r="P62" s="26"/>
-      <c r="Q62" s="26"/>
-      <c r="R62" s="26"/>
-      <c r="S62" s="26"/>
-      <c r="T62" s="26"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="38"/>
       <c r="U62" s="8"/>
-      <c r="V62" s="35"/>
-      <c r="W62" s="35"/>
-      <c r="X62" s="35"/>
+      <c r="V62" s="32"/>
+      <c r="W62" s="32"/>
+      <c r="X62" s="32"/>
       <c r="Y62" s="18"/>
       <c r="Z62" s="8"/>
       <c r="AA62" s="8" t="s">
@@ -5387,29 +5387,29 @@
       <c r="AK62" s="8"/>
     </row>
     <row r="63" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
       <c r="F63" s="8"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
       <c r="O63" s="8"/>
-      <c r="P63" s="26"/>
-      <c r="Q63" s="26"/>
-      <c r="R63" s="26"/>
-      <c r="S63" s="26"/>
-      <c r="T63" s="26"/>
+      <c r="P63" s="38"/>
+      <c r="Q63" s="38"/>
+      <c r="R63" s="38"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="38"/>
       <c r="U63" s="8"/>
-      <c r="V63" s="35"/>
-      <c r="W63" s="35"/>
-      <c r="X63" s="35"/>
+      <c r="V63" s="32"/>
+      <c r="W63" s="32"/>
+      <c r="X63" s="32"/>
       <c r="Y63" s="18"/>
       <c r="Z63" s="8"/>
       <c r="AA63" s="8" t="s">
@@ -5429,29 +5429,29 @@
       <c r="AK63" s="8"/>
     </row>
     <row r="64" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
       <c r="F64" s="8"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
       <c r="O64" s="8"/>
-      <c r="P64" s="26"/>
-      <c r="Q64" s="26"/>
-      <c r="R64" s="26"/>
-      <c r="S64" s="26"/>
-      <c r="T64" s="26"/>
+      <c r="P64" s="38"/>
+      <c r="Q64" s="38"/>
+      <c r="R64" s="38"/>
+      <c r="S64" s="38"/>
+      <c r="T64" s="38"/>
       <c r="U64" s="8"/>
-      <c r="V64" s="35"/>
-      <c r="W64" s="35"/>
-      <c r="X64" s="35"/>
+      <c r="V64" s="32"/>
+      <c r="W64" s="32"/>
+      <c r="X64" s="32"/>
       <c r="Y64" s="18"/>
       <c r="Z64" s="8"/>
       <c r="AA64" s="8" t="s">
@@ -5471,29 +5471,29 @@
       <c r="AK64" s="8"/>
     </row>
     <row r="65" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
       <c r="F65" s="8"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
       <c r="O65" s="8"/>
-      <c r="P65" s="26"/>
-      <c r="Q65" s="26"/>
-      <c r="R65" s="26"/>
-      <c r="S65" s="26"/>
-      <c r="T65" s="26"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="38"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="38"/>
       <c r="U65" s="8"/>
-      <c r="V65" s="35"/>
-      <c r="W65" s="35"/>
-      <c r="X65" s="35"/>
+      <c r="V65" s="32"/>
+      <c r="W65" s="32"/>
+      <c r="X65" s="32"/>
       <c r="Y65" s="18"/>
       <c r="Z65" s="8"/>
       <c r="AA65" s="8" t="s">
@@ -5513,29 +5513,29 @@
       <c r="AK65" s="8"/>
     </row>
     <row r="66" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="32"/>
       <c r="O66" s="8"/>
-      <c r="P66" s="26"/>
-      <c r="Q66" s="26"/>
-      <c r="R66" s="26"/>
-      <c r="S66" s="26"/>
-      <c r="T66" s="26"/>
+      <c r="P66" s="38"/>
+      <c r="Q66" s="38"/>
+      <c r="R66" s="38"/>
+      <c r="S66" s="38"/>
+      <c r="T66" s="38"/>
       <c r="U66" s="8"/>
-      <c r="V66" s="35"/>
-      <c r="W66" s="35"/>
-      <c r="X66" s="35"/>
+      <c r="V66" s="32"/>
+      <c r="W66" s="32"/>
+      <c r="X66" s="32"/>
       <c r="Y66" s="18"/>
       <c r="Z66" s="8"/>
       <c r="AA66" s="8" t="s">
@@ -5553,29 +5553,29 @@
       <c r="AK66" s="8"/>
     </row>
     <row r="67" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
       <c r="F67" s="8"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="32"/>
       <c r="O67" s="8"/>
-      <c r="P67" s="26"/>
-      <c r="Q67" s="26"/>
-      <c r="R67" s="26"/>
-      <c r="S67" s="26"/>
-      <c r="T67" s="26"/>
+      <c r="P67" s="38"/>
+      <c r="Q67" s="38"/>
+      <c r="R67" s="38"/>
+      <c r="S67" s="38"/>
+      <c r="T67" s="38"/>
       <c r="U67" s="8"/>
-      <c r="V67" s="35"/>
-      <c r="W67" s="35"/>
-      <c r="X67" s="35"/>
+      <c r="V67" s="32"/>
+      <c r="W67" s="32"/>
+      <c r="X67" s="32"/>
       <c r="Y67" s="18"/>
       <c r="Z67" s="8"/>
       <c r="AA67" s="8" t="s">
@@ -5635,31 +5635,31 @@
       <c r="AK68" s="8"/>
     </row>
     <row r="69" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
       <c r="F69" s="8"/>
-      <c r="G69" s="36" t="s">
+      <c r="G69" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="36"/>
-      <c r="N69" s="36"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
       <c r="O69" s="8"/>
-      <c r="P69" s="36" t="s">
+      <c r="P69" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="Q69" s="36"/>
-      <c r="R69" s="36"/>
-      <c r="S69" s="36"/>
-      <c r="T69" s="36"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="35"/>
       <c r="U69" s="8"/>
       <c r="V69" s="13"/>
       <c r="W69" s="13"/>
@@ -5681,31 +5681,31 @@
       <c r="AK69" s="8"/>
     </row>
     <row r="70" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="35" t="s">
+      <c r="B70" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
       <c r="F70" s="8"/>
-      <c r="G70" s="35" t="s">
+      <c r="G70" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="35"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="32"/>
       <c r="O70" s="8"/>
-      <c r="P70" s="35" t="s">
+      <c r="P70" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
+      <c r="Q70" s="32"/>
+      <c r="R70" s="32"/>
+      <c r="S70" s="32"/>
+      <c r="T70" s="32"/>
       <c r="U70" s="8"/>
       <c r="V70" s="13"/>
       <c r="W70" s="13"/>
@@ -5727,25 +5727,25 @@
       <c r="AK70" s="8"/>
     </row>
     <row r="71" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
       <c r="F71" s="8"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="35"/>
-      <c r="N71" s="35"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="32"/>
+      <c r="M71" s="32"/>
+      <c r="N71" s="32"/>
       <c r="O71" s="8"/>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="35"/>
-      <c r="R71" s="35"/>
-      <c r="S71" s="35"/>
-      <c r="T71" s="35"/>
+      <c r="P71" s="32"/>
+      <c r="Q71" s="32"/>
+      <c r="R71" s="32"/>
+      <c r="S71" s="32"/>
+      <c r="T71" s="32"/>
       <c r="U71" s="8"/>
       <c r="V71" s="13"/>
       <c r="W71" s="13"/>
@@ -5767,25 +5767,25 @@
       <c r="AK71" s="8"/>
     </row>
     <row r="72" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
       <c r="F72" s="8"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="35"/>
-      <c r="N72" s="35"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="32"/>
+      <c r="M72" s="32"/>
+      <c r="N72" s="32"/>
       <c r="O72" s="8"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
-      <c r="R72" s="35"/>
-      <c r="S72" s="35"/>
-      <c r="T72" s="35"/>
+      <c r="P72" s="32"/>
+      <c r="Q72" s="32"/>
+      <c r="R72" s="32"/>
+      <c r="S72" s="32"/>
+      <c r="T72" s="32"/>
       <c r="U72" s="8"/>
       <c r="V72" s="13"/>
       <c r="W72" s="13"/>
@@ -5809,25 +5809,25 @@
       <c r="AK72" s="8"/>
     </row>
     <row r="73" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
       <c r="F73" s="8"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="32"/>
+      <c r="N73" s="32"/>
       <c r="O73" s="8"/>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="35"/>
-      <c r="R73" s="35"/>
-      <c r="S73" s="35"/>
-      <c r="T73" s="35"/>
+      <c r="P73" s="32"/>
+      <c r="Q73" s="32"/>
+      <c r="R73" s="32"/>
+      <c r="S73" s="32"/>
+      <c r="T73" s="32"/>
       <c r="U73" s="8"/>
       <c r="V73" s="8"/>
       <c r="W73" s="8"/>
@@ -5851,25 +5851,25 @@
       <c r="AK73" s="8"/>
     </row>
     <row r="74" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
       <c r="F74" s="8"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="35"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="32"/>
+      <c r="N74" s="32"/>
       <c r="O74" s="8"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="35"/>
-      <c r="S74" s="35"/>
-      <c r="T74" s="35"/>
+      <c r="P74" s="32"/>
+      <c r="Q74" s="32"/>
+      <c r="R74" s="32"/>
+      <c r="S74" s="32"/>
+      <c r="T74" s="32"/>
       <c r="U74" s="8"/>
       <c r="V74" s="8"/>
       <c r="W74" s="8"/>
@@ -5893,25 +5893,25 @@
       <c r="AK74" s="8"/>
     </row>
     <row r="75" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B75" s="35"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
       <c r="F75" s="8"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="35"/>
-      <c r="N75" s="35"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="32"/>
+      <c r="M75" s="32"/>
+      <c r="N75" s="32"/>
       <c r="O75" s="8"/>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="35"/>
-      <c r="R75" s="35"/>
-      <c r="S75" s="35"/>
-      <c r="T75" s="35"/>
+      <c r="P75" s="32"/>
+      <c r="Q75" s="32"/>
+      <c r="R75" s="32"/>
+      <c r="S75" s="32"/>
+      <c r="T75" s="32"/>
       <c r="U75" s="8"/>
       <c r="V75" s="8"/>
       <c r="W75" s="8"/>
@@ -5935,25 +5935,25 @@
       <c r="AK75" s="8"/>
     </row>
     <row r="76" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B76" s="35"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
       <c r="F76" s="8"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="35"/>
-      <c r="M76" s="35"/>
-      <c r="N76" s="35"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="32"/>
+      <c r="L76" s="32"/>
+      <c r="M76" s="32"/>
+      <c r="N76" s="32"/>
       <c r="O76" s="8"/>
-      <c r="P76" s="35"/>
-      <c r="Q76" s="35"/>
-      <c r="R76" s="35"/>
-      <c r="S76" s="35"/>
-      <c r="T76" s="35"/>
+      <c r="P76" s="32"/>
+      <c r="Q76" s="32"/>
+      <c r="R76" s="32"/>
+      <c r="S76" s="32"/>
+      <c r="T76" s="32"/>
       <c r="U76" s="8"/>
       <c r="V76" s="8"/>
       <c r="W76" s="8"/>
@@ -5977,25 +5977,25 @@
       <c r="AK76" s="8"/>
     </row>
     <row r="77" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B77" s="35"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
       <c r="F77" s="8"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="35"/>
-      <c r="M77" s="35"/>
-      <c r="N77" s="35"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="32"/>
+      <c r="L77" s="32"/>
+      <c r="M77" s="32"/>
+      <c r="N77" s="32"/>
       <c r="O77" s="8"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="35"/>
-      <c r="R77" s="35"/>
-      <c r="S77" s="35"/>
-      <c r="T77" s="35"/>
+      <c r="P77" s="32"/>
+      <c r="Q77" s="32"/>
+      <c r="R77" s="32"/>
+      <c r="S77" s="32"/>
+      <c r="T77" s="32"/>
       <c r="U77" s="8"/>
       <c r="V77" s="8"/>
       <c r="W77" s="8"/>
@@ -6019,25 +6019,25 @@
       <c r="AK77" s="8"/>
     </row>
     <row r="78" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B78" s="35"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
       <c r="F78" s="8"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="35"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="35"/>
-      <c r="M78" s="35"/>
-      <c r="N78" s="35"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="32"/>
+      <c r="L78" s="32"/>
+      <c r="M78" s="32"/>
+      <c r="N78" s="32"/>
       <c r="O78" s="8"/>
-      <c r="P78" s="35"/>
-      <c r="Q78" s="35"/>
-      <c r="R78" s="35"/>
-      <c r="S78" s="35"/>
-      <c r="T78" s="35"/>
+      <c r="P78" s="32"/>
+      <c r="Q78" s="32"/>
+      <c r="R78" s="32"/>
+      <c r="S78" s="32"/>
+      <c r="T78" s="32"/>
       <c r="U78" s="8"/>
       <c r="V78" s="8"/>
       <c r="W78" s="8"/>
@@ -6075,11 +6075,11 @@
       <c r="M79" s="8"/>
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
-      <c r="P79" s="35"/>
-      <c r="Q79" s="35"/>
-      <c r="R79" s="35"/>
-      <c r="S79" s="35"/>
-      <c r="T79" s="35"/>
+      <c r="P79" s="32"/>
+      <c r="Q79" s="32"/>
+      <c r="R79" s="32"/>
+      <c r="S79" s="32"/>
+      <c r="T79" s="32"/>
       <c r="U79" s="8"/>
       <c r="V79" s="8"/>
       <c r="W79" s="8"/>
@@ -6117,11 +6117,11 @@
       <c r="M80" s="8"/>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
-      <c r="P80" s="35"/>
-      <c r="Q80" s="35"/>
-      <c r="R80" s="35"/>
-      <c r="S80" s="35"/>
-      <c r="T80" s="35"/>
+      <c r="P80" s="32"/>
+      <c r="Q80" s="32"/>
+      <c r="R80" s="32"/>
+      <c r="S80" s="32"/>
+      <c r="T80" s="32"/>
       <c r="U80" s="8"/>
       <c r="V80" s="8"/>
       <c r="W80" s="8"/>
@@ -6187,15 +6187,15 @@
       <c r="AK81" s="8"/>
     </row>
     <row r="82" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B82" s="25" t="s">
+      <c r="B82" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25" t="s">
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="F82" s="25"/>
+      <c r="F82" s="39"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
@@ -6233,11 +6233,11 @@
       <c r="AK82" s="8"/>
     </row>
     <row r="83" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
@@ -6278,16 +6278,16 @@
       <c r="B84" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="40" t="e">
+      <c r="C84" s="24" t="e">
         <f>AG19</f>
         <v>#N/A</v>
       </c>
-      <c r="D84" s="41"/>
-      <c r="E84" s="42" t="e">
+      <c r="D84" s="25"/>
+      <c r="E84" s="23" t="e">
         <f>_xlfn.RANK.EQ(C84,$C$84:$D$97)</f>
         <v>#N/A</v>
       </c>
-      <c r="F84" s="42"/>
+      <c r="F84" s="23"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
@@ -6328,16 +6328,16 @@
       <c r="B85" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C85" s="40" t="e">
+      <c r="C85" s="24" t="e">
         <f t="shared" ref="C85:C98" si="2">AG20</f>
         <v>#N/A</v>
       </c>
-      <c r="D85" s="41"/>
-      <c r="E85" s="42" t="e">
+      <c r="D85" s="25"/>
+      <c r="E85" s="23" t="e">
         <f t="shared" ref="E85:E98" si="3">_xlfn.RANK.EQ(C85,$C$84:$D$97)</f>
         <v>#N/A</v>
       </c>
-      <c r="F85" s="42"/>
+      <c r="F85" s="23"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
@@ -6378,16 +6378,16 @@
       <c r="B86" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C86" s="40" t="e">
+      <c r="C86" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D86" s="41"/>
-      <c r="E86" s="42" t="e">
+      <c r="D86" s="25"/>
+      <c r="E86" s="23" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F86" s="42"/>
+      <c r="F86" s="23"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
@@ -6428,16 +6428,16 @@
       <c r="B87" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C87" s="40" t="e">
+      <c r="C87" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D87" s="41"/>
-      <c r="E87" s="42" t="e">
+      <c r="D87" s="25"/>
+      <c r="E87" s="23" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F87" s="42"/>
+      <c r="F87" s="23"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
@@ -6478,16 +6478,16 @@
       <c r="B88" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="40" t="e">
+      <c r="C88" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D88" s="41"/>
-      <c r="E88" s="42" t="e">
+      <c r="D88" s="25"/>
+      <c r="E88" s="23" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F88" s="42"/>
+      <c r="F88" s="23"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
@@ -6528,32 +6528,32 @@
       <c r="B89" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="40" t="e">
+      <c r="C89" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D89" s="41"/>
-      <c r="E89" s="42" t="e">
+      <c r="D89" s="25"/>
+      <c r="E89" s="23" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F89" s="42"/>
+      <c r="F89" s="23"/>
       <c r="G89" s="8"/>
-      <c r="H89" s="46" t="s">
+      <c r="H89" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="I89" s="47"/>
-      <c r="J89" s="47"/>
-      <c r="K89" s="47"/>
-      <c r="L89" s="47"/>
-      <c r="M89" s="47"/>
-      <c r="N89" s="47"/>
-      <c r="O89" s="47"/>
-      <c r="P89" s="47"/>
-      <c r="Q89" s="47"/>
-      <c r="R89" s="47"/>
-      <c r="S89" s="47"/>
-      <c r="T89" s="47"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="27"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="27"/>
+      <c r="M89" s="27"/>
+      <c r="N89" s="27"/>
+      <c r="O89" s="27"/>
+      <c r="P89" s="27"/>
+      <c r="Q89" s="27"/>
+      <c r="R89" s="27"/>
+      <c r="S89" s="27"/>
+      <c r="T89" s="27"/>
       <c r="U89" s="8"/>
       <c r="V89" s="8"/>
       <c r="W89" s="8"/>
@@ -6580,30 +6580,30 @@
       <c r="B90" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C90" s="40" t="e">
+      <c r="C90" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D90" s="41"/>
-      <c r="E90" s="42" t="e">
+      <c r="D90" s="25"/>
+      <c r="E90" s="23" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F90" s="42"/>
+      <c r="F90" s="23"/>
       <c r="G90" s="8"/>
-      <c r="H90" s="47"/>
-      <c r="I90" s="47"/>
-      <c r="J90" s="47"/>
-      <c r="K90" s="47"/>
-      <c r="L90" s="47"/>
-      <c r="M90" s="47"/>
-      <c r="N90" s="47"/>
-      <c r="O90" s="47"/>
-      <c r="P90" s="47"/>
-      <c r="Q90" s="47"/>
-      <c r="R90" s="47"/>
-      <c r="S90" s="47"/>
-      <c r="T90" s="47"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="27"/>
+      <c r="K90" s="27"/>
+      <c r="L90" s="27"/>
+      <c r="M90" s="27"/>
+      <c r="N90" s="27"/>
+      <c r="O90" s="27"/>
+      <c r="P90" s="27"/>
+      <c r="Q90" s="27"/>
+      <c r="R90" s="27"/>
+      <c r="S90" s="27"/>
+      <c r="T90" s="27"/>
       <c r="U90" s="8"/>
       <c r="V90" s="8"/>
       <c r="W90" s="8"/>
@@ -6630,30 +6630,30 @@
       <c r="B91" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C91" s="40" t="e">
+      <c r="C91" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D91" s="41"/>
-      <c r="E91" s="42" t="e">
+      <c r="D91" s="25"/>
+      <c r="E91" s="23" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F91" s="42"/>
+      <c r="F91" s="23"/>
       <c r="G91" s="8"/>
-      <c r="H91" s="47"/>
-      <c r="I91" s="47"/>
-      <c r="J91" s="47"/>
-      <c r="K91" s="47"/>
-      <c r="L91" s="47"/>
-      <c r="M91" s="47"/>
-      <c r="N91" s="47"/>
-      <c r="O91" s="47"/>
-      <c r="P91" s="47"/>
-      <c r="Q91" s="47"/>
-      <c r="R91" s="47"/>
-      <c r="S91" s="47"/>
-      <c r="T91" s="47"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="27"/>
+      <c r="M91" s="27"/>
+      <c r="N91" s="27"/>
+      <c r="O91" s="27"/>
+      <c r="P91" s="27"/>
+      <c r="Q91" s="27"/>
+      <c r="R91" s="27"/>
+      <c r="S91" s="27"/>
+      <c r="T91" s="27"/>
       <c r="U91" s="8"/>
       <c r="V91" s="8"/>
       <c r="W91" s="8"/>
@@ -6680,30 +6680,30 @@
       <c r="B92" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="40" t="e">
+      <c r="C92" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D92" s="41"/>
-      <c r="E92" s="42" t="e">
+      <c r="D92" s="25"/>
+      <c r="E92" s="23" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F92" s="42"/>
+      <c r="F92" s="23"/>
       <c r="G92" s="8"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="47"/>
-      <c r="N92" s="47"/>
-      <c r="O92" s="47"/>
-      <c r="P92" s="47"/>
-      <c r="Q92" s="47"/>
-      <c r="R92" s="47"/>
-      <c r="S92" s="47"/>
-      <c r="T92" s="47"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="27"/>
+      <c r="K92" s="27"/>
+      <c r="L92" s="27"/>
+      <c r="M92" s="27"/>
+      <c r="N92" s="27"/>
+      <c r="O92" s="27"/>
+      <c r="P92" s="27"/>
+      <c r="Q92" s="27"/>
+      <c r="R92" s="27"/>
+      <c r="S92" s="27"/>
+      <c r="T92" s="27"/>
       <c r="U92" s="8"/>
       <c r="V92" s="8"/>
       <c r="W92" s="8"/>
@@ -6730,30 +6730,30 @@
       <c r="B93" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="40" t="e">
+      <c r="C93" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D93" s="41"/>
-      <c r="E93" s="42" t="e">
+      <c r="D93" s="25"/>
+      <c r="E93" s="23" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F93" s="42"/>
+      <c r="F93" s="23"/>
       <c r="G93" s="8"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="47"/>
-      <c r="J93" s="47"/>
-      <c r="K93" s="47"/>
-      <c r="L93" s="47"/>
-      <c r="M93" s="47"/>
-      <c r="N93" s="47"/>
-      <c r="O93" s="47"/>
-      <c r="P93" s="47"/>
-      <c r="Q93" s="47"/>
-      <c r="R93" s="47"/>
-      <c r="S93" s="47"/>
-      <c r="T93" s="47"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="27"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="27"/>
+      <c r="M93" s="27"/>
+      <c r="N93" s="27"/>
+      <c r="O93" s="27"/>
+      <c r="P93" s="27"/>
+      <c r="Q93" s="27"/>
+      <c r="R93" s="27"/>
+      <c r="S93" s="27"/>
+      <c r="T93" s="27"/>
       <c r="U93" s="8"/>
       <c r="V93" s="8"/>
       <c r="W93" s="8"/>
@@ -6780,30 +6780,30 @@
       <c r="B94" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C94" s="40" t="e">
+      <c r="C94" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D94" s="41"/>
-      <c r="E94" s="42" t="e">
+      <c r="D94" s="25"/>
+      <c r="E94" s="23" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F94" s="42"/>
+      <c r="F94" s="23"/>
       <c r="G94" s="8"/>
-      <c r="H94" s="47"/>
-      <c r="I94" s="47"/>
-      <c r="J94" s="47"/>
-      <c r="K94" s="47"/>
-      <c r="L94" s="47"/>
-      <c r="M94" s="47"/>
-      <c r="N94" s="47"/>
-      <c r="O94" s="47"/>
-      <c r="P94" s="47"/>
-      <c r="Q94" s="47"/>
-      <c r="R94" s="47"/>
-      <c r="S94" s="47"/>
-      <c r="T94" s="47"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="27"/>
+      <c r="K94" s="27"/>
+      <c r="L94" s="27"/>
+      <c r="M94" s="27"/>
+      <c r="N94" s="27"/>
+      <c r="O94" s="27"/>
+      <c r="P94" s="27"/>
+      <c r="Q94" s="27"/>
+      <c r="R94" s="27"/>
+      <c r="S94" s="27"/>
+      <c r="T94" s="27"/>
       <c r="U94" s="8"/>
       <c r="V94" s="8"/>
       <c r="W94" s="8"/>
@@ -6830,30 +6830,30 @@
       <c r="B95" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C95" s="40" t="e">
+      <c r="C95" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D95" s="41"/>
-      <c r="E95" s="42" t="e">
+      <c r="D95" s="25"/>
+      <c r="E95" s="23" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F95" s="42"/>
+      <c r="F95" s="23"/>
       <c r="G95" s="8"/>
-      <c r="H95" s="47"/>
-      <c r="I95" s="47"/>
-      <c r="J95" s="47"/>
-      <c r="K95" s="47"/>
-      <c r="L95" s="47"/>
-      <c r="M95" s="47"/>
-      <c r="N95" s="47"/>
-      <c r="O95" s="47"/>
-      <c r="P95" s="47"/>
-      <c r="Q95" s="47"/>
-      <c r="R95" s="47"/>
-      <c r="S95" s="47"/>
-      <c r="T95" s="47"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="27"/>
+      <c r="K95" s="27"/>
+      <c r="L95" s="27"/>
+      <c r="M95" s="27"/>
+      <c r="N95" s="27"/>
+      <c r="O95" s="27"/>
+      <c r="P95" s="27"/>
+      <c r="Q95" s="27"/>
+      <c r="R95" s="27"/>
+      <c r="S95" s="27"/>
+      <c r="T95" s="27"/>
       <c r="U95" s="8"/>
       <c r="V95" s="8"/>
       <c r="W95" s="8"/>
@@ -6880,16 +6880,16 @@
       <c r="B96" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C96" s="40" t="e">
+      <c r="C96" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D96" s="41"/>
-      <c r="E96" s="42" t="e">
+      <c r="D96" s="25"/>
+      <c r="E96" s="23" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F96" s="42"/>
+      <c r="F96" s="23"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
@@ -6930,16 +6930,16 @@
       <c r="B97" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C97" s="40" t="e">
+      <c r="C97" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D97" s="41"/>
-      <c r="E97" s="42" t="e">
+      <c r="D97" s="25"/>
+      <c r="E97" s="23" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F97" s="42"/>
+      <c r="F97" s="23"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
@@ -6980,32 +6980,32 @@
       <c r="B98" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C98" s="40" t="e">
+      <c r="C98" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D98" s="41"/>
-      <c r="E98" s="42" t="e">
+      <c r="D98" s="25"/>
+      <c r="E98" s="23" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F98" s="42"/>
+      <c r="F98" s="23"/>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
-      <c r="I98" s="48" t="s">
+      <c r="I98" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="J98" s="49"/>
-      <c r="K98" s="49"/>
-      <c r="L98" s="49"/>
-      <c r="M98" s="49"/>
-      <c r="N98" s="49"/>
-      <c r="O98" s="49"/>
-      <c r="P98" s="49"/>
-      <c r="Q98" s="49"/>
-      <c r="R98" s="49"/>
-      <c r="S98" s="49"/>
-      <c r="T98" s="49"/>
+      <c r="J98" s="29"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="29"/>
+      <c r="M98" s="29"/>
+      <c r="N98" s="29"/>
+      <c r="O98" s="29"/>
+      <c r="P98" s="29"/>
+      <c r="Q98" s="29"/>
+      <c r="R98" s="29"/>
+      <c r="S98" s="29"/>
+      <c r="T98" s="29"/>
       <c r="U98" s="8"/>
       <c r="V98" s="8"/>
       <c r="W98" s="8"/>
@@ -7036,18 +7036,18 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
-      <c r="I99" s="49"/>
-      <c r="J99" s="49"/>
-      <c r="K99" s="49"/>
-      <c r="L99" s="49"/>
-      <c r="M99" s="49"/>
-      <c r="N99" s="49"/>
-      <c r="O99" s="49"/>
-      <c r="P99" s="49"/>
-      <c r="Q99" s="49"/>
-      <c r="R99" s="49"/>
-      <c r="S99" s="49"/>
-      <c r="T99" s="49"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="29"/>
+      <c r="M99" s="29"/>
+      <c r="N99" s="29"/>
+      <c r="O99" s="29"/>
+      <c r="P99" s="29"/>
+      <c r="Q99" s="29"/>
+      <c r="R99" s="29"/>
+      <c r="S99" s="29"/>
+      <c r="T99" s="29"/>
       <c r="U99" s="8"/>
       <c r="V99" s="8"/>
       <c r="W99" s="8"/>
@@ -7078,18 +7078,18 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
-      <c r="I100" s="49"/>
-      <c r="J100" s="49"/>
-      <c r="K100" s="49"/>
-      <c r="L100" s="49"/>
-      <c r="M100" s="49"/>
-      <c r="N100" s="49"/>
-      <c r="O100" s="49"/>
-      <c r="P100" s="49"/>
-      <c r="Q100" s="49"/>
-      <c r="R100" s="49"/>
-      <c r="S100" s="49"/>
-      <c r="T100" s="49"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
+      <c r="K100" s="29"/>
+      <c r="L100" s="29"/>
+      <c r="M100" s="29"/>
+      <c r="N100" s="29"/>
+      <c r="O100" s="29"/>
+      <c r="P100" s="29"/>
+      <c r="Q100" s="29"/>
+      <c r="R100" s="29"/>
+      <c r="S100" s="29"/>
+      <c r="T100" s="29"/>
       <c r="U100" s="8"/>
       <c r="V100" s="8"/>
       <c r="W100" s="8"/>
@@ -7120,18 +7120,18 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
-      <c r="I101" s="49"/>
-      <c r="J101" s="49"/>
-      <c r="K101" s="49"/>
-      <c r="L101" s="49"/>
-      <c r="M101" s="49"/>
-      <c r="N101" s="49"/>
-      <c r="O101" s="49"/>
-      <c r="P101" s="49"/>
-      <c r="Q101" s="49"/>
-      <c r="R101" s="49"/>
-      <c r="S101" s="49"/>
-      <c r="T101" s="49"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="29"/>
+      <c r="K101" s="29"/>
+      <c r="L101" s="29"/>
+      <c r="M101" s="29"/>
+      <c r="N101" s="29"/>
+      <c r="O101" s="29"/>
+      <c r="P101" s="29"/>
+      <c r="Q101" s="29"/>
+      <c r="R101" s="29"/>
+      <c r="S101" s="29"/>
+      <c r="T101" s="29"/>
       <c r="U101" s="8"/>
       <c r="V101" s="8"/>
       <c r="W101" s="8"/>
@@ -7163,19 +7163,19 @@
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
-      <c r="J102" s="50" t="s">
+      <c r="J102" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K102" s="51"/>
-      <c r="L102" s="51"/>
-      <c r="M102" s="51"/>
-      <c r="N102" s="51"/>
-      <c r="O102" s="51"/>
-      <c r="P102" s="51"/>
-      <c r="Q102" s="51"/>
-      <c r="R102" s="51"/>
-      <c r="S102" s="51"/>
-      <c r="T102" s="51"/>
+      <c r="K102" s="31"/>
+      <c r="L102" s="31"/>
+      <c r="M102" s="31"/>
+      <c r="N102" s="31"/>
+      <c r="O102" s="31"/>
+      <c r="P102" s="31"/>
+      <c r="Q102" s="31"/>
+      <c r="R102" s="31"/>
+      <c r="S102" s="31"/>
+      <c r="T102" s="31"/>
       <c r="U102" s="8"/>
       <c r="V102" s="8"/>
       <c r="W102" s="8"/>
@@ -7207,17 +7207,17 @@
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
-      <c r="J103" s="51"/>
-      <c r="K103" s="51"/>
-      <c r="L103" s="51"/>
-      <c r="M103" s="51"/>
-      <c r="N103" s="51"/>
-      <c r="O103" s="51"/>
-      <c r="P103" s="51"/>
-      <c r="Q103" s="51"/>
-      <c r="R103" s="51"/>
-      <c r="S103" s="51"/>
-      <c r="T103" s="51"/>
+      <c r="J103" s="31"/>
+      <c r="K103" s="31"/>
+      <c r="L103" s="31"/>
+      <c r="M103" s="31"/>
+      <c r="N103" s="31"/>
+      <c r="O103" s="31"/>
+      <c r="P103" s="31"/>
+      <c r="Q103" s="31"/>
+      <c r="R103" s="31"/>
+      <c r="S103" s="31"/>
+      <c r="T103" s="31"/>
       <c r="U103" s="8"/>
       <c r="V103" s="8"/>
       <c r="W103" s="8"/>
@@ -7249,17 +7249,17 @@
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
-      <c r="J104" s="51"/>
-      <c r="K104" s="51"/>
-      <c r="L104" s="51"/>
-      <c r="M104" s="51"/>
-      <c r="N104" s="51"/>
-      <c r="O104" s="51"/>
-      <c r="P104" s="51"/>
-      <c r="Q104" s="51"/>
-      <c r="R104" s="51"/>
-      <c r="S104" s="51"/>
-      <c r="T104" s="51"/>
+      <c r="J104" s="31"/>
+      <c r="K104" s="31"/>
+      <c r="L104" s="31"/>
+      <c r="M104" s="31"/>
+      <c r="N104" s="31"/>
+      <c r="O104" s="31"/>
+      <c r="P104" s="31"/>
+      <c r="Q104" s="31"/>
+      <c r="R104" s="31"/>
+      <c r="S104" s="31"/>
+      <c r="T104" s="31"/>
       <c r="U104" s="8"/>
       <c r="V104" s="8"/>
       <c r="W104" s="8"/>
@@ -8023,14 +8023,64 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="S26:W28"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="B5:X7"/>
+    <mergeCell ref="B1:X2"/>
+    <mergeCell ref="B4:X4"/>
+    <mergeCell ref="B8:X8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B9:X10"/>
+    <mergeCell ref="B11:X12"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B13:X14"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="B34:T35"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G40:N40"/>
+    <mergeCell ref="G39:N39"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="B57:E67"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="G69:N69"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="B70:E78"/>
+    <mergeCell ref="G70:N78"/>
+    <mergeCell ref="P57:T67"/>
+    <mergeCell ref="G57:N67"/>
+    <mergeCell ref="P70:T80"/>
+    <mergeCell ref="B82:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E82:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="P56:T56"/>
+    <mergeCell ref="V57:X67"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="V43:X51"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="Q43:T52"/>
+    <mergeCell ref="B43:E54"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="G43:N54"/>
+    <mergeCell ref="G42:N42"/>
+    <mergeCell ref="G56:N56"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="H89:T95"/>
     <mergeCell ref="I98:T101"/>
@@ -8047,64 +8097,14 @@
     <mergeCell ref="E94:F94"/>
     <mergeCell ref="E95:F95"/>
     <mergeCell ref="E96:F96"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="B43:E54"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="G43:N54"/>
-    <mergeCell ref="G42:N42"/>
-    <mergeCell ref="G56:N56"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="P56:T56"/>
-    <mergeCell ref="V57:X67"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="V43:X51"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="Q43:T52"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="B57:E67"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="G69:N69"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="B70:E78"/>
-    <mergeCell ref="G70:N78"/>
-    <mergeCell ref="P57:T67"/>
-    <mergeCell ref="G57:N67"/>
-    <mergeCell ref="P70:T80"/>
-    <mergeCell ref="B82:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E82:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="B34:T35"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="G40:N40"/>
-    <mergeCell ref="G39:N39"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="S26:W28"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="B5:X7"/>
-    <mergeCell ref="B1:X2"/>
-    <mergeCell ref="B4:X4"/>
-    <mergeCell ref="B8:X8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B9:X10"/>
-    <mergeCell ref="B11:X12"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B13:X14"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
   </mergeCells>
   <conditionalFormatting sqref="C84:D98">
     <cfRule type="colorScale" priority="1">
@@ -8543,10 +8543,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD34DB8-C9A5-4D57-A0EC-7EAD29CA4537}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8554,6 +8554,12 @@
     <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -8672,20 +8678,6 @@
       </c>
       <c r="S2">
         <v>6.1904761904761907</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -8842,12 +8834,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56528f00-8daf-4285-8b2f-184ebce7f2e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9029,19 +9022,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56528f00-8daf-4285-8b2f-184ebce7f2e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E55394AD-EAD7-4DB0-8A63-1FFADDFE8C2B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{868C143E-6D51-4467-8AC0-C13BFF0C5CF6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9066,17 +9066,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{868C143E-6D51-4467-8AC0-C13BFF0C5CF6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E55394AD-EAD7-4DB0-8A63-1FFADDFE8C2B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Criteria Ranking.xlsx
+++ b/Criteria Ranking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matis\Desktop\Aalto S1\Advanced Energy Project\SMR-X-H2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F435461-AB11-41E9-980E-C5B96A54F63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78BEAB1-F5B9-4A8A-90F7-2EC192F9835F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="2" r:id="rId1"/>
@@ -1226,68 +1226,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1311,6 +1260,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2061,31 +2061,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
       <c r="Y1" s="18"/>
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
@@ -2101,29 +2101,29 @@
       <c r="AK1" s="8"/>
     </row>
     <row r="2" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
       <c r="Y2" s="18"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
@@ -2139,10 +2139,10 @@
       <c r="AK2" s="8"/>
     </row>
     <row r="3" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -2179,31 +2179,31 @@
       <c r="AK3" s="8"/>
     </row>
     <row r="4" spans="2:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
       <c r="Y4" s="18"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
@@ -2219,31 +2219,31 @@
       <c r="AK4" s="8"/>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
       <c r="Y5" s="18"/>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
@@ -2259,29 +2259,29 @@
       <c r="AK5" s="8"/>
     </row>
     <row r="6" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
       <c r="Y6" s="18"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
@@ -2297,29 +2297,29 @@
       <c r="AK6" s="8"/>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
       <c r="Y7" s="18"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
@@ -2335,31 +2335,31 @@
       <c r="AK7" s="8"/>
     </row>
     <row r="8" spans="2:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
       <c r="Y8" s="18"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
@@ -2375,31 +2375,31 @@
       <c r="AK8" s="8"/>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
       <c r="Y9" s="18"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
@@ -2415,29 +2415,29 @@
       <c r="AK9" s="8"/>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
       <c r="Y10" s="18"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
@@ -2453,31 +2453,31 @@
       <c r="AK10" s="8"/>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
       <c r="Y11" s="18"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
@@ -2493,29 +2493,29 @@
       <c r="AK11" s="8"/>
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
       <c r="Y12" s="18"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
@@ -2531,31 +2531,31 @@
       <c r="AK12" s="8"/>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="51"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="34"/>
       <c r="Y13" s="18"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
@@ -2571,29 +2571,29 @@
       <c r="AK13" s="8"/>
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="51"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="34"/>
       <c r="Y14" s="18"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
@@ -2650,32 +2650,32 @@
       <c r="B16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="42" t="s">
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="48" t="s">
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="48"/>
-      <c r="M16" s="42" t="s">
+      <c r="L16" s="31"/>
+      <c r="M16" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="48" t="s">
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -2797,12 +2797,12 @@
       </c>
       <c r="R18" s="10"/>
       <c r="S18" s="8"/>
-      <c r="T18" s="39" t="s">
+      <c r="T18" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="18"/>
       <c r="Z18" s="8"/>
@@ -3468,11 +3468,11 @@
         <v>26</v>
       </c>
       <c r="R26" s="8"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
       <c r="X26" s="8"/>
       <c r="Y26" s="18"/>
       <c r="Z26" s="8"/>
@@ -3556,11 +3556,11 @@
         <v>26</v>
       </c>
       <c r="R27" s="8"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
       <c r="X27" s="8"/>
       <c r="Y27" s="18"/>
       <c r="Z27" s="8"/>
@@ -3643,11 +3643,11 @@
         <v>26</v>
       </c>
       <c r="R28" s="8"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="18"/>
       <c r="Z28" s="8"/>
@@ -4124,27 +4124,27 @@
       <c r="AK33" s="8"/>
     </row>
     <row r="34" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
@@ -4168,25 +4168,25 @@
       <c r="AK34" s="8"/>
     </row>
     <row r="35" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
@@ -4248,10 +4248,10 @@
       <c r="AK36" s="8"/>
     </row>
     <row r="37" spans="2:37" ht="21" x14ac:dyDescent="0.4">
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="43"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
@@ -4339,37 +4339,37 @@
       <c r="AK38" s="8"/>
     </row>
     <row r="39" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="41" t="s">
+      <c r="G39" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
       <c r="O39" s="16"/>
       <c r="P39" s="8"/>
-      <c r="Q39" s="34" t="s">
+      <c r="Q39" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
       <c r="U39" s="8"/>
-      <c r="V39" s="35" t="s">
+      <c r="V39" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="W39" s="35"/>
-      <c r="X39" s="35"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
       <c r="Y39" s="18"/>
       <c r="Z39" s="8"/>
       <c r="AA39" s="8" t="s">
@@ -4389,37 +4389,37 @@
       <c r="AK39" s="8"/>
     </row>
     <row r="40" spans="2:37" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="32" t="s">
+      <c r="G40" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
       <c r="O40" s="13"/>
       <c r="P40" s="8"/>
-      <c r="Q40" s="32" t="s">
+      <c r="Q40" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="32"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
       <c r="U40" s="13"/>
-      <c r="V40" s="32" t="s">
+      <c r="V40" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="W40" s="32"/>
-      <c r="X40" s="32"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
       <c r="Y40" s="18"/>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8" t="s">
@@ -4479,37 +4479,37 @@
       <c r="AK41" s="8"/>
     </row>
     <row r="42" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="34" t="s">
+      <c r="G42" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
       <c r="O42" s="1"/>
       <c r="P42" s="8"/>
-      <c r="Q42" s="35" t="s">
+      <c r="Q42" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
       <c r="U42" s="8"/>
-      <c r="V42" s="35" t="s">
+      <c r="V42" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="W42" s="35"/>
-      <c r="X42" s="35"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
       <c r="Y42" s="18"/>
       <c r="Z42" s="8"/>
       <c r="AA42" s="8" t="s">
@@ -4527,37 +4527,37 @@
       <c r="AK42" s="8"/>
     </row>
     <row r="43" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="32" t="s">
+      <c r="G43" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
       <c r="O43" s="15"/>
       <c r="P43" s="8"/>
-      <c r="Q43" s="36" t="s">
+      <c r="Q43" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
       <c r="U43" s="8"/>
-      <c r="V43" s="36" t="s">
+      <c r="V43" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="44"/>
       <c r="Y43" s="18"/>
       <c r="Z43" s="8"/>
       <c r="AA43" s="8" t="s">
@@ -4577,29 +4577,29 @@
       <c r="AK43" s="8"/>
     </row>
     <row r="44" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
       <c r="O44" s="15"/>
       <c r="P44" s="8"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
       <c r="U44" s="8"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="44"/>
+      <c r="X44" s="44"/>
       <c r="Y44" s="18"/>
       <c r="Z44" s="8"/>
       <c r="AA44" s="8" t="s">
@@ -4619,29 +4619,29 @@
       <c r="AK44" s="8"/>
     </row>
     <row r="45" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
       <c r="O45" s="15"/>
       <c r="P45" s="8"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="44"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
       <c r="U45" s="8"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="44"/>
+      <c r="X45" s="44"/>
       <c r="Y45" s="18"/>
       <c r="Z45" s="8"/>
       <c r="AA45" s="8" t="s">
@@ -4659,29 +4659,29 @@
       <c r="AK45" s="8"/>
     </row>
     <row r="46" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
       <c r="O46" s="15"/>
       <c r="P46" s="8"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
       <c r="U46" s="8"/>
-      <c r="V46" s="37"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
+      <c r="V46" s="44"/>
+      <c r="W46" s="44"/>
+      <c r="X46" s="44"/>
       <c r="Y46" s="18"/>
       <c r="Z46" s="8"/>
       <c r="AA46" s="8" t="s">
@@ -4701,29 +4701,29 @@
       <c r="AK46" s="8"/>
     </row>
     <row r="47" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
       <c r="O47" s="15"/>
       <c r="P47" s="8"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
       <c r="U47" s="8"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="44"/>
+      <c r="X47" s="44"/>
       <c r="Y47" s="18"/>
       <c r="Z47" s="8"/>
       <c r="AA47" s="8" t="s">
@@ -4743,29 +4743,29 @@
       <c r="AK47" s="8"/>
     </row>
     <row r="48" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
       <c r="O48" s="15"/>
       <c r="P48" s="8"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="44"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
       <c r="U48" s="8"/>
-      <c r="V48" s="37"/>
-      <c r="W48" s="37"/>
-      <c r="X48" s="37"/>
+      <c r="V48" s="44"/>
+      <c r="W48" s="44"/>
+      <c r="X48" s="44"/>
       <c r="Y48" s="18"/>
       <c r="Z48" s="8"/>
       <c r="AA48" s="8" t="s">
@@ -4785,29 +4785,29 @@
       <c r="AK48" s="8"/>
     </row>
     <row r="49" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
       <c r="O49" s="15"/>
       <c r="P49" s="8"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
       <c r="U49" s="8"/>
-      <c r="V49" s="37"/>
-      <c r="W49" s="37"/>
-      <c r="X49" s="37"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="44"/>
       <c r="Y49" s="18"/>
       <c r="Z49" s="8"/>
       <c r="AA49" s="8" t="s">
@@ -4827,29 +4827,29 @@
       <c r="AK49" s="8"/>
     </row>
     <row r="50" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
       <c r="F50" s="8"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
       <c r="O50" s="15"/>
       <c r="P50" s="8"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
-      <c r="S50" s="37"/>
-      <c r="T50" s="37"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
       <c r="U50" s="8"/>
-      <c r="V50" s="37"/>
-      <c r="W50" s="37"/>
-      <c r="X50" s="37"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="44"/>
       <c r="Y50" s="18"/>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8" t="s">
@@ -4869,29 +4869,29 @@
       <c r="AK50" s="8"/>
     </row>
     <row r="51" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
       <c r="F51" s="8"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
       <c r="O51" s="15"/>
       <c r="P51" s="8"/>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="37"/>
-      <c r="S51" s="37"/>
-      <c r="T51" s="37"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="44"/>
       <c r="U51" s="8"/>
-      <c r="V51" s="37"/>
-      <c r="W51" s="37"/>
-      <c r="X51" s="37"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="44"/>
       <c r="Y51" s="18"/>
       <c r="Z51" s="8"/>
       <c r="AA51" s="8" t="s">
@@ -4911,25 +4911,25 @@
       <c r="AK51" s="8"/>
     </row>
     <row r="52" spans="2:37" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
       <c r="F52" s="8"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
       <c r="O52" s="15"/>
       <c r="P52" s="8"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="37"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44"/>
       <c r="U52" s="8"/>
       <c r="V52" s="8"/>
       <c r="W52" s="8"/>
@@ -4953,19 +4953,19 @@
       <c r="AK52" s="8"/>
     </row>
     <row r="53" spans="2:37" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
@@ -4995,19 +4995,19 @@
       <c r="AK53" s="8"/>
     </row>
     <row r="54" spans="2:37" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
       <c r="O54" s="8"/>
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
@@ -5077,37 +5077,37 @@
       <c r="AK55" s="8"/>
     </row>
     <row r="56" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
       <c r="F56" s="8"/>
-      <c r="G56" s="35" t="s">
+      <c r="G56" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
       <c r="O56" s="8"/>
-      <c r="P56" s="35" t="s">
+      <c r="P56" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35"/>
-      <c r="S56" s="35"/>
-      <c r="T56" s="35"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="36"/>
       <c r="U56" s="8"/>
-      <c r="V56" s="35" t="s">
+      <c r="V56" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="W56" s="35"/>
-      <c r="X56" s="35"/>
+      <c r="W56" s="36"/>
+      <c r="X56" s="36"/>
       <c r="Y56" s="18"/>
       <c r="Z56" s="8"/>
       <c r="AA56" s="8" t="s">
@@ -5127,37 +5127,37 @@
       <c r="AK56" s="8"/>
     </row>
     <row r="57" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="32" t="s">
+      <c r="G57" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="32"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="38" t="s">
+      <c r="P57" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="Q57" s="38"/>
-      <c r="R57" s="38"/>
-      <c r="S57" s="38"/>
-      <c r="T57" s="38"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="26"/>
+      <c r="S57" s="26"/>
+      <c r="T57" s="26"/>
       <c r="U57" s="8"/>
-      <c r="V57" s="32" t="s">
+      <c r="V57" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="W57" s="32"/>
-      <c r="X57" s="32"/>
+      <c r="W57" s="35"/>
+      <c r="X57" s="35"/>
       <c r="Y57" s="18"/>
       <c r="Z57" s="8"/>
       <c r="AA57" s="8" t="s">
@@ -5177,29 +5177,29 @@
       <c r="AK57" s="8"/>
     </row>
     <row r="58" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
       <c r="F58" s="8"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="38"/>
-      <c r="Q58" s="38"/>
-      <c r="R58" s="38"/>
-      <c r="S58" s="38"/>
-      <c r="T58" s="38"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="26"/>
+      <c r="S58" s="26"/>
+      <c r="T58" s="26"/>
       <c r="U58" s="8"/>
-      <c r="V58" s="32"/>
-      <c r="W58" s="32"/>
-      <c r="X58" s="32"/>
+      <c r="V58" s="35"/>
+      <c r="W58" s="35"/>
+      <c r="X58" s="35"/>
       <c r="Y58" s="18"/>
       <c r="Z58" s="8"/>
       <c r="AA58" s="8" t="s">
@@ -5219,29 +5219,29 @@
       <c r="AK58" s="8"/>
     </row>
     <row r="59" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
       <c r="F59" s="8"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
       <c r="O59" s="8"/>
-      <c r="P59" s="38"/>
-      <c r="Q59" s="38"/>
-      <c r="R59" s="38"/>
-      <c r="S59" s="38"/>
-      <c r="T59" s="38"/>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="26"/>
+      <c r="S59" s="26"/>
+      <c r="T59" s="26"/>
       <c r="U59" s="8"/>
-      <c r="V59" s="32"/>
-      <c r="W59" s="32"/>
-      <c r="X59" s="32"/>
+      <c r="V59" s="35"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="35"/>
       <c r="Y59" s="18"/>
       <c r="Z59" s="8"/>
       <c r="AA59" s="8" t="s">
@@ -5261,29 +5261,29 @@
       <c r="AK59" s="8"/>
     </row>
     <row r="60" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
       <c r="F60" s="8"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="32"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="32"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
       <c r="O60" s="8"/>
-      <c r="P60" s="38"/>
-      <c r="Q60" s="38"/>
-      <c r="R60" s="38"/>
-      <c r="S60" s="38"/>
-      <c r="T60" s="38"/>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="26"/>
+      <c r="R60" s="26"/>
+      <c r="S60" s="26"/>
+      <c r="T60" s="26"/>
       <c r="U60" s="8"/>
-      <c r="V60" s="32"/>
-      <c r="W60" s="32"/>
-      <c r="X60" s="32"/>
+      <c r="V60" s="35"/>
+      <c r="W60" s="35"/>
+      <c r="X60" s="35"/>
       <c r="Y60" s="18"/>
       <c r="Z60" s="8"/>
       <c r="AA60" s="8" t="s">
@@ -5303,29 +5303,29 @@
       <c r="AK60" s="8"/>
     </row>
     <row r="61" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
       <c r="F61" s="8"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="32"/>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
       <c r="O61" s="8"/>
-      <c r="P61" s="38"/>
-      <c r="Q61" s="38"/>
-      <c r="R61" s="38"/>
-      <c r="S61" s="38"/>
-      <c r="T61" s="38"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="26"/>
+      <c r="R61" s="26"/>
+      <c r="S61" s="26"/>
+      <c r="T61" s="26"/>
       <c r="U61" s="8"/>
-      <c r="V61" s="32"/>
-      <c r="W61" s="32"/>
-      <c r="X61" s="32"/>
+      <c r="V61" s="35"/>
+      <c r="W61" s="35"/>
+      <c r="X61" s="35"/>
       <c r="Y61" s="18"/>
       <c r="Z61" s="8"/>
       <c r="AA61" s="8" t="s">
@@ -5345,29 +5345,29 @@
       <c r="AK61" s="8"/>
     </row>
     <row r="62" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
       <c r="F62" s="8"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="32"/>
-      <c r="M62" s="32"/>
-      <c r="N62" s="32"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
       <c r="O62" s="8"/>
-      <c r="P62" s="38"/>
-      <c r="Q62" s="38"/>
-      <c r="R62" s="38"/>
-      <c r="S62" s="38"/>
-      <c r="T62" s="38"/>
+      <c r="P62" s="26"/>
+      <c r="Q62" s="26"/>
+      <c r="R62" s="26"/>
+      <c r="S62" s="26"/>
+      <c r="T62" s="26"/>
       <c r="U62" s="8"/>
-      <c r="V62" s="32"/>
-      <c r="W62" s="32"/>
-      <c r="X62" s="32"/>
+      <c r="V62" s="35"/>
+      <c r="W62" s="35"/>
+      <c r="X62" s="35"/>
       <c r="Y62" s="18"/>
       <c r="Z62" s="8"/>
       <c r="AA62" s="8" t="s">
@@ -5387,29 +5387,29 @@
       <c r="AK62" s="8"/>
     </row>
     <row r="63" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
       <c r="F63" s="8"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
       <c r="O63" s="8"/>
-      <c r="P63" s="38"/>
-      <c r="Q63" s="38"/>
-      <c r="R63" s="38"/>
-      <c r="S63" s="38"/>
-      <c r="T63" s="38"/>
+      <c r="P63" s="26"/>
+      <c r="Q63" s="26"/>
+      <c r="R63" s="26"/>
+      <c r="S63" s="26"/>
+      <c r="T63" s="26"/>
       <c r="U63" s="8"/>
-      <c r="V63" s="32"/>
-      <c r="W63" s="32"/>
-      <c r="X63" s="32"/>
+      <c r="V63" s="35"/>
+      <c r="W63" s="35"/>
+      <c r="X63" s="35"/>
       <c r="Y63" s="18"/>
       <c r="Z63" s="8"/>
       <c r="AA63" s="8" t="s">
@@ -5429,29 +5429,29 @@
       <c r="AK63" s="8"/>
     </row>
     <row r="64" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
       <c r="F64" s="8"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
       <c r="O64" s="8"/>
-      <c r="P64" s="38"/>
-      <c r="Q64" s="38"/>
-      <c r="R64" s="38"/>
-      <c r="S64" s="38"/>
-      <c r="T64" s="38"/>
+      <c r="P64" s="26"/>
+      <c r="Q64" s="26"/>
+      <c r="R64" s="26"/>
+      <c r="S64" s="26"/>
+      <c r="T64" s="26"/>
       <c r="U64" s="8"/>
-      <c r="V64" s="32"/>
-      <c r="W64" s="32"/>
-      <c r="X64" s="32"/>
+      <c r="V64" s="35"/>
+      <c r="W64" s="35"/>
+      <c r="X64" s="35"/>
       <c r="Y64" s="18"/>
       <c r="Z64" s="8"/>
       <c r="AA64" s="8" t="s">
@@ -5471,29 +5471,29 @@
       <c r="AK64" s="8"/>
     </row>
     <row r="65" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
       <c r="F65" s="8"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
       <c r="O65" s="8"/>
-      <c r="P65" s="38"/>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="38"/>
-      <c r="S65" s="38"/>
-      <c r="T65" s="38"/>
+      <c r="P65" s="26"/>
+      <c r="Q65" s="26"/>
+      <c r="R65" s="26"/>
+      <c r="S65" s="26"/>
+      <c r="T65" s="26"/>
       <c r="U65" s="8"/>
-      <c r="V65" s="32"/>
-      <c r="W65" s="32"/>
-      <c r="X65" s="32"/>
+      <c r="V65" s="35"/>
+      <c r="W65" s="35"/>
+      <c r="X65" s="35"/>
       <c r="Y65" s="18"/>
       <c r="Z65" s="8"/>
       <c r="AA65" s="8" t="s">
@@ -5513,29 +5513,29 @@
       <c r="AK65" s="8"/>
     </row>
     <row r="66" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="32"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="32"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
       <c r="O66" s="8"/>
-      <c r="P66" s="38"/>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="38"/>
-      <c r="S66" s="38"/>
-      <c r="T66" s="38"/>
+      <c r="P66" s="26"/>
+      <c r="Q66" s="26"/>
+      <c r="R66" s="26"/>
+      <c r="S66" s="26"/>
+      <c r="T66" s="26"/>
       <c r="U66" s="8"/>
-      <c r="V66" s="32"/>
-      <c r="W66" s="32"/>
-      <c r="X66" s="32"/>
+      <c r="V66" s="35"/>
+      <c r="W66" s="35"/>
+      <c r="X66" s="35"/>
       <c r="Y66" s="18"/>
       <c r="Z66" s="8"/>
       <c r="AA66" s="8" t="s">
@@ -5553,29 +5553,29 @@
       <c r="AK66" s="8"/>
     </row>
     <row r="67" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
       <c r="F67" s="8"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="32"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="32"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
       <c r="O67" s="8"/>
-      <c r="P67" s="38"/>
-      <c r="Q67" s="38"/>
-      <c r="R67" s="38"/>
-      <c r="S67" s="38"/>
-      <c r="T67" s="38"/>
+      <c r="P67" s="26"/>
+      <c r="Q67" s="26"/>
+      <c r="R67" s="26"/>
+      <c r="S67" s="26"/>
+      <c r="T67" s="26"/>
       <c r="U67" s="8"/>
-      <c r="V67" s="32"/>
-      <c r="W67" s="32"/>
-      <c r="X67" s="32"/>
+      <c r="V67" s="35"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="35"/>
       <c r="Y67" s="18"/>
       <c r="Z67" s="8"/>
       <c r="AA67" s="8" t="s">
@@ -5635,31 +5635,31 @@
       <c r="AK68" s="8"/>
     </row>
     <row r="69" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
       <c r="F69" s="8"/>
-      <c r="G69" s="35" t="s">
+      <c r="G69" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
       <c r="O69" s="8"/>
-      <c r="P69" s="35" t="s">
+      <c r="P69" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
-      <c r="S69" s="35"/>
-      <c r="T69" s="35"/>
+      <c r="Q69" s="36"/>
+      <c r="R69" s="36"/>
+      <c r="S69" s="36"/>
+      <c r="T69" s="36"/>
       <c r="U69" s="8"/>
       <c r="V69" s="13"/>
       <c r="W69" s="13"/>
@@ -5681,31 +5681,31 @@
       <c r="AK69" s="8"/>
     </row>
     <row r="70" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
       <c r="F70" s="8"/>
-      <c r="G70" s="32" t="s">
+      <c r="G70" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="32"/>
-      <c r="L70" s="32"/>
-      <c r="M70" s="32"/>
-      <c r="N70" s="32"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
       <c r="O70" s="8"/>
-      <c r="P70" s="32" t="s">
+      <c r="P70" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="Q70" s="32"/>
-      <c r="R70" s="32"/>
-      <c r="S70" s="32"/>
-      <c r="T70" s="32"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="35"/>
+      <c r="T70" s="35"/>
       <c r="U70" s="8"/>
       <c r="V70" s="13"/>
       <c r="W70" s="13"/>
@@ -5727,25 +5727,25 @@
       <c r="AK70" s="8"/>
     </row>
     <row r="71" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
       <c r="F71" s="8"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="32"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="32"/>
-      <c r="L71" s="32"/>
-      <c r="M71" s="32"/>
-      <c r="N71" s="32"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
       <c r="O71" s="8"/>
-      <c r="P71" s="32"/>
-      <c r="Q71" s="32"/>
-      <c r="R71" s="32"/>
-      <c r="S71" s="32"/>
-      <c r="T71" s="32"/>
+      <c r="P71" s="35"/>
+      <c r="Q71" s="35"/>
+      <c r="R71" s="35"/>
+      <c r="S71" s="35"/>
+      <c r="T71" s="35"/>
       <c r="U71" s="8"/>
       <c r="V71" s="13"/>
       <c r="W71" s="13"/>
@@ -5767,25 +5767,25 @@
       <c r="AK71" s="8"/>
     </row>
     <row r="72" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
       <c r="F72" s="8"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="32"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="32"/>
-      <c r="L72" s="32"/>
-      <c r="M72" s="32"/>
-      <c r="N72" s="32"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="35"/>
       <c r="O72" s="8"/>
-      <c r="P72" s="32"/>
-      <c r="Q72" s="32"/>
-      <c r="R72" s="32"/>
-      <c r="S72" s="32"/>
-      <c r="T72" s="32"/>
+      <c r="P72" s="35"/>
+      <c r="Q72" s="35"/>
+      <c r="R72" s="35"/>
+      <c r="S72" s="35"/>
+      <c r="T72" s="35"/>
       <c r="U72" s="8"/>
       <c r="V72" s="13"/>
       <c r="W72" s="13"/>
@@ -5809,25 +5809,25 @@
       <c r="AK72" s="8"/>
     </row>
     <row r="73" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
       <c r="F73" s="8"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="32"/>
-      <c r="M73" s="32"/>
-      <c r="N73" s="32"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="35"/>
       <c r="O73" s="8"/>
-      <c r="P73" s="32"/>
-      <c r="Q73" s="32"/>
-      <c r="R73" s="32"/>
-      <c r="S73" s="32"/>
-      <c r="T73" s="32"/>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="35"/>
+      <c r="R73" s="35"/>
+      <c r="S73" s="35"/>
+      <c r="T73" s="35"/>
       <c r="U73" s="8"/>
       <c r="V73" s="8"/>
       <c r="W73" s="8"/>
@@ -5851,25 +5851,25 @@
       <c r="AK73" s="8"/>
     </row>
     <row r="74" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
       <c r="F74" s="8"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="32"/>
-      <c r="L74" s="32"/>
-      <c r="M74" s="32"/>
-      <c r="N74" s="32"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
       <c r="O74" s="8"/>
-      <c r="P74" s="32"/>
-      <c r="Q74" s="32"/>
-      <c r="R74" s="32"/>
-      <c r="S74" s="32"/>
-      <c r="T74" s="32"/>
+      <c r="P74" s="35"/>
+      <c r="Q74" s="35"/>
+      <c r="R74" s="35"/>
+      <c r="S74" s="35"/>
+      <c r="T74" s="35"/>
       <c r="U74" s="8"/>
       <c r="V74" s="8"/>
       <c r="W74" s="8"/>
@@ -5893,25 +5893,25 @@
       <c r="AK74" s="8"/>
     </row>
     <row r="75" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
       <c r="F75" s="8"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="32"/>
-      <c r="L75" s="32"/>
-      <c r="M75" s="32"/>
-      <c r="N75" s="32"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
       <c r="O75" s="8"/>
-      <c r="P75" s="32"/>
-      <c r="Q75" s="32"/>
-      <c r="R75" s="32"/>
-      <c r="S75" s="32"/>
-      <c r="T75" s="32"/>
+      <c r="P75" s="35"/>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="35"/>
+      <c r="T75" s="35"/>
       <c r="U75" s="8"/>
       <c r="V75" s="8"/>
       <c r="W75" s="8"/>
@@ -5935,25 +5935,25 @@
       <c r="AK75" s="8"/>
     </row>
     <row r="76" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="32"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
       <c r="F76" s="8"/>
-      <c r="G76" s="32"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="32"/>
-      <c r="J76" s="32"/>
-      <c r="K76" s="32"/>
-      <c r="L76" s="32"/>
-      <c r="M76" s="32"/>
-      <c r="N76" s="32"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="35"/>
+      <c r="N76" s="35"/>
       <c r="O76" s="8"/>
-      <c r="P76" s="32"/>
-      <c r="Q76" s="32"/>
-      <c r="R76" s="32"/>
-      <c r="S76" s="32"/>
-      <c r="T76" s="32"/>
+      <c r="P76" s="35"/>
+      <c r="Q76" s="35"/>
+      <c r="R76" s="35"/>
+      <c r="S76" s="35"/>
+      <c r="T76" s="35"/>
       <c r="U76" s="8"/>
       <c r="V76" s="8"/>
       <c r="W76" s="8"/>
@@ -5977,25 +5977,25 @@
       <c r="AK76" s="8"/>
     </row>
     <row r="77" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
       <c r="F77" s="8"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="32"/>
-      <c r="J77" s="32"/>
-      <c r="K77" s="32"/>
-      <c r="L77" s="32"/>
-      <c r="M77" s="32"/>
-      <c r="N77" s="32"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="35"/>
       <c r="O77" s="8"/>
-      <c r="P77" s="32"/>
-      <c r="Q77" s="32"/>
-      <c r="R77" s="32"/>
-      <c r="S77" s="32"/>
-      <c r="T77" s="32"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="35"/>
+      <c r="R77" s="35"/>
+      <c r="S77" s="35"/>
+      <c r="T77" s="35"/>
       <c r="U77" s="8"/>
       <c r="V77" s="8"/>
       <c r="W77" s="8"/>
@@ -6019,25 +6019,25 @@
       <c r="AK77" s="8"/>
     </row>
     <row r="78" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B78" s="32"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
       <c r="F78" s="8"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="32"/>
-      <c r="L78" s="32"/>
-      <c r="M78" s="32"/>
-      <c r="N78" s="32"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="35"/>
+      <c r="N78" s="35"/>
       <c r="O78" s="8"/>
-      <c r="P78" s="32"/>
-      <c r="Q78" s="32"/>
-      <c r="R78" s="32"/>
-      <c r="S78" s="32"/>
-      <c r="T78" s="32"/>
+      <c r="P78" s="35"/>
+      <c r="Q78" s="35"/>
+      <c r="R78" s="35"/>
+      <c r="S78" s="35"/>
+      <c r="T78" s="35"/>
       <c r="U78" s="8"/>
       <c r="V78" s="8"/>
       <c r="W78" s="8"/>
@@ -6075,11 +6075,11 @@
       <c r="M79" s="8"/>
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
-      <c r="P79" s="32"/>
-      <c r="Q79" s="32"/>
-      <c r="R79" s="32"/>
-      <c r="S79" s="32"/>
-      <c r="T79" s="32"/>
+      <c r="P79" s="35"/>
+      <c r="Q79" s="35"/>
+      <c r="R79" s="35"/>
+      <c r="S79" s="35"/>
+      <c r="T79" s="35"/>
       <c r="U79" s="8"/>
       <c r="V79" s="8"/>
       <c r="W79" s="8"/>
@@ -6117,11 +6117,11 @@
       <c r="M80" s="8"/>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
-      <c r="P80" s="32"/>
-      <c r="Q80" s="32"/>
-      <c r="R80" s="32"/>
-      <c r="S80" s="32"/>
-      <c r="T80" s="32"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="35"/>
+      <c r="T80" s="35"/>
       <c r="U80" s="8"/>
       <c r="V80" s="8"/>
       <c r="W80" s="8"/>
@@ -6187,15 +6187,15 @@
       <c r="AK81" s="8"/>
     </row>
     <row r="82" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B82" s="39" t="s">
+      <c r="B82" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39" t="s">
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="F82" s="39"/>
+      <c r="F82" s="25"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
@@ -6233,11 +6233,11 @@
       <c r="AK82" s="8"/>
     </row>
     <row r="83" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
@@ -6278,16 +6278,16 @@
       <c r="B84" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="24" t="e">
+      <c r="C84" s="40" t="e">
         <f>AG19</f>
         <v>#N/A</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="23" t="e">
+      <c r="D84" s="41"/>
+      <c r="E84" s="42" t="e">
         <f>_xlfn.RANK.EQ(C84,$C$84:$D$97)</f>
         <v>#N/A</v>
       </c>
-      <c r="F84" s="23"/>
+      <c r="F84" s="42"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
@@ -6328,16 +6328,16 @@
       <c r="B85" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C85" s="24" t="e">
+      <c r="C85" s="40" t="e">
         <f t="shared" ref="C85:C98" si="2">AG20</f>
         <v>#N/A</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="23" t="e">
+      <c r="D85" s="41"/>
+      <c r="E85" s="42" t="e">
         <f t="shared" ref="E85:E98" si="3">_xlfn.RANK.EQ(C85,$C$84:$D$97)</f>
         <v>#N/A</v>
       </c>
-      <c r="F85" s="23"/>
+      <c r="F85" s="42"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
@@ -6378,16 +6378,16 @@
       <c r="B86" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C86" s="24" t="e">
+      <c r="C86" s="40" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D86" s="25"/>
-      <c r="E86" s="23" t="e">
+      <c r="D86" s="41"/>
+      <c r="E86" s="42" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F86" s="23"/>
+      <c r="F86" s="42"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
@@ -6428,16 +6428,16 @@
       <c r="B87" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C87" s="24" t="e">
+      <c r="C87" s="40" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="23" t="e">
+      <c r="D87" s="41"/>
+      <c r="E87" s="42" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F87" s="23"/>
+      <c r="F87" s="42"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
@@ -6478,16 +6478,16 @@
       <c r="B88" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="24" t="e">
+      <c r="C88" s="40" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="23" t="e">
+      <c r="D88" s="41"/>
+      <c r="E88" s="42" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F88" s="23"/>
+      <c r="F88" s="42"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
@@ -6528,32 +6528,32 @@
       <c r="B89" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="24" t="e">
+      <c r="C89" s="40" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D89" s="25"/>
-      <c r="E89" s="23" t="e">
+      <c r="D89" s="41"/>
+      <c r="E89" s="42" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F89" s="23"/>
+      <c r="F89" s="42"/>
       <c r="G89" s="8"/>
-      <c r="H89" s="26" t="s">
+      <c r="H89" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="I89" s="27"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="27"/>
-      <c r="M89" s="27"/>
-      <c r="N89" s="27"/>
-      <c r="O89" s="27"/>
-      <c r="P89" s="27"/>
-      <c r="Q89" s="27"/>
-      <c r="R89" s="27"/>
-      <c r="S89" s="27"/>
-      <c r="T89" s="27"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="47"/>
+      <c r="K89" s="47"/>
+      <c r="L89" s="47"/>
+      <c r="M89" s="47"/>
+      <c r="N89" s="47"/>
+      <c r="O89" s="47"/>
+      <c r="P89" s="47"/>
+      <c r="Q89" s="47"/>
+      <c r="R89" s="47"/>
+      <c r="S89" s="47"/>
+      <c r="T89" s="47"/>
       <c r="U89" s="8"/>
       <c r="V89" s="8"/>
       <c r="W89" s="8"/>
@@ -6580,30 +6580,30 @@
       <c r="B90" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C90" s="24" t="e">
+      <c r="C90" s="40" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D90" s="25"/>
-      <c r="E90" s="23" t="e">
+      <c r="D90" s="41"/>
+      <c r="E90" s="42" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F90" s="23"/>
+      <c r="F90" s="42"/>
       <c r="G90" s="8"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="27"/>
-      <c r="L90" s="27"/>
-      <c r="M90" s="27"/>
-      <c r="N90" s="27"/>
-      <c r="O90" s="27"/>
-      <c r="P90" s="27"/>
-      <c r="Q90" s="27"/>
-      <c r="R90" s="27"/>
-      <c r="S90" s="27"/>
-      <c r="T90" s="27"/>
+      <c r="H90" s="47"/>
+      <c r="I90" s="47"/>
+      <c r="J90" s="47"/>
+      <c r="K90" s="47"/>
+      <c r="L90" s="47"/>
+      <c r="M90" s="47"/>
+      <c r="N90" s="47"/>
+      <c r="O90" s="47"/>
+      <c r="P90" s="47"/>
+      <c r="Q90" s="47"/>
+      <c r="R90" s="47"/>
+      <c r="S90" s="47"/>
+      <c r="T90" s="47"/>
       <c r="U90" s="8"/>
       <c r="V90" s="8"/>
       <c r="W90" s="8"/>
@@ -6630,30 +6630,30 @@
       <c r="B91" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C91" s="24" t="e">
+      <c r="C91" s="40" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D91" s="25"/>
-      <c r="E91" s="23" t="e">
+      <c r="D91" s="41"/>
+      <c r="E91" s="42" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F91" s="23"/>
+      <c r="F91" s="42"/>
       <c r="G91" s="8"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="27"/>
-      <c r="M91" s="27"/>
-      <c r="N91" s="27"/>
-      <c r="O91" s="27"/>
-      <c r="P91" s="27"/>
-      <c r="Q91" s="27"/>
-      <c r="R91" s="27"/>
-      <c r="S91" s="27"/>
-      <c r="T91" s="27"/>
+      <c r="H91" s="47"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="47"/>
+      <c r="K91" s="47"/>
+      <c r="L91" s="47"/>
+      <c r="M91" s="47"/>
+      <c r="N91" s="47"/>
+      <c r="O91" s="47"/>
+      <c r="P91" s="47"/>
+      <c r="Q91" s="47"/>
+      <c r="R91" s="47"/>
+      <c r="S91" s="47"/>
+      <c r="T91" s="47"/>
       <c r="U91" s="8"/>
       <c r="V91" s="8"/>
       <c r="W91" s="8"/>
@@ -6680,30 +6680,30 @@
       <c r="B92" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="24" t="e">
+      <c r="C92" s="40" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D92" s="25"/>
-      <c r="E92" s="23" t="e">
+      <c r="D92" s="41"/>
+      <c r="E92" s="42" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F92" s="23"/>
+      <c r="F92" s="42"/>
       <c r="G92" s="8"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="27"/>
-      <c r="M92" s="27"/>
-      <c r="N92" s="27"/>
-      <c r="O92" s="27"/>
-      <c r="P92" s="27"/>
-      <c r="Q92" s="27"/>
-      <c r="R92" s="27"/>
-      <c r="S92" s="27"/>
-      <c r="T92" s="27"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="47"/>
+      <c r="N92" s="47"/>
+      <c r="O92" s="47"/>
+      <c r="P92" s="47"/>
+      <c r="Q92" s="47"/>
+      <c r="R92" s="47"/>
+      <c r="S92" s="47"/>
+      <c r="T92" s="47"/>
       <c r="U92" s="8"/>
       <c r="V92" s="8"/>
       <c r="W92" s="8"/>
@@ -6730,30 +6730,30 @@
       <c r="B93" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="24" t="e">
+      <c r="C93" s="40" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="23" t="e">
+      <c r="D93" s="41"/>
+      <c r="E93" s="42" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F93" s="23"/>
+      <c r="F93" s="42"/>
       <c r="G93" s="8"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="27"/>
-      <c r="M93" s="27"/>
-      <c r="N93" s="27"/>
-      <c r="O93" s="27"/>
-      <c r="P93" s="27"/>
-      <c r="Q93" s="27"/>
-      <c r="R93" s="27"/>
-      <c r="S93" s="27"/>
-      <c r="T93" s="27"/>
+      <c r="H93" s="47"/>
+      <c r="I93" s="47"/>
+      <c r="J93" s="47"/>
+      <c r="K93" s="47"/>
+      <c r="L93" s="47"/>
+      <c r="M93" s="47"/>
+      <c r="N93" s="47"/>
+      <c r="O93" s="47"/>
+      <c r="P93" s="47"/>
+      <c r="Q93" s="47"/>
+      <c r="R93" s="47"/>
+      <c r="S93" s="47"/>
+      <c r="T93" s="47"/>
       <c r="U93" s="8"/>
       <c r="V93" s="8"/>
       <c r="W93" s="8"/>
@@ -6780,30 +6780,30 @@
       <c r="B94" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C94" s="24" t="e">
+      <c r="C94" s="40" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="23" t="e">
+      <c r="D94" s="41"/>
+      <c r="E94" s="42" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F94" s="23"/>
+      <c r="F94" s="42"/>
       <c r="G94" s="8"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
-      <c r="J94" s="27"/>
-      <c r="K94" s="27"/>
-      <c r="L94" s="27"/>
-      <c r="M94" s="27"/>
-      <c r="N94" s="27"/>
-      <c r="O94" s="27"/>
-      <c r="P94" s="27"/>
-      <c r="Q94" s="27"/>
-      <c r="R94" s="27"/>
-      <c r="S94" s="27"/>
-      <c r="T94" s="27"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="47"/>
+      <c r="K94" s="47"/>
+      <c r="L94" s="47"/>
+      <c r="M94" s="47"/>
+      <c r="N94" s="47"/>
+      <c r="O94" s="47"/>
+      <c r="P94" s="47"/>
+      <c r="Q94" s="47"/>
+      <c r="R94" s="47"/>
+      <c r="S94" s="47"/>
+      <c r="T94" s="47"/>
       <c r="U94" s="8"/>
       <c r="V94" s="8"/>
       <c r="W94" s="8"/>
@@ -6830,30 +6830,30 @@
       <c r="B95" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C95" s="24" t="e">
+      <c r="C95" s="40" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D95" s="25"/>
-      <c r="E95" s="23" t="e">
+      <c r="D95" s="41"/>
+      <c r="E95" s="42" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F95" s="23"/>
+      <c r="F95" s="42"/>
       <c r="G95" s="8"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="27"/>
-      <c r="J95" s="27"/>
-      <c r="K95" s="27"/>
-      <c r="L95" s="27"/>
-      <c r="M95" s="27"/>
-      <c r="N95" s="27"/>
-      <c r="O95" s="27"/>
-      <c r="P95" s="27"/>
-      <c r="Q95" s="27"/>
-      <c r="R95" s="27"/>
-      <c r="S95" s="27"/>
-      <c r="T95" s="27"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="47"/>
+      <c r="K95" s="47"/>
+      <c r="L95" s="47"/>
+      <c r="M95" s="47"/>
+      <c r="N95" s="47"/>
+      <c r="O95" s="47"/>
+      <c r="P95" s="47"/>
+      <c r="Q95" s="47"/>
+      <c r="R95" s="47"/>
+      <c r="S95" s="47"/>
+      <c r="T95" s="47"/>
       <c r="U95" s="8"/>
       <c r="V95" s="8"/>
       <c r="W95" s="8"/>
@@ -6880,16 +6880,16 @@
       <c r="B96" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C96" s="24" t="e">
+      <c r="C96" s="40" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="23" t="e">
+      <c r="D96" s="41"/>
+      <c r="E96" s="42" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F96" s="23"/>
+      <c r="F96" s="42"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
@@ -6930,16 +6930,16 @@
       <c r="B97" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C97" s="24" t="e">
+      <c r="C97" s="40" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="23" t="e">
+      <c r="D97" s="41"/>
+      <c r="E97" s="42" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F97" s="23"/>
+      <c r="F97" s="42"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
@@ -6980,32 +6980,32 @@
       <c r="B98" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C98" s="24" t="e">
+      <c r="C98" s="40" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D98" s="25"/>
-      <c r="E98" s="23" t="e">
+      <c r="D98" s="41"/>
+      <c r="E98" s="42" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F98" s="23"/>
+      <c r="F98" s="42"/>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
-      <c r="I98" s="28" t="s">
+      <c r="I98" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="J98" s="29"/>
-      <c r="K98" s="29"/>
-      <c r="L98" s="29"/>
-      <c r="M98" s="29"/>
-      <c r="N98" s="29"/>
-      <c r="O98" s="29"/>
-      <c r="P98" s="29"/>
-      <c r="Q98" s="29"/>
-      <c r="R98" s="29"/>
-      <c r="S98" s="29"/>
-      <c r="T98" s="29"/>
+      <c r="J98" s="49"/>
+      <c r="K98" s="49"/>
+      <c r="L98" s="49"/>
+      <c r="M98" s="49"/>
+      <c r="N98" s="49"/>
+      <c r="O98" s="49"/>
+      <c r="P98" s="49"/>
+      <c r="Q98" s="49"/>
+      <c r="R98" s="49"/>
+      <c r="S98" s="49"/>
+      <c r="T98" s="49"/>
       <c r="U98" s="8"/>
       <c r="V98" s="8"/>
       <c r="W98" s="8"/>
@@ -7036,18 +7036,18 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
-      <c r="I99" s="29"/>
-      <c r="J99" s="29"/>
-      <c r="K99" s="29"/>
-      <c r="L99" s="29"/>
-      <c r="M99" s="29"/>
-      <c r="N99" s="29"/>
-      <c r="O99" s="29"/>
-      <c r="P99" s="29"/>
-      <c r="Q99" s="29"/>
-      <c r="R99" s="29"/>
-      <c r="S99" s="29"/>
-      <c r="T99" s="29"/>
+      <c r="I99" s="49"/>
+      <c r="J99" s="49"/>
+      <c r="K99" s="49"/>
+      <c r="L99" s="49"/>
+      <c r="M99" s="49"/>
+      <c r="N99" s="49"/>
+      <c r="O99" s="49"/>
+      <c r="P99" s="49"/>
+      <c r="Q99" s="49"/>
+      <c r="R99" s="49"/>
+      <c r="S99" s="49"/>
+      <c r="T99" s="49"/>
       <c r="U99" s="8"/>
       <c r="V99" s="8"/>
       <c r="W99" s="8"/>
@@ -7078,18 +7078,18 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
-      <c r="I100" s="29"/>
-      <c r="J100" s="29"/>
-      <c r="K100" s="29"/>
-      <c r="L100" s="29"/>
-      <c r="M100" s="29"/>
-      <c r="N100" s="29"/>
-      <c r="O100" s="29"/>
-      <c r="P100" s="29"/>
-      <c r="Q100" s="29"/>
-      <c r="R100" s="29"/>
-      <c r="S100" s="29"/>
-      <c r="T100" s="29"/>
+      <c r="I100" s="49"/>
+      <c r="J100" s="49"/>
+      <c r="K100" s="49"/>
+      <c r="L100" s="49"/>
+      <c r="M100" s="49"/>
+      <c r="N100" s="49"/>
+      <c r="O100" s="49"/>
+      <c r="P100" s="49"/>
+      <c r="Q100" s="49"/>
+      <c r="R100" s="49"/>
+      <c r="S100" s="49"/>
+      <c r="T100" s="49"/>
       <c r="U100" s="8"/>
       <c r="V100" s="8"/>
       <c r="W100" s="8"/>
@@ -7120,18 +7120,18 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
-      <c r="I101" s="29"/>
-      <c r="J101" s="29"/>
-      <c r="K101" s="29"/>
-      <c r="L101" s="29"/>
-      <c r="M101" s="29"/>
-      <c r="N101" s="29"/>
-      <c r="O101" s="29"/>
-      <c r="P101" s="29"/>
-      <c r="Q101" s="29"/>
-      <c r="R101" s="29"/>
-      <c r="S101" s="29"/>
-      <c r="T101" s="29"/>
+      <c r="I101" s="49"/>
+      <c r="J101" s="49"/>
+      <c r="K101" s="49"/>
+      <c r="L101" s="49"/>
+      <c r="M101" s="49"/>
+      <c r="N101" s="49"/>
+      <c r="O101" s="49"/>
+      <c r="P101" s="49"/>
+      <c r="Q101" s="49"/>
+      <c r="R101" s="49"/>
+      <c r="S101" s="49"/>
+      <c r="T101" s="49"/>
       <c r="U101" s="8"/>
       <c r="V101" s="8"/>
       <c r="W101" s="8"/>
@@ -7163,19 +7163,19 @@
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
-      <c r="J102" s="30" t="s">
+      <c r="J102" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="K102" s="31"/>
-      <c r="L102" s="31"/>
-      <c r="M102" s="31"/>
-      <c r="N102" s="31"/>
-      <c r="O102" s="31"/>
-      <c r="P102" s="31"/>
-      <c r="Q102" s="31"/>
-      <c r="R102" s="31"/>
-      <c r="S102" s="31"/>
-      <c r="T102" s="31"/>
+      <c r="K102" s="51"/>
+      <c r="L102" s="51"/>
+      <c r="M102" s="51"/>
+      <c r="N102" s="51"/>
+      <c r="O102" s="51"/>
+      <c r="P102" s="51"/>
+      <c r="Q102" s="51"/>
+      <c r="R102" s="51"/>
+      <c r="S102" s="51"/>
+      <c r="T102" s="51"/>
       <c r="U102" s="8"/>
       <c r="V102" s="8"/>
       <c r="W102" s="8"/>
@@ -7207,17 +7207,17 @@
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
-      <c r="J103" s="31"/>
-      <c r="K103" s="31"/>
-      <c r="L103" s="31"/>
-      <c r="M103" s="31"/>
-      <c r="N103" s="31"/>
-      <c r="O103" s="31"/>
-      <c r="P103" s="31"/>
-      <c r="Q103" s="31"/>
-      <c r="R103" s="31"/>
-      <c r="S103" s="31"/>
-      <c r="T103" s="31"/>
+      <c r="J103" s="51"/>
+      <c r="K103" s="51"/>
+      <c r="L103" s="51"/>
+      <c r="M103" s="51"/>
+      <c r="N103" s="51"/>
+      <c r="O103" s="51"/>
+      <c r="P103" s="51"/>
+      <c r="Q103" s="51"/>
+      <c r="R103" s="51"/>
+      <c r="S103" s="51"/>
+      <c r="T103" s="51"/>
       <c r="U103" s="8"/>
       <c r="V103" s="8"/>
       <c r="W103" s="8"/>
@@ -7249,17 +7249,17 @@
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
-      <c r="J104" s="31"/>
-      <c r="K104" s="31"/>
-      <c r="L104" s="31"/>
-      <c r="M104" s="31"/>
-      <c r="N104" s="31"/>
-      <c r="O104" s="31"/>
-      <c r="P104" s="31"/>
-      <c r="Q104" s="31"/>
-      <c r="R104" s="31"/>
-      <c r="S104" s="31"/>
-      <c r="T104" s="31"/>
+      <c r="J104" s="51"/>
+      <c r="K104" s="51"/>
+      <c r="L104" s="51"/>
+      <c r="M104" s="51"/>
+      <c r="N104" s="51"/>
+      <c r="O104" s="51"/>
+      <c r="P104" s="51"/>
+      <c r="Q104" s="51"/>
+      <c r="R104" s="51"/>
+      <c r="S104" s="51"/>
+      <c r="T104" s="51"/>
       <c r="U104" s="8"/>
       <c r="V104" s="8"/>
       <c r="W104" s="8"/>
@@ -8023,6 +8023,72 @@
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="H89:T95"/>
+    <mergeCell ref="I98:T101"/>
+    <mergeCell ref="J102:T104"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="B43:E54"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="G43:N54"/>
+    <mergeCell ref="G42:N42"/>
+    <mergeCell ref="G56:N56"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="P56:T56"/>
+    <mergeCell ref="V57:X67"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="V43:X51"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="Q43:T52"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="B57:E67"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="G69:N69"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="B70:E78"/>
+    <mergeCell ref="G70:N78"/>
+    <mergeCell ref="P57:T67"/>
+    <mergeCell ref="G57:N67"/>
+    <mergeCell ref="P70:T80"/>
+    <mergeCell ref="B82:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E82:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="B34:T35"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G40:N40"/>
+    <mergeCell ref="G39:N39"/>
+    <mergeCell ref="B39:E39"/>
     <mergeCell ref="S26:W28"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="T18:W18"/>
@@ -8039,72 +8105,6 @@
     <mergeCell ref="B13:X14"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="P16:R16"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="B34:T35"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="G40:N40"/>
-    <mergeCell ref="G39:N39"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="B57:E67"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="G69:N69"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="B70:E78"/>
-    <mergeCell ref="G70:N78"/>
-    <mergeCell ref="P57:T67"/>
-    <mergeCell ref="G57:N67"/>
-    <mergeCell ref="P70:T80"/>
-    <mergeCell ref="B82:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E82:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="P56:T56"/>
-    <mergeCell ref="V57:X67"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="V43:X51"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="Q43:T52"/>
-    <mergeCell ref="B43:E54"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="G43:N54"/>
-    <mergeCell ref="G42:N42"/>
-    <mergeCell ref="G56:N56"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="H89:T95"/>
-    <mergeCell ref="I98:T101"/>
-    <mergeCell ref="J102:T104"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
   </mergeCells>
   <conditionalFormatting sqref="C84:D98">
     <cfRule type="colorScale" priority="1">
@@ -8546,7 +8546,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8579,7 +8579,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>2</v>
@@ -8834,16 +8834,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56528f00-8daf-4285-8b2f-184ebce7f2e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF98156A4E08ED42B22DA6C86624442E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="11ba5f1833b47c39d11f9a0fc9ca5ad0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56528f00-8daf-4285-8b2f-184ebce7f2e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b814f87d70368c36b985d9f62a71433" ns2:_="">
     <xsd:import namespace="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
@@ -9021,6 +9011,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56528f00-8daf-4285-8b2f-184ebce7f2e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9031,22 +9031,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{868C143E-6D51-4467-8AC0-C13BFF0C5CF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00089E46-9D1D-406D-80DB-769E94388862}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9065,6 +9049,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{868C143E-6D51-4467-8AC0-C13BFF0C5CF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E55394AD-EAD7-4DB0-8A63-1FFADDFE8C2B}">
   <ds:schemaRefs>

--- a/Criteria Ranking.xlsx
+++ b/Criteria Ranking.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matis\Desktop\Aalto S1\Advanced Energy Project\SMR-X-H2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78BEAB1-F5B9-4A8A-90F7-2EC192F9835F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63A68D8-A7DA-4F34-9082-2B41BC801011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4515" yWindow="-10890" windowWidth="19380" windowHeight="10260" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="2" r:id="rId1"/>
     <sheet name="Template" sheetId="4" state="hidden" r:id="rId2"/>
     <sheet name="DATA Percentage" sheetId="6" r:id="rId3"/>
-    <sheet name="DATA Ranking" sheetId="7" r:id="rId4"/>
+    <sheet name="DATA Ranking" sheetId="7" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'DATA Percentage'!$B$1:$D$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Table!$A$1:$X$106</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -34,6 +33,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -63,140 +64,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="261">
-  <si>
-    <t xml:space="preserve">Safety </t>
-  </si>
-  <si>
-    <t>Technology readiness</t>
-  </si>
-  <si>
-    <t>Rentability</t>
-  </si>
-  <si>
-    <t>High Availability (h/year)</t>
-  </si>
-  <si>
-    <t>Low Capex</t>
-  </si>
-  <si>
-    <t>Low Opex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecological impact </t>
-  </si>
-  <si>
-    <t>Ecological Impact</t>
-  </si>
-  <si>
-    <t>Fast startup time</t>
-  </si>
-  <si>
-    <t>Scalability</t>
-  </si>
-  <si>
-    <t>Plant Area/Footprint</t>
-  </si>
-  <si>
-    <t>Connection flexibility</t>
-  </si>
-  <si>
-    <t>Geopolitical barriers</t>
-  </si>
-  <si>
-    <t>Economic lifetime</t>
-  </si>
-  <si>
-    <t>Economic Lifetime</t>
-  </si>
-  <si>
-    <t>Production efficiency</t>
-  </si>
-  <si>
-    <t>Effectiveness of an SMR in converting nuclear energy into hydrogen, measured by the amount of hydrogen produced relative to the energy input. A higher efficiency indicates that more hydrogen is generated with less energy consumption, making the process more cost-effective and environmentally friendly.</t>
-  </si>
-  <si>
-    <t>Waste and decomissioning</t>
-  </si>
-  <si>
-    <t>Waste management and decomissioning</t>
-  </si>
-  <si>
-    <t>1 = Less important</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 = Same importance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 = More important </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="275">
+  <si>
+    <t>Study of Criteria Significance for Establishing a Hydrogen Production Facility Powered by SMR/AMR</t>
+  </si>
+  <si>
+    <t>Time needed: approx 25 minutes</t>
   </si>
   <si>
     <t>Introduction:</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">Hydrogen is increasingly recognized as a vital component in the effort to decarbonize various sectors, including transportation, industry, and power generation. Small Modular Reactors (SMRs) and Advanced Modular Reactors (AMRs) represent a significant advancement in nuclear technology, particularly to reduce the cost of nuclear plant and to allow a better flexibility to more usage.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Our project aims to evaluate different SMR and AMR projects specifically focused on hydrogen production.</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Your Contribution </t>
-  </si>
-  <si>
-    <t>Study of Criteria Significance for Establishing a Hydrogen Production Facility Powered by SMR/AMR</t>
   </si>
   <si>
     <t>In addition to the technical comparison of SMR/AMR technologies and their coupling with electrolysis,
  we aim to provide a comprehensive overview of the various criteria that will guide the decision-making process for selecting one specific technology pairing.</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Professor</t>
-  </si>
-  <si>
-    <t>Engineer</t>
-  </si>
-  <si>
-    <t>Politician</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Master Student</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doctor Student </t>
-  </si>
-  <si>
-    <t>Bachelor Student</t>
-  </si>
-  <si>
-    <t>Please Select your Profession</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and your age </t>
-  </si>
-  <si>
-    <t>(select)</t>
-  </si>
-  <si>
-    <t>Time needed: approx 25 minutes</t>
-  </si>
-  <si>
-    <t>Criteria Description</t>
-  </si>
-  <si>
-    <t>Capex is capital expenditure, refers to the funds needed to acquire physical assets such as property, buildings, infrastructure.
- In this case typically includes the initial investment costs required for the design, construction, and installation of the reactors. These are one-time expenses that are crucial for setting up the project before it becomes operational.</t>
-  </si>
-  <si>
-    <t>Measures and systems in place to prevent accidents, control radiation exposure, and protect both people and the environment from harmful effects.
- This includes the reactor’s design to prevent malfunctions, its ability to contain radioactive materials, emergency response plans, and adherence to regulatory standards to minimize risks of incidents such as leaks, meltdowns, or other hazardous events.</t>
-  </si>
-  <si>
-    <t>Ability of a project or investment to generate profit over time. It measures how economically viable the reactor is, considering revenue potential versus costs, including operational expenses and maintenance.
- A rentability assessment helps determine whether the project will be financially sustainable and profitable in the long run.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operational costs are the ongoing costs required to run and maintain a project or system. 
-This includes expenses for fuel, staffing, maintenance, and day-to-day operations. </t>
   </si>
   <si>
     <r>
@@ -213,674 +112,6 @@
       </rPr>
       <t>Only fill in the blue cells.</t>
     </r>
-  </si>
-  <si>
-    <t>Ability of a plant to quickly begin generating power or producing hydrogen after being activated or restarted. 
-This is important for responding to fluctuating energy demands or emergencies, ensuring operational flexibility, and reducing downtime.</t>
-  </si>
-  <si>
-    <t>Ability to expand aa hydrogen production plant project by replicating or adding more reactor/electrolysis units as demand grows.
- This allows for gradual investment and modular deployment, making it easier to scale up energy or hydrogen production over time.</t>
-  </si>
-  <si>
-    <t>Amount of time,  measured in hours per year, that an SMR is operational and producing energy or hydrogen. 
-A reactor with high availability experiences minimal downtime for maintenance or repairs, ensuring consistent and reliable output.</t>
-  </si>
-  <si>
-    <t>Safety</t>
-  </si>
-  <si>
-    <t>Physical space or land required for the installation and operation of an hydrogen production facility. 
-This includes the reactor/ electrolysis itself, support buildings, and infrastructure.</t>
-  </si>
-  <si>
-    <t>Maturity and proven reliability of the technology used in an SMR/AMR or Electrolysis, including its design, components, and operational processes. 
-This criterion assesses how ready the technology is for deployment, based on testing, validation, and operational experience.</t>
-  </si>
-  <si>
-    <t>Adaptability of an hydrogen production plant to integrate with existing energy infrastructure, such as electrical grids or district heating systems. This flexibility allows the reactor to supply power or thermal energy where it's needed most, enhancing its utility and operational efficiency.
- It also facilitates the transition to a more decentralized and resilient energy system, accommodating varying energy demands and sources.</t>
-  </si>
-  <si>
-    <t>Risks and challenges associated with the international political landscape that could affect the development, deployment, or operation of SMRs. 
-This includes issues such as technology transfer restrictions, trade policies, sanctions, and supply chain vulnerabilities related to critical materials or components.</t>
-  </si>
-  <si>
-    <t>Expected duration over which an hydrogen production plant can operate effectively and profitably, considering factors like maintenance costs, operational efficiency, and revenue generation.
- It encompasses the total period during which the reactor remains economically viable, allowing for a return on investment.</t>
-  </si>
-  <si>
-    <t>Processes involved in handling and disposing of radioactive waste generated during the operation of an SMR/AMR, as well as the procedures for safely dismantling the reactor at the end of its operational life. ecommissioning involves removing and disposing of equipment and materials, restoring the site, and ensuring compliance with regulatory standards, all while safeguarding public and environmental safety.</t>
-  </si>
-  <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thank you for your support. 
-Maryam, Oshada, Nathanaël, Muhammad, Adrian, Matis </t>
-  </si>
-  <si>
-    <t>All data will be anonymized and secured. 
-The data will not be used individually but only in aggregate form.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hydrogen is increasingly recognized as a vital component in the effort to decarbonize various sectors, including transportation, industry, and power generation. Small Modular Reactors (SMRs) and Advanced Modular Reactors (AMRs) represent a significant advancement in nuclear technology, particularly to reduce the cost of nuclear plant and to allow a better flexibility to more usage.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Our project aims to evaluate different SMR and AMR projects specifically focused on hydrogen production.</t>
-    </r>
-  </si>
-  <si>
-    <t>and your Country</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Brunei</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Cabo Verde</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Czech Republic (Czechia)</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>DR Congo</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Holy See</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Micronesia</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>North Korea</t>
-  </si>
-  <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Saint Kitts &amp; Nevis</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Sao Tome &amp; Principe</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>St. Vincent &amp; Grenadines</t>
-  </si>
-  <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Syria</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To Export/percentage </t>
-  </si>
-  <si>
-    <t>To Export/Ranking</t>
-  </si>
-  <si>
-    <t>Environmental consequences of both the nuclear fuel type and the materials used in related technologies, such as electrolysis. This includes mainly the CO2 emmision but also the potential release of radiation, the impact on air, water (hot water released in ecosystems), and soil, and long-term effects on biodiversity and the biosphere.</t>
-  </si>
-  <si>
-    <t>Sam2</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Profession</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>Once you have completed the sheet, please return the filled Excel file to this email address: maryam.seyedinnavadeh@aalto.fi</t>
   </si>
   <si>
     <r>
@@ -925,22 +156,836 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> we really appreciate it, please don't hesitate to ask us some questions at maryam.seyedinnavadeh@aalto.fi</t>
+      <t xml:space="preserve"> we really appreciate it, please don't hesitate to ask us some questions at matis.gourdes@aalto.fi</t>
     </r>
   </si>
   <si>
+    <t>Please Select your Profession</t>
+  </si>
+  <si>
+    <t>(select)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and your age </t>
+  </si>
+  <si>
+    <t>and your Country</t>
+  </si>
+  <si>
+    <t>Criteria Description</t>
+  </si>
+  <si>
+    <t>Low Capex</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safety </t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Bachelor Student</t>
+  </si>
+  <si>
+    <t>Rentability</t>
+  </si>
+  <si>
+    <t>1 = Less important</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Master Student</t>
+  </si>
+  <si>
+    <t>Low Opex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 = Same importance </t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doctor Student </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecological impact </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 = More important </t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>Fast startup time</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Scalability</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Politician</t>
+  </si>
+  <si>
+    <t>High Availability (h/year)</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Plant Area/Footprint</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Technology readiness</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Connection flexibility</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Geopolitical barriers</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Economic lifetime</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Production efficiency</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Waste and decomissioning</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Once you have completed the sheet, please return the filled Excel file to this email address: matis.gourdes@aalto.fi</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Capex is capital expenditure, refers to the funds needed to acquire physical assets such as property, buildings, infrastructure.
+ In this case typically includes the initial investment costs required for the design, construction, and installation of the reactors. These are one-time expenses that are crucial for setting up the project before it becomes operational.</t>
+  </si>
+  <si>
+    <t>Measures and systems in place to prevent accidents, control radiation exposure, and protect both people and the environment from harmful effects.
+ This includes the reactor’s design to prevent malfunctions, its ability to contain radioactive materials, emergency response plans, and adherence to regulatory standards to minimize risks of incidents such as leaks, meltdowns, or other hazardous events.</t>
+  </si>
+  <si>
+    <t>Ability of a project or investment to generate profit over time. It measures how economically viable the reactor is, considering revenue potential versus costs, including operational expenses and maintenance.
+ A rentability assessment helps determine whether the project will be financially sustainable and profitable in the long run.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operational costs are the ongoing costs required to run and maintain a project or system. 
+This includes expenses for fuel, staffing, maintenance, and day-to-day operations. </t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Ecological Impact</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Environmental consequences of both the nuclear fuel type and the materials used in related technologies, such as electrolysis. This includes mainly the CO2 emmision but also the potential release of radiation, the impact on air, water (hot water released in ecosystems), and soil, and long-term effects on biodiversity and the biosphere.</t>
+  </si>
+  <si>
+    <t>Ability of a plant to quickly begin generating power or producing hydrogen after being activated or restarted. 
+This is important for responding to fluctuating energy demands or emergencies, ensuring operational flexibility, and reducing downtime.</t>
+  </si>
+  <si>
+    <t>Ability to expand aa hydrogen production plant project by replicating or adding more reactor/electrolysis units as demand grows.
+ This allows for gradual investment and modular deployment, making it easier to scale up energy or hydrogen production over time.</t>
+  </si>
+  <si>
+    <t>Amount of time,  measured in hours per year, that an SMR is operational and producing energy or hydrogen. 
+A reactor with high availability experiences minimal downtime for maintenance or repairs, ensuring consistent and reliable output.</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Physical space or land required for the installation and operation of an hydrogen production facility. 
+This includes the reactor/ electrolysis itself, support buildings, and infrastructure.</t>
+  </si>
+  <si>
+    <t>Maturity and proven reliability of the technology used in an SMR/AMR or Electrolysis, including its design, components, and operational processes. 
+This criterion assesses how ready the technology is for deployment, based on testing, validation, and operational experience.</t>
+  </si>
+  <si>
+    <t>Adaptability of an hydrogen production plant to integrate with existing energy infrastructure, such as electrical grids or district heating systems. This flexibility allows the reactor to supply power or thermal energy where it's needed most, enhancing its utility and operational efficiency.
+ It also facilitates the transition to a more decentralized and resilient energy system, accommodating varying energy demands and sources.</t>
+  </si>
+  <si>
+    <t>Risks and challenges associated with the international political landscape that could affect the development, deployment, or operation of SMRs. 
+This includes issues such as technology transfer restrictions, trade policies, sanctions, and supply chain vulnerabilities related to critical materials or components.</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic (Czechia)</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>DR Congo</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Economic Lifetime</t>
+  </si>
+  <si>
+    <t>Waste management and decomissioning</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Expected duration over which an hydrogen production plant can operate effectively and profitably, considering factors like maintenance costs, operational efficiency, and revenue generation.
+ It encompasses the total period during which the reactor remains economically viable, allowing for a return on investment.</t>
+  </si>
+  <si>
+    <t>Effectiveness of an SMR in converting nuclear energy into hydrogen, measured by the amount of hydrogen produced relative to the energy input. A higher efficiency indicates that more hydrogen is generated with less energy consumption, making the process more cost-effective and environmentally friendly.</t>
+  </si>
+  <si>
+    <t>Processes involved in handling and disposing of radioactive waste generated during the operation of an SMR/AMR, as well as the procedures for safely dismantling the reactor at the end of its operational life. ecommissioning involves removing and disposing of equipment and materials, restoring the site, and ensuring compliance with regulatory standards, all while safeguarding public and environmental safety.</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Holy See</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
     <t>Once you have completed the sheet, please return the filled 
-Excel file to this email address: maryam.seyedinnavadeh@aalto.fi</t>
+Excel file to this email address: matis.gourdes@aalto.fi</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you for your support. 
+Maryam, Oshada, Nathanaël, Muhammad, Adrian, Matis </t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>All data will be anonymized and secured. 
+The data will not be used individually but only in aggregate form.</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Export/percentage </t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>To Export/Ranking</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Kitts &amp; Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>St. Vincent &amp; Grenadines</t>
+  </si>
+  <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Average all</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>French sam</t>
+  </si>
+  <si>
+    <t>Maryam</t>
+  </si>
+  <si>
+    <t>Oshada</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Matis</t>
+  </si>
+  <si>
+    <t>VTT average</t>
+  </si>
+  <si>
+    <t>Natha</t>
+  </si>
+  <si>
+    <t>Florian vetter</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>timo</t>
+  </si>
+  <si>
+    <t>dad 1</t>
+  </si>
+  <si>
+    <t>Profession</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Sam2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1025,26 +1070,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <u/>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1098,7 +1136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1174,13 +1212,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1225,11 +1343,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1244,7 +1384,7 @@
     <xf numFmtId="44" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1271,7 +1411,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1295,17 +1435,14 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2037,21 +2174,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4261850-8DA1-46EB-8872-E313C5418792}">
   <dimension ref="B1:AK208"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B88" zoomScale="102" zoomScaleNormal="87" zoomScaleSheetLayoutView="64" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89:T95"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="102" zoomScaleNormal="87" zoomScaleSheetLayoutView="64" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93:F93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.88671875" customWidth="1"/>
     <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="4.88671875" customWidth="1"/>
     <col min="9" max="9" width="5.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="17" width="4.88671875" customWidth="1"/>
-    <col min="18" max="18" width="4.77734375" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" customWidth="1"/>
     <col min="20" max="20" width="13.109375" customWidth="1"/>
     <col min="21" max="21" width="8.33203125" customWidth="1"/>
     <col min="27" max="27" width="0" hidden="1" customWidth="1"/>
@@ -2061,31 +2198,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
+      <c r="B1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
       <c r="Y1" s="18"/>
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
@@ -2101,29 +2238,29 @@
       <c r="AK1" s="8"/>
     </row>
     <row r="2" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
       <c r="Y2" s="18"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
@@ -2139,10 +2276,10 @@
       <c r="AK2" s="8"/>
     </row>
     <row r="3" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B3" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="30"/>
+      <c r="B3" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="42"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -2179,31 +2316,31 @@
       <c r="AK3" s="8"/>
     </row>
     <row r="4" spans="2:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
+      <c r="B4" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
       <c r="Y4" s="18"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
@@ -2219,31 +2356,31 @@
       <c r="AK4" s="8"/>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B5" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
+      <c r="B5" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
       <c r="Y5" s="18"/>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
@@ -2259,29 +2396,29 @@
       <c r="AK5" s="8"/>
     </row>
     <row r="6" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
       <c r="Y6" s="18"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
@@ -2297,29 +2434,29 @@
       <c r="AK6" s="8"/>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
       <c r="Y7" s="18"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
@@ -2335,31 +2472,31 @@
       <c r="AK7" s="8"/>
     </row>
     <row r="8" spans="2:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
+      <c r="B8" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
       <c r="Y8" s="18"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
@@ -2375,31 +2512,31 @@
       <c r="AK8" s="8"/>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
+      <c r="B9" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
       <c r="Y9" s="18"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
@@ -2415,29 +2552,29 @@
       <c r="AK9" s="8"/>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
       <c r="Y10" s="18"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
@@ -2453,31 +2590,31 @@
       <c r="AK10" s="8"/>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B11" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
+      <c r="B11" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
       <c r="Y11" s="18"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
@@ -2493,29 +2630,29 @@
       <c r="AK11" s="8"/>
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
       <c r="Y12" s="18"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
@@ -2531,31 +2668,31 @@
       <c r="AK12" s="8"/>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B13" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="34"/>
+      <c r="B13" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="46"/>
       <c r="Y13" s="18"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
@@ -2571,29 +2708,29 @@
       <c r="AK13" s="8"/>
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="34"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="46"/>
       <c r="Y14" s="18"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
@@ -2648,34 +2785,34 @@
     </row>
     <row r="16" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="43"/>
+      <c r="M16" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -2797,12 +2934,12 @@
       </c>
       <c r="R18" s="10"/>
       <c r="S18" s="8"/>
-      <c r="T18" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
+      <c r="T18" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="18"/>
       <c r="Z18" s="8"/>
@@ -2820,50 +2957,50 @@
     </row>
     <row r="19" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -2875,16 +3012,16 @@
       <c r="Y19" s="18"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="AB19" s="8" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="AC19" s="17" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AD19" s="8" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="AE19" s="8"/>
       <c r="AF19" s="21">
@@ -2902,7 +3039,7 @@
     </row>
     <row r="20" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C20" s="11" t="e" cm="1">
         <f t="array" ref="C20">_xlfn.SWITCH(D19,3,1,1,3,2,2)</f>
@@ -2910,43 +3047,43 @@
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Q20" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
@@ -2958,10 +3095,10 @@
       <c r="Y20" s="18"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="AB20" s="8" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="AC20" s="8">
         <v>1</v>
@@ -2985,7 +3122,7 @@
     </row>
     <row r="21" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C21" s="11" t="e" cm="1">
         <f t="array" ref="C21">_xlfn.SWITCH(E19,3,1,1,3,2,2)</f>
@@ -2997,40 +3134,40 @@
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Q21" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="R21" s="8"/>
       <c r="S21" s="8" t="s">
@@ -3044,10 +3181,10 @@
       <c r="Y21" s="18"/>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AB21" s="8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AC21" s="8">
         <v>2</v>
@@ -3071,7 +3208,7 @@
     </row>
     <row r="22" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C22" s="11" t="e" cm="1">
         <f t="array" ref="C22">_xlfn.SWITCH(F19,3,1,1,3,2,2)</f>
@@ -3087,41 +3224,41 @@
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Q22" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="R22" s="8"/>
       <c r="S22" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
@@ -3131,10 +3268,10 @@
       <c r="Y22" s="18"/>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="AB22" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AC22" s="8">
         <v>3</v>
@@ -3158,7 +3295,7 @@
     </row>
     <row r="23" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C23" s="11" t="e" cm="1">
         <f t="array" ref="C23">_xlfn.SWITCH(G19,3,1,1,3,2,2)</f>
@@ -3178,38 +3315,38 @@
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Q23" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="R23" s="8"/>
       <c r="S23" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
@@ -3219,10 +3356,10 @@
       <c r="Y23" s="18"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="AB23" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC23" s="8"/>
       <c r="AD23" s="8">
@@ -3244,7 +3381,7 @@
     </row>
     <row r="24" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C24" s="11" t="e" cm="1">
         <f t="array" ref="C24">_xlfn.SWITCH(H19,3,1,1,3,2,2)</f>
@@ -3268,31 +3405,31 @@
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Q24" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
@@ -3304,10 +3441,10 @@
       <c r="Y24" s="18"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="AB24" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AC24" s="8"/>
       <c r="AD24" s="8">
@@ -3329,7 +3466,7 @@
     </row>
     <row r="25" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C25" s="11" t="e" cm="1">
         <f t="array" ref="C25">_xlfn.SWITCH(I19,3,1,1,3,2,2)</f>
@@ -3357,28 +3494,28 @@
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="P25" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Q25" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
@@ -3390,10 +3527,10 @@
       <c r="Y25" s="18"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="AB25" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AC25" s="8"/>
       <c r="AD25" s="8">
@@ -3415,7 +3552,7 @@
     </row>
     <row r="26" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C26" s="11" t="e" cm="1">
         <f t="array" ref="C26">_xlfn.SWITCH(J19,3,1,1,3,2,2)</f>
@@ -3447,40 +3584,40 @@
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Q26" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="R26" s="8"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
       <c r="X26" s="8"/>
       <c r="Y26" s="18"/>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="AB26" s="8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AC26" s="8"/>
       <c r="AD26" s="8">
@@ -3502,7 +3639,7 @@
     </row>
     <row r="27" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C27" s="11" t="e" cm="1">
         <f t="array" ref="C27">_xlfn.SWITCH(K19,3,1,1,3,2,2)</f>
@@ -3538,34 +3675,34 @@
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N27" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="O27" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Q27" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="R27" s="8"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
       <c r="X27" s="8"/>
       <c r="Y27" s="18"/>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
@@ -3588,7 +3725,7 @@
     </row>
     <row r="28" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C28" s="11" t="e" cm="1">
         <f t="array" ref="C28">_xlfn.SWITCH(L19,3,1,1,3,2,2)</f>
@@ -3628,31 +3765,31 @@
       </c>
       <c r="L28" s="11"/>
       <c r="M28" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N28" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Q28" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="R28" s="8"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="18"/>
       <c r="Z28" s="8"/>
       <c r="AA28" s="8" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
@@ -3675,7 +3812,7 @@
     </row>
     <row r="29" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C29" s="11" t="e" cm="1">
         <f t="array" ref="C29">_xlfn.SWITCH(M19,3,1,1,3,2,2)</f>
@@ -3719,16 +3856,16 @@
       </c>
       <c r="M29" s="11"/>
       <c r="N29" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Q29" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
@@ -3740,7 +3877,7 @@
       <c r="Y29" s="18"/>
       <c r="Z29" s="8"/>
       <c r="AA29" s="8" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
@@ -3763,7 +3900,7 @@
     </row>
     <row r="30" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C30" s="11" t="e" cm="1">
         <f t="array" ref="C30">_xlfn.SWITCH(N19,3,1,1,3,2,2)</f>
@@ -3811,13 +3948,13 @@
       </c>
       <c r="N30" s="11"/>
       <c r="O30" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Q30" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
@@ -3829,7 +3966,7 @@
       <c r="Y30" s="18"/>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -3852,7 +3989,7 @@
     </row>
     <row r="31" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C31" s="11" t="e" cm="1">
         <f t="array" ref="C31">_xlfn.SWITCH(O19,3,1,1,3,2,2)</f>
@@ -3904,10 +4041,10 @@
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Q31" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -3919,7 +4056,7 @@
       <c r="Y31" s="18"/>
       <c r="Z31" s="8"/>
       <c r="AA31" s="8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
@@ -3942,7 +4079,7 @@
     </row>
     <row r="32" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C32" s="11" t="e" cm="1">
         <f t="array" ref="C32">_xlfn.SWITCH(P19,3,1,1,3,2,2)</f>
@@ -3998,7 +4135,7 @@
       </c>
       <c r="P32" s="11"/>
       <c r="Q32" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -4010,7 +4147,7 @@
       <c r="Y32" s="18"/>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="AB32" s="8"/>
       <c r="AC32" s="8"/>
@@ -4033,7 +4170,7 @@
     </row>
     <row r="33" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C33" s="11" t="e" cm="1">
         <f t="array" ref="C33">_xlfn.SWITCH(Q19,3,1,1,3,2,2)</f>
@@ -4102,7 +4239,7 @@
       <c r="Y33" s="18"/>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
@@ -4124,27 +4261,27 @@
       <c r="AK33" s="8"/>
     </row>
     <row r="34" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
+      <c r="B34" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
@@ -4152,7 +4289,7 @@
       <c r="Y34" s="18"/>
       <c r="Z34" s="8"/>
       <c r="AA34" s="8" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AB34" s="8"/>
       <c r="AC34" s="8"/>
@@ -4168,25 +4305,25 @@
       <c r="AK34" s="8"/>
     </row>
     <row r="35" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
@@ -4194,7 +4331,7 @@
       <c r="Y35" s="18"/>
       <c r="Z35" s="8"/>
       <c r="AA35" s="8" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
@@ -4234,7 +4371,7 @@
       <c r="Y36" s="18"/>
       <c r="Z36" s="8"/>
       <c r="AA36" s="8" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AB36" s="8"/>
       <c r="AC36" s="8"/>
@@ -4248,35 +4385,35 @@
       <c r="AK36" s="8"/>
     </row>
     <row r="37" spans="2:37" ht="21" x14ac:dyDescent="0.4">
-      <c r="B37" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
+      <c r="B37" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
       <c r="Y37" s="18"/>
       <c r="Z37" s="8"/>
       <c r="AA37" s="8" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
@@ -4323,7 +4460,7 @@
       <c r="Y38" s="18"/>
       <c r="Z38" s="8"/>
       <c r="AA38" s="8" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
@@ -4339,41 +4476,41 @@
       <c r="AK38" s="8"/>
     </row>
     <row r="39" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B39" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
+      <c r="B39" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
+      <c r="G39" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
       <c r="O39" s="16"/>
       <c r="P39" s="8"/>
-      <c r="Q39" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
+      <c r="Q39" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
       <c r="U39" s="8"/>
-      <c r="V39" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
+      <c r="V39" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W39" s="48"/>
+      <c r="X39" s="48"/>
       <c r="Y39" s="18"/>
       <c r="Z39" s="8"/>
       <c r="AA39" s="8" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
@@ -4389,41 +4526,41 @@
       <c r="AK39" s="8"/>
     </row>
     <row r="40" spans="2:37" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
+      <c r="B40" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
+      <c r="G40" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
       <c r="O40" s="13"/>
       <c r="P40" s="8"/>
-      <c r="Q40" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="R40" s="35"/>
-      <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
+      <c r="Q40" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="R40" s="47"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="47"/>
       <c r="U40" s="13"/>
-      <c r="V40" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="W40" s="35"/>
-      <c r="X40" s="35"/>
+      <c r="V40" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="W40" s="47"/>
+      <c r="X40" s="47"/>
       <c r="Y40" s="18"/>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
@@ -4465,7 +4602,7 @@
       <c r="Y41" s="18"/>
       <c r="Z41" s="8"/>
       <c r="AA41" s="8" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
@@ -4479,41 +4616,41 @@
       <c r="AK41" s="8"/>
     </row>
     <row r="42" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B42" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
+      <c r="B42" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
+      <c r="G42" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
       <c r="O42" s="1"/>
       <c r="P42" s="8"/>
-      <c r="Q42" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="R42" s="36"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="36"/>
+      <c r="Q42" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
       <c r="U42" s="8"/>
-      <c r="V42" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="W42" s="36"/>
-      <c r="X42" s="36"/>
+      <c r="V42" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="W42" s="48"/>
+      <c r="X42" s="48"/>
       <c r="Y42" s="18"/>
       <c r="Z42" s="8"/>
       <c r="AA42" s="8" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="AB42" s="8"/>
       <c r="AC42" s="8"/>
@@ -4527,41 +4664,41 @@
       <c r="AK42" s="8"/>
     </row>
     <row r="43" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
+      <c r="B43" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
+      <c r="G43" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
       <c r="O43" s="15"/>
       <c r="P43" s="8"/>
-      <c r="Q43" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
+      <c r="Q43" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="R43" s="56"/>
+      <c r="S43" s="56"/>
+      <c r="T43" s="56"/>
       <c r="U43" s="8"/>
-      <c r="V43" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="W43" s="44"/>
-      <c r="X43" s="44"/>
+      <c r="V43" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="W43" s="56"/>
+      <c r="X43" s="56"/>
       <c r="Y43" s="18"/>
       <c r="Z43" s="8"/>
       <c r="AA43" s="8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AB43" s="8"/>
       <c r="AC43" s="8"/>
@@ -4577,33 +4714,33 @@
       <c r="AK43" s="8"/>
     </row>
     <row r="44" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
       <c r="O44" s="15"/>
       <c r="P44" s="8"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="56"/>
+      <c r="T44" s="56"/>
       <c r="U44" s="8"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="44"/>
-      <c r="X44" s="44"/>
+      <c r="V44" s="56"/>
+      <c r="W44" s="56"/>
+      <c r="X44" s="56"/>
       <c r="Y44" s="18"/>
       <c r="Z44" s="8"/>
       <c r="AA44" s="8" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AB44" s="8"/>
       <c r="AC44" s="8"/>
@@ -4619,33 +4756,33 @@
       <c r="AK44" s="8"/>
     </row>
     <row r="45" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
       <c r="O45" s="15"/>
       <c r="P45" s="8"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="44"/>
-      <c r="S45" s="44"/>
-      <c r="T45" s="44"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="56"/>
+      <c r="S45" s="56"/>
+      <c r="T45" s="56"/>
       <c r="U45" s="8"/>
-      <c r="V45" s="44"/>
-      <c r="W45" s="44"/>
-      <c r="X45" s="44"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="56"/>
+      <c r="X45" s="56"/>
       <c r="Y45" s="18"/>
       <c r="Z45" s="8"/>
       <c r="AA45" s="8" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AB45" s="8"/>
       <c r="AC45" s="8"/>
@@ -4659,33 +4796,33 @@
       <c r="AK45" s="8"/>
     </row>
     <row r="46" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
       <c r="O46" s="15"/>
       <c r="P46" s="8"/>
-      <c r="Q46" s="44"/>
-      <c r="R46" s="44"/>
-      <c r="S46" s="44"/>
-      <c r="T46" s="44"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="56"/>
+      <c r="T46" s="56"/>
       <c r="U46" s="8"/>
-      <c r="V46" s="44"/>
-      <c r="W46" s="44"/>
-      <c r="X46" s="44"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="56"/>
+      <c r="X46" s="56"/>
       <c r="Y46" s="18"/>
       <c r="Z46" s="8"/>
       <c r="AA46" s="8" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AB46" s="8"/>
       <c r="AC46" s="8"/>
@@ -4701,33 +4838,33 @@
       <c r="AK46" s="8"/>
     </row>
     <row r="47" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
       <c r="O47" s="15"/>
       <c r="P47" s="8"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="44"/>
-      <c r="S47" s="44"/>
-      <c r="T47" s="44"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="56"/>
+      <c r="T47" s="56"/>
       <c r="U47" s="8"/>
-      <c r="V47" s="44"/>
-      <c r="W47" s="44"/>
-      <c r="X47" s="44"/>
+      <c r="V47" s="56"/>
+      <c r="W47" s="56"/>
+      <c r="X47" s="56"/>
       <c r="Y47" s="18"/>
       <c r="Z47" s="8"/>
       <c r="AA47" s="8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AB47" s="8"/>
       <c r="AC47" s="8"/>
@@ -4743,33 +4880,33 @@
       <c r="AK47" s="8"/>
     </row>
     <row r="48" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
       <c r="O48" s="15"/>
       <c r="P48" s="8"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="44"/>
-      <c r="S48" s="44"/>
-      <c r="T48" s="44"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="56"/>
+      <c r="T48" s="56"/>
       <c r="U48" s="8"/>
-      <c r="V48" s="44"/>
-      <c r="W48" s="44"/>
-      <c r="X48" s="44"/>
+      <c r="V48" s="56"/>
+      <c r="W48" s="56"/>
+      <c r="X48" s="56"/>
       <c r="Y48" s="18"/>
       <c r="Z48" s="8"/>
       <c r="AA48" s="8" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AB48" s="8"/>
       <c r="AC48" s="8"/>
@@ -4785,33 +4922,33 @@
       <c r="AK48" s="8"/>
     </row>
     <row r="49" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
       <c r="O49" s="15"/>
       <c r="P49" s="8"/>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="44"/>
-      <c r="S49" s="44"/>
-      <c r="T49" s="44"/>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="56"/>
+      <c r="S49" s="56"/>
+      <c r="T49" s="56"/>
       <c r="U49" s="8"/>
-      <c r="V49" s="44"/>
-      <c r="W49" s="44"/>
-      <c r="X49" s="44"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
       <c r="Y49" s="18"/>
       <c r="Z49" s="8"/>
       <c r="AA49" s="8" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AB49" s="8"/>
       <c r="AC49" s="8"/>
@@ -4827,33 +4964,33 @@
       <c r="AK49" s="8"/>
     </row>
     <row r="50" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="8"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
       <c r="O50" s="15"/>
       <c r="P50" s="8"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="44"/>
-      <c r="T50" s="44"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="56"/>
+      <c r="T50" s="56"/>
       <c r="U50" s="8"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="44"/>
-      <c r="X50" s="44"/>
+      <c r="V50" s="56"/>
+      <c r="W50" s="56"/>
+      <c r="X50" s="56"/>
       <c r="Y50" s="18"/>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AB50" s="8"/>
       <c r="AC50" s="8"/>
@@ -4869,33 +5006,33 @@
       <c r="AK50" s="8"/>
     </row>
     <row r="51" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
       <c r="F51" s="8"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
       <c r="O51" s="15"/>
       <c r="P51" s="8"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="44"/>
-      <c r="T51" s="44"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="56"/>
+      <c r="T51" s="56"/>
       <c r="U51" s="8"/>
-      <c r="V51" s="44"/>
-      <c r="W51" s="44"/>
-      <c r="X51" s="44"/>
+      <c r="V51" s="56"/>
+      <c r="W51" s="56"/>
+      <c r="X51" s="56"/>
       <c r="Y51" s="18"/>
       <c r="Z51" s="8"/>
       <c r="AA51" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AB51" s="8"/>
       <c r="AC51" s="8"/>
@@ -4911,25 +5048,25 @@
       <c r="AK51" s="8"/>
     </row>
     <row r="52" spans="2:37" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
       <c r="F52" s="8"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
       <c r="O52" s="15"/>
       <c r="P52" s="8"/>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="44"/>
-      <c r="S52" s="44"/>
-      <c r="T52" s="44"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="56"/>
+      <c r="S52" s="56"/>
+      <c r="T52" s="56"/>
       <c r="U52" s="8"/>
       <c r="V52" s="8"/>
       <c r="W52" s="8"/>
@@ -4937,7 +5074,7 @@
       <c r="Y52" s="18"/>
       <c r="Z52" s="8"/>
       <c r="AA52" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AB52" s="8"/>
       <c r="AC52" s="8"/>
@@ -4953,19 +5090,19 @@
       <c r="AK52" s="8"/>
     </row>
     <row r="53" spans="2:37" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="47"/>
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
@@ -4979,7 +5116,7 @@
       <c r="Y53" s="18"/>
       <c r="Z53" s="8"/>
       <c r="AA53" s="8" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AB53" s="8"/>
       <c r="AC53" s="8"/>
@@ -4995,19 +5132,19 @@
       <c r="AK53" s="8"/>
     </row>
     <row r="54" spans="2:37" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
       <c r="O54" s="8"/>
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
@@ -5021,7 +5158,7 @@
       <c r="Y54" s="18"/>
       <c r="Z54" s="8"/>
       <c r="AA54" s="8" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AB54" s="8"/>
       <c r="AC54" s="8"/>
@@ -5063,7 +5200,7 @@
       <c r="Y55" s="18"/>
       <c r="Z55" s="8"/>
       <c r="AA55" s="8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AB55" s="8"/>
       <c r="AC55" s="8"/>
@@ -5077,41 +5214,41 @@
       <c r="AK55" s="8"/>
     </row>
     <row r="56" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B56" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
+      <c r="B56" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
       <c r="F56" s="8"/>
-      <c r="G56" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="36"/>
+      <c r="G56" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
       <c r="O56" s="8"/>
-      <c r="P56" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q56" s="36"/>
-      <c r="R56" s="36"/>
-      <c r="S56" s="36"/>
-      <c r="T56" s="36"/>
+      <c r="P56" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="48"/>
+      <c r="S56" s="48"/>
+      <c r="T56" s="48"/>
       <c r="U56" s="8"/>
-      <c r="V56" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="W56" s="36"/>
-      <c r="X56" s="36"/>
+      <c r="V56" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="W56" s="48"/>
+      <c r="X56" s="48"/>
       <c r="Y56" s="18"/>
       <c r="Z56" s="8"/>
       <c r="AA56" s="8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AB56" s="8"/>
       <c r="AC56" s="8"/>
@@ -5127,41 +5264,41 @@
       <c r="AK56" s="8"/>
     </row>
     <row r="57" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
+      <c r="B57" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
+      <c r="G57" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="47"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q57" s="26"/>
-      <c r="R57" s="26"/>
-      <c r="S57" s="26"/>
-      <c r="T57" s="26"/>
+      <c r="P57" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="38"/>
+      <c r="S57" s="38"/>
+      <c r="T57" s="38"/>
       <c r="U57" s="8"/>
-      <c r="V57" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="W57" s="35"/>
-      <c r="X57" s="35"/>
+      <c r="V57" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="W57" s="47"/>
+      <c r="X57" s="47"/>
       <c r="Y57" s="18"/>
       <c r="Z57" s="8"/>
       <c r="AA57" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AB57" s="8"/>
       <c r="AC57" s="8"/>
@@ -5177,33 +5314,33 @@
       <c r="AK57" s="8"/>
     </row>
     <row r="58" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
       <c r="F58" s="8"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="47"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="26"/>
-      <c r="Q58" s="26"/>
-      <c r="R58" s="26"/>
-      <c r="S58" s="26"/>
-      <c r="T58" s="26"/>
+      <c r="P58" s="38"/>
+      <c r="Q58" s="38"/>
+      <c r="R58" s="38"/>
+      <c r="S58" s="38"/>
+      <c r="T58" s="38"/>
       <c r="U58" s="8"/>
-      <c r="V58" s="35"/>
-      <c r="W58" s="35"/>
-      <c r="X58" s="35"/>
+      <c r="V58" s="47"/>
+      <c r="W58" s="47"/>
+      <c r="X58" s="47"/>
       <c r="Y58" s="18"/>
       <c r="Z58" s="8"/>
       <c r="AA58" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AB58" s="8"/>
       <c r="AC58" s="8"/>
@@ -5219,33 +5356,33 @@
       <c r="AK58" s="8"/>
     </row>
     <row r="59" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
       <c r="F59" s="8"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="47"/>
       <c r="O59" s="8"/>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="26"/>
-      <c r="S59" s="26"/>
-      <c r="T59" s="26"/>
+      <c r="P59" s="38"/>
+      <c r="Q59" s="38"/>
+      <c r="R59" s="38"/>
+      <c r="S59" s="38"/>
+      <c r="T59" s="38"/>
       <c r="U59" s="8"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="35"/>
+      <c r="V59" s="47"/>
+      <c r="W59" s="47"/>
+      <c r="X59" s="47"/>
       <c r="Y59" s="18"/>
       <c r="Z59" s="8"/>
       <c r="AA59" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AB59" s="8"/>
       <c r="AC59" s="8"/>
@@ -5261,33 +5398,33 @@
       <c r="AK59" s="8"/>
     </row>
     <row r="60" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
       <c r="F60" s="8"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="35"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="47"/>
       <c r="O60" s="8"/>
-      <c r="P60" s="26"/>
-      <c r="Q60" s="26"/>
-      <c r="R60" s="26"/>
-      <c r="S60" s="26"/>
-      <c r="T60" s="26"/>
+      <c r="P60" s="38"/>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="38"/>
+      <c r="S60" s="38"/>
+      <c r="T60" s="38"/>
       <c r="U60" s="8"/>
-      <c r="V60" s="35"/>
-      <c r="W60" s="35"/>
-      <c r="X60" s="35"/>
+      <c r="V60" s="47"/>
+      <c r="W60" s="47"/>
+      <c r="X60" s="47"/>
       <c r="Y60" s="18"/>
       <c r="Z60" s="8"/>
       <c r="AA60" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AB60" s="8"/>
       <c r="AC60" s="8"/>
@@ -5303,33 +5440,33 @@
       <c r="AK60" s="8"/>
     </row>
     <row r="61" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
       <c r="F61" s="8"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="47"/>
+      <c r="N61" s="47"/>
       <c r="O61" s="8"/>
-      <c r="P61" s="26"/>
-      <c r="Q61" s="26"/>
-      <c r="R61" s="26"/>
-      <c r="S61" s="26"/>
-      <c r="T61" s="26"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="38"/>
       <c r="U61" s="8"/>
-      <c r="V61" s="35"/>
-      <c r="W61" s="35"/>
-      <c r="X61" s="35"/>
+      <c r="V61" s="47"/>
+      <c r="W61" s="47"/>
+      <c r="X61" s="47"/>
       <c r="Y61" s="18"/>
       <c r="Z61" s="8"/>
       <c r="AA61" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB61" s="8"/>
       <c r="AC61" s="8"/>
@@ -5345,33 +5482,33 @@
       <c r="AK61" s="8"/>
     </row>
     <row r="62" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
       <c r="F62" s="8"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="35"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="47"/>
+      <c r="N62" s="47"/>
       <c r="O62" s="8"/>
-      <c r="P62" s="26"/>
-      <c r="Q62" s="26"/>
-      <c r="R62" s="26"/>
-      <c r="S62" s="26"/>
-      <c r="T62" s="26"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="38"/>
       <c r="U62" s="8"/>
-      <c r="V62" s="35"/>
-      <c r="W62" s="35"/>
-      <c r="X62" s="35"/>
+      <c r="V62" s="47"/>
+      <c r="W62" s="47"/>
+      <c r="X62" s="47"/>
       <c r="Y62" s="18"/>
       <c r="Z62" s="8"/>
       <c r="AA62" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AB62" s="8"/>
       <c r="AC62" s="8"/>
@@ -5387,33 +5524,33 @@
       <c r="AK62" s="8"/>
     </row>
     <row r="63" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
       <c r="F63" s="8"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="47"/>
+      <c r="M63" s="47"/>
+      <c r="N63" s="47"/>
       <c r="O63" s="8"/>
-      <c r="P63" s="26"/>
-      <c r="Q63" s="26"/>
-      <c r="R63" s="26"/>
-      <c r="S63" s="26"/>
-      <c r="T63" s="26"/>
+      <c r="P63" s="38"/>
+      <c r="Q63" s="38"/>
+      <c r="R63" s="38"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="38"/>
       <c r="U63" s="8"/>
-      <c r="V63" s="35"/>
-      <c r="W63" s="35"/>
-      <c r="X63" s="35"/>
+      <c r="V63" s="47"/>
+      <c r="W63" s="47"/>
+      <c r="X63" s="47"/>
       <c r="Y63" s="18"/>
       <c r="Z63" s="8"/>
       <c r="AA63" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AB63" s="8"/>
       <c r="AC63" s="8"/>
@@ -5429,33 +5566,33 @@
       <c r="AK63" s="8"/>
     </row>
     <row r="64" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
       <c r="F64" s="8"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="47"/>
+      <c r="M64" s="47"/>
+      <c r="N64" s="47"/>
       <c r="O64" s="8"/>
-      <c r="P64" s="26"/>
-      <c r="Q64" s="26"/>
-      <c r="R64" s="26"/>
-      <c r="S64" s="26"/>
-      <c r="T64" s="26"/>
+      <c r="P64" s="38"/>
+      <c r="Q64" s="38"/>
+      <c r="R64" s="38"/>
+      <c r="S64" s="38"/>
+      <c r="T64" s="38"/>
       <c r="U64" s="8"/>
-      <c r="V64" s="35"/>
-      <c r="W64" s="35"/>
-      <c r="X64" s="35"/>
+      <c r="V64" s="47"/>
+      <c r="W64" s="47"/>
+      <c r="X64" s="47"/>
       <c r="Y64" s="18"/>
       <c r="Z64" s="8"/>
       <c r="AA64" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AB64" s="8"/>
       <c r="AC64" s="8"/>
@@ -5471,33 +5608,33 @@
       <c r="AK64" s="8"/>
     </row>
     <row r="65" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
       <c r="F65" s="8"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
+      <c r="M65" s="47"/>
+      <c r="N65" s="47"/>
       <c r="O65" s="8"/>
-      <c r="P65" s="26"/>
-      <c r="Q65" s="26"/>
-      <c r="R65" s="26"/>
-      <c r="S65" s="26"/>
-      <c r="T65" s="26"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="38"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="38"/>
       <c r="U65" s="8"/>
-      <c r="V65" s="35"/>
-      <c r="W65" s="35"/>
-      <c r="X65" s="35"/>
+      <c r="V65" s="47"/>
+      <c r="W65" s="47"/>
+      <c r="X65" s="47"/>
       <c r="Y65" s="18"/>
       <c r="Z65" s="8"/>
       <c r="AA65" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AB65" s="8"/>
       <c r="AC65" s="8"/>
@@ -5513,33 +5650,33 @@
       <c r="AK65" s="8"/>
     </row>
     <row r="66" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="47"/>
+      <c r="M66" s="47"/>
+      <c r="N66" s="47"/>
       <c r="O66" s="8"/>
-      <c r="P66" s="26"/>
-      <c r="Q66" s="26"/>
-      <c r="R66" s="26"/>
-      <c r="S66" s="26"/>
-      <c r="T66" s="26"/>
+      <c r="P66" s="38"/>
+      <c r="Q66" s="38"/>
+      <c r="R66" s="38"/>
+      <c r="S66" s="38"/>
+      <c r="T66" s="38"/>
       <c r="U66" s="8"/>
-      <c r="V66" s="35"/>
-      <c r="W66" s="35"/>
-      <c r="X66" s="35"/>
+      <c r="V66" s="47"/>
+      <c r="W66" s="47"/>
+      <c r="X66" s="47"/>
       <c r="Y66" s="18"/>
       <c r="Z66" s="8"/>
       <c r="AA66" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AB66" s="8"/>
       <c r="AC66" s="8"/>
@@ -5553,33 +5690,33 @@
       <c r="AK66" s="8"/>
     </row>
     <row r="67" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
       <c r="F67" s="8"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
+      <c r="M67" s="47"/>
+      <c r="N67" s="47"/>
       <c r="O67" s="8"/>
-      <c r="P67" s="26"/>
-      <c r="Q67" s="26"/>
-      <c r="R67" s="26"/>
-      <c r="S67" s="26"/>
-      <c r="T67" s="26"/>
+      <c r="P67" s="38"/>
+      <c r="Q67" s="38"/>
+      <c r="R67" s="38"/>
+      <c r="S67" s="38"/>
+      <c r="T67" s="38"/>
       <c r="U67" s="8"/>
-      <c r="V67" s="35"/>
-      <c r="W67" s="35"/>
-      <c r="X67" s="35"/>
+      <c r="V67" s="47"/>
+      <c r="W67" s="47"/>
+      <c r="X67" s="47"/>
       <c r="Y67" s="18"/>
       <c r="Z67" s="8"/>
       <c r="AA67" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AB67" s="8"/>
       <c r="AC67" s="8"/>
@@ -5621,7 +5758,7 @@
       <c r="Y68" s="18"/>
       <c r="Z68" s="8"/>
       <c r="AA68" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AB68" s="8"/>
       <c r="AC68" s="8"/>
@@ -5635,31 +5772,31 @@
       <c r="AK68" s="8"/>
     </row>
     <row r="69" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B69" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
+      <c r="B69" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
       <c r="F69" s="8"/>
-      <c r="G69" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="36"/>
-      <c r="N69" s="36"/>
+      <c r="G69" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="48"/>
       <c r="O69" s="8"/>
-      <c r="P69" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q69" s="36"/>
-      <c r="R69" s="36"/>
-      <c r="S69" s="36"/>
-      <c r="T69" s="36"/>
+      <c r="P69" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q69" s="48"/>
+      <c r="R69" s="48"/>
+      <c r="S69" s="48"/>
+      <c r="T69" s="48"/>
       <c r="U69" s="8"/>
       <c r="V69" s="13"/>
       <c r="W69" s="13"/>
@@ -5667,7 +5804,7 @@
       <c r="Y69" s="18"/>
       <c r="Z69" s="8"/>
       <c r="AA69" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AB69" s="8"/>
       <c r="AC69" s="8"/>
@@ -5681,31 +5818,31 @@
       <c r="AK69" s="8"/>
     </row>
     <row r="70" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
+      <c r="B70" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47"/>
       <c r="F70" s="8"/>
-      <c r="G70" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="35"/>
+      <c r="G70" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="H70" s="47"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="47"/>
+      <c r="N70" s="47"/>
       <c r="O70" s="8"/>
-      <c r="P70" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
+      <c r="P70" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q70" s="47"/>
+      <c r="R70" s="47"/>
+      <c r="S70" s="47"/>
+      <c r="T70" s="47"/>
       <c r="U70" s="8"/>
       <c r="V70" s="13"/>
       <c r="W70" s="13"/>
@@ -5727,25 +5864,25 @@
       <c r="AK70" s="8"/>
     </row>
     <row r="71" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
       <c r="F71" s="8"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="35"/>
-      <c r="N71" s="35"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
       <c r="O71" s="8"/>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="35"/>
-      <c r="R71" s="35"/>
-      <c r="S71" s="35"/>
-      <c r="T71" s="35"/>
+      <c r="P71" s="47"/>
+      <c r="Q71" s="47"/>
+      <c r="R71" s="47"/>
+      <c r="S71" s="47"/>
+      <c r="T71" s="47"/>
       <c r="U71" s="8"/>
       <c r="V71" s="13"/>
       <c r="W71" s="13"/>
@@ -5767,25 +5904,25 @@
       <c r="AK71" s="8"/>
     </row>
     <row r="72" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47"/>
       <c r="F72" s="8"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="35"/>
-      <c r="N72" s="35"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="47"/>
       <c r="O72" s="8"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
-      <c r="R72" s="35"/>
-      <c r="S72" s="35"/>
-      <c r="T72" s="35"/>
+      <c r="P72" s="47"/>
+      <c r="Q72" s="47"/>
+      <c r="R72" s="47"/>
+      <c r="S72" s="47"/>
+      <c r="T72" s="47"/>
       <c r="U72" s="8"/>
       <c r="V72" s="13"/>
       <c r="W72" s="13"/>
@@ -5809,25 +5946,25 @@
       <c r="AK72" s="8"/>
     </row>
     <row r="73" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
       <c r="F73" s="8"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="47"/>
+      <c r="M73" s="47"/>
+      <c r="N73" s="47"/>
       <c r="O73" s="8"/>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="35"/>
-      <c r="R73" s="35"/>
-      <c r="S73" s="35"/>
-      <c r="T73" s="35"/>
+      <c r="P73" s="47"/>
+      <c r="Q73" s="47"/>
+      <c r="R73" s="47"/>
+      <c r="S73" s="47"/>
+      <c r="T73" s="47"/>
       <c r="U73" s="8"/>
       <c r="V73" s="8"/>
       <c r="W73" s="8"/>
@@ -5851,25 +5988,25 @@
       <c r="AK73" s="8"/>
     </row>
     <row r="74" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47"/>
       <c r="F74" s="8"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="35"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="47"/>
+      <c r="M74" s="47"/>
+      <c r="N74" s="47"/>
       <c r="O74" s="8"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="35"/>
-      <c r="S74" s="35"/>
-      <c r="T74" s="35"/>
+      <c r="P74" s="47"/>
+      <c r="Q74" s="47"/>
+      <c r="R74" s="47"/>
+      <c r="S74" s="47"/>
+      <c r="T74" s="47"/>
       <c r="U74" s="8"/>
       <c r="V74" s="8"/>
       <c r="W74" s="8"/>
@@ -5893,25 +6030,25 @@
       <c r="AK74" s="8"/>
     </row>
     <row r="75" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B75" s="35"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
       <c r="F75" s="8"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="35"/>
-      <c r="N75" s="35"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="47"/>
       <c r="O75" s="8"/>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="35"/>
-      <c r="R75" s="35"/>
-      <c r="S75" s="35"/>
-      <c r="T75" s="35"/>
+      <c r="P75" s="47"/>
+      <c r="Q75" s="47"/>
+      <c r="R75" s="47"/>
+      <c r="S75" s="47"/>
+      <c r="T75" s="47"/>
       <c r="U75" s="8"/>
       <c r="V75" s="8"/>
       <c r="W75" s="8"/>
@@ -5935,25 +6072,25 @@
       <c r="AK75" s="8"/>
     </row>
     <row r="76" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B76" s="35"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="47"/>
       <c r="F76" s="8"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="35"/>
-      <c r="M76" s="35"/>
-      <c r="N76" s="35"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="47"/>
+      <c r="N76" s="47"/>
       <c r="O76" s="8"/>
-      <c r="P76" s="35"/>
-      <c r="Q76" s="35"/>
-      <c r="R76" s="35"/>
-      <c r="S76" s="35"/>
-      <c r="T76" s="35"/>
+      <c r="P76" s="47"/>
+      <c r="Q76" s="47"/>
+      <c r="R76" s="47"/>
+      <c r="S76" s="47"/>
+      <c r="T76" s="47"/>
       <c r="U76" s="8"/>
       <c r="V76" s="8"/>
       <c r="W76" s="8"/>
@@ -5977,25 +6114,25 @@
       <c r="AK76" s="8"/>
     </row>
     <row r="77" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B77" s="35"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47"/>
       <c r="F77" s="8"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="35"/>
-      <c r="M77" s="35"/>
-      <c r="N77" s="35"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="47"/>
+      <c r="N77" s="47"/>
       <c r="O77" s="8"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="35"/>
-      <c r="R77" s="35"/>
-      <c r="S77" s="35"/>
-      <c r="T77" s="35"/>
+      <c r="P77" s="47"/>
+      <c r="Q77" s="47"/>
+      <c r="R77" s="47"/>
+      <c r="S77" s="47"/>
+      <c r="T77" s="47"/>
       <c r="U77" s="8"/>
       <c r="V77" s="8"/>
       <c r="W77" s="8"/>
@@ -6019,25 +6156,25 @@
       <c r="AK77" s="8"/>
     </row>
     <row r="78" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B78" s="35"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47"/>
       <c r="F78" s="8"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="35"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="35"/>
-      <c r="M78" s="35"/>
-      <c r="N78" s="35"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="47"/>
+      <c r="N78" s="47"/>
       <c r="O78" s="8"/>
-      <c r="P78" s="35"/>
-      <c r="Q78" s="35"/>
-      <c r="R78" s="35"/>
-      <c r="S78" s="35"/>
-      <c r="T78" s="35"/>
+      <c r="P78" s="47"/>
+      <c r="Q78" s="47"/>
+      <c r="R78" s="47"/>
+      <c r="S78" s="47"/>
+      <c r="T78" s="47"/>
       <c r="U78" s="8"/>
       <c r="V78" s="8"/>
       <c r="W78" s="8"/>
@@ -6075,11 +6212,11 @@
       <c r="M79" s="8"/>
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
-      <c r="P79" s="35"/>
-      <c r="Q79" s="35"/>
-      <c r="R79" s="35"/>
-      <c r="S79" s="35"/>
-      <c r="T79" s="35"/>
+      <c r="P79" s="47"/>
+      <c r="Q79" s="47"/>
+      <c r="R79" s="47"/>
+      <c r="S79" s="47"/>
+      <c r="T79" s="47"/>
       <c r="U79" s="8"/>
       <c r="V79" s="8"/>
       <c r="W79" s="8"/>
@@ -6117,11 +6254,11 @@
       <c r="M80" s="8"/>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
-      <c r="P80" s="35"/>
-      <c r="Q80" s="35"/>
-      <c r="R80" s="35"/>
-      <c r="S80" s="35"/>
-      <c r="T80" s="35"/>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="47"/>
+      <c r="R80" s="47"/>
+      <c r="S80" s="47"/>
+      <c r="T80" s="47"/>
       <c r="U80" s="8"/>
       <c r="V80" s="8"/>
       <c r="W80" s="8"/>
@@ -6187,15 +6324,15 @@
       <c r="AK81" s="8"/>
     </row>
     <row r="82" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B82" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="F82" s="25"/>
+      <c r="B82" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="F82" s="37"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
@@ -6217,7 +6354,7 @@
       <c r="Y82" s="8"/>
       <c r="Z82" s="8"/>
       <c r="AA82" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB82" s="8"/>
       <c r="AC82" s="8"/>
@@ -6233,11 +6370,11 @@
       <c r="AK82" s="8"/>
     </row>
     <row r="83" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
@@ -6259,7 +6396,7 @@
       <c r="Y83" s="8"/>
       <c r="Z83" s="8"/>
       <c r="AA83" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB83" s="8"/>
       <c r="AC83" s="8"/>
@@ -6276,18 +6413,18 @@
     </row>
     <row r="84" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B84" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="40" t="e">
+        <v>13</v>
+      </c>
+      <c r="C84" s="52" t="e">
         <f>AG19</f>
         <v>#N/A</v>
       </c>
-      <c r="D84" s="41"/>
-      <c r="E84" s="42" t="e">
-        <f>_xlfn.RANK.EQ(C84,$C$84:$D$97)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F84" s="42"/>
+      <c r="D84" s="53"/>
+      <c r="E84" s="54" t="e">
+        <f>_xlfn.RANK.EQ(C84,$C$84:$D$98)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F84" s="54"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
@@ -6309,7 +6446,7 @@
       <c r="Y84" s="8"/>
       <c r="Z84" s="8"/>
       <c r="AA84" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB84" s="8"/>
       <c r="AC84" s="8"/>
@@ -6324,20 +6461,20 @@
       <c r="AJ84" s="8"/>
       <c r="AK84" s="8"/>
     </row>
-    <row r="85" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" s="40" t="e">
+        <v>15</v>
+      </c>
+      <c r="C85" s="52" t="e">
         <f t="shared" ref="C85:C98" si="2">AG20</f>
         <v>#N/A</v>
       </c>
-      <c r="D85" s="41"/>
-      <c r="E85" s="42" t="e">
-        <f t="shared" ref="E85:E98" si="3">_xlfn.RANK.EQ(C85,$C$84:$D$97)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F85" s="42"/>
+      <c r="D85" s="53"/>
+      <c r="E85" s="54" t="e">
+        <f t="shared" ref="E85:E98" si="3">_xlfn.RANK.EQ(C85,$C$84:$D$98)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F85" s="54"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
@@ -6359,7 +6496,7 @@
       <c r="Y85" s="8"/>
       <c r="Z85" s="8"/>
       <c r="AA85" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AB85" s="8"/>
       <c r="AC85" s="8"/>
@@ -6374,20 +6511,20 @@
       <c r="AJ85" s="8"/>
       <c r="AK85" s="8"/>
     </row>
-    <row r="86" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C86" s="40" t="e">
+        <v>18</v>
+      </c>
+      <c r="C86" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D86" s="41"/>
-      <c r="E86" s="42" t="e">
+      <c r="D86" s="53"/>
+      <c r="E86" s="54" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F86" s="42"/>
+      <c r="F86" s="54"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
@@ -6409,7 +6546,7 @@
       <c r="Y86" s="8"/>
       <c r="Z86" s="8"/>
       <c r="AA86" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AB86" s="8"/>
       <c r="AC86" s="8"/>
@@ -6424,20 +6561,20 @@
       <c r="AJ86" s="8"/>
       <c r="AK86" s="8"/>
     </row>
-    <row r="87" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="40" t="e">
+        <v>22</v>
+      </c>
+      <c r="C87" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D87" s="41"/>
-      <c r="E87" s="42" t="e">
+      <c r="D87" s="53"/>
+      <c r="E87" s="54" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F87" s="42"/>
+      <c r="F87" s="54"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
@@ -6459,7 +6596,7 @@
       <c r="Y87" s="8"/>
       <c r="Z87" s="8"/>
       <c r="AA87" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB87" s="8"/>
       <c r="AC87" s="8"/>
@@ -6474,20 +6611,20 @@
       <c r="AJ87" s="8"/>
       <c r="AK87" s="8"/>
     </row>
-    <row r="88" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" s="40" t="e">
+        <v>26</v>
+      </c>
+      <c r="C88" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D88" s="41"/>
-      <c r="E88" s="42" t="e">
+      <c r="D88" s="53"/>
+      <c r="E88" s="54" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F88" s="42"/>
+      <c r="F88" s="54"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
@@ -6509,7 +6646,7 @@
       <c r="Y88" s="8"/>
       <c r="Z88" s="8"/>
       <c r="AA88" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AB88" s="8"/>
       <c r="AC88" s="8"/>
@@ -6524,36 +6661,36 @@
       <c r="AJ88" s="8"/>
       <c r="AK88" s="8"/>
     </row>
-    <row r="89" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="40" t="e">
+        <v>30</v>
+      </c>
+      <c r="C89" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D89" s="41"/>
-      <c r="E89" s="42" t="e">
+      <c r="D89" s="53"/>
+      <c r="E89" s="54" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F89" s="42"/>
+      <c r="F89" s="54"/>
       <c r="G89" s="8"/>
-      <c r="H89" s="46" t="s">
-        <v>260</v>
-      </c>
-      <c r="I89" s="47"/>
-      <c r="J89" s="47"/>
-      <c r="K89" s="47"/>
-      <c r="L89" s="47"/>
-      <c r="M89" s="47"/>
-      <c r="N89" s="47"/>
-      <c r="O89" s="47"/>
-      <c r="P89" s="47"/>
-      <c r="Q89" s="47"/>
-      <c r="R89" s="47"/>
-      <c r="S89" s="47"/>
-      <c r="T89" s="47"/>
+      <c r="H89" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="I89" s="59"/>
+      <c r="J89" s="59"/>
+      <c r="K89" s="59"/>
+      <c r="L89" s="59"/>
+      <c r="M89" s="59"/>
+      <c r="N89" s="59"/>
+      <c r="O89" s="59"/>
+      <c r="P89" s="59"/>
+      <c r="Q89" s="59"/>
+      <c r="R89" s="59"/>
+      <c r="S89" s="59"/>
+      <c r="T89" s="59"/>
       <c r="U89" s="8"/>
       <c r="V89" s="8"/>
       <c r="W89" s="8"/>
@@ -6561,7 +6698,7 @@
       <c r="Y89" s="8"/>
       <c r="Z89" s="8"/>
       <c r="AA89" s="8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AB89" s="8"/>
       <c r="AC89" s="8"/>
@@ -6576,34 +6713,34 @@
       <c r="AJ89" s="8"/>
       <c r="AK89" s="8"/>
     </row>
-    <row r="90" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="40" t="e">
+        <v>33</v>
+      </c>
+      <c r="C90" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D90" s="41"/>
-      <c r="E90" s="42" t="e">
+      <c r="D90" s="53"/>
+      <c r="E90" s="54" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F90" s="42"/>
+      <c r="F90" s="54"/>
       <c r="G90" s="8"/>
-      <c r="H90" s="47"/>
-      <c r="I90" s="47"/>
-      <c r="J90" s="47"/>
-      <c r="K90" s="47"/>
-      <c r="L90" s="47"/>
-      <c r="M90" s="47"/>
-      <c r="N90" s="47"/>
-      <c r="O90" s="47"/>
-      <c r="P90" s="47"/>
-      <c r="Q90" s="47"/>
-      <c r="R90" s="47"/>
-      <c r="S90" s="47"/>
-      <c r="T90" s="47"/>
+      <c r="H90" s="59"/>
+      <c r="I90" s="59"/>
+      <c r="J90" s="59"/>
+      <c r="K90" s="59"/>
+      <c r="L90" s="59"/>
+      <c r="M90" s="59"/>
+      <c r="N90" s="59"/>
+      <c r="O90" s="59"/>
+      <c r="P90" s="59"/>
+      <c r="Q90" s="59"/>
+      <c r="R90" s="59"/>
+      <c r="S90" s="59"/>
+      <c r="T90" s="59"/>
       <c r="U90" s="8"/>
       <c r="V90" s="8"/>
       <c r="W90" s="8"/>
@@ -6611,7 +6748,7 @@
       <c r="Y90" s="8"/>
       <c r="Z90" s="8"/>
       <c r="AA90" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AB90" s="8"/>
       <c r="AC90" s="8"/>
@@ -6626,34 +6763,34 @@
       <c r="AJ90" s="8"/>
       <c r="AK90" s="8"/>
     </row>
-    <row r="91" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91" s="40" t="e">
+        <v>36</v>
+      </c>
+      <c r="C91" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D91" s="41"/>
-      <c r="E91" s="42" t="e">
+      <c r="D91" s="53"/>
+      <c r="E91" s="54" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F91" s="42"/>
+      <c r="F91" s="54"/>
       <c r="G91" s="8"/>
-      <c r="H91" s="47"/>
-      <c r="I91" s="47"/>
-      <c r="J91" s="47"/>
-      <c r="K91" s="47"/>
-      <c r="L91" s="47"/>
-      <c r="M91" s="47"/>
-      <c r="N91" s="47"/>
-      <c r="O91" s="47"/>
-      <c r="P91" s="47"/>
-      <c r="Q91" s="47"/>
-      <c r="R91" s="47"/>
-      <c r="S91" s="47"/>
-      <c r="T91" s="47"/>
+      <c r="H91" s="59"/>
+      <c r="I91" s="59"/>
+      <c r="J91" s="59"/>
+      <c r="K91" s="59"/>
+      <c r="L91" s="59"/>
+      <c r="M91" s="59"/>
+      <c r="N91" s="59"/>
+      <c r="O91" s="59"/>
+      <c r="P91" s="59"/>
+      <c r="Q91" s="59"/>
+      <c r="R91" s="59"/>
+      <c r="S91" s="59"/>
+      <c r="T91" s="59"/>
       <c r="U91" s="8"/>
       <c r="V91" s="8"/>
       <c r="W91" s="8"/>
@@ -6661,7 +6798,7 @@
       <c r="Y91" s="8"/>
       <c r="Z91" s="8"/>
       <c r="AA91" s="8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AB91" s="8"/>
       <c r="AC91" s="8"/>
@@ -6676,34 +6813,34 @@
       <c r="AJ91" s="8"/>
       <c r="AK91" s="8"/>
     </row>
-    <row r="92" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" s="40" t="e">
+        <v>39</v>
+      </c>
+      <c r="C92" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D92" s="41"/>
-      <c r="E92" s="42" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F92" s="42"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="54" t="e">
+        <f>_xlfn.RANK.EQ(C92,$C$84:$D$98)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F92" s="54"/>
       <c r="G92" s="8"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="47"/>
-      <c r="N92" s="47"/>
-      <c r="O92" s="47"/>
-      <c r="P92" s="47"/>
-      <c r="Q92" s="47"/>
-      <c r="R92" s="47"/>
-      <c r="S92" s="47"/>
-      <c r="T92" s="47"/>
+      <c r="H92" s="59"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="59"/>
+      <c r="K92" s="59"/>
+      <c r="L92" s="59"/>
+      <c r="M92" s="59"/>
+      <c r="N92" s="59"/>
+      <c r="O92" s="59"/>
+      <c r="P92" s="59"/>
+      <c r="Q92" s="59"/>
+      <c r="R92" s="59"/>
+      <c r="S92" s="59"/>
+      <c r="T92" s="59"/>
       <c r="U92" s="8"/>
       <c r="V92" s="8"/>
       <c r="W92" s="8"/>
@@ -6711,7 +6848,7 @@
       <c r="Y92" s="8"/>
       <c r="Z92" s="8"/>
       <c r="AA92" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AB92" s="8"/>
       <c r="AC92" s="8"/>
@@ -6726,34 +6863,34 @@
       <c r="AJ92" s="8"/>
       <c r="AK92" s="8"/>
     </row>
-    <row r="93" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="40" t="e">
+        <v>41</v>
+      </c>
+      <c r="C93" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D93" s="41"/>
-      <c r="E93" s="42" t="e">
+      <c r="D93" s="53"/>
+      <c r="E93" s="54" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F93" s="42"/>
+      <c r="F93" s="54"/>
       <c r="G93" s="8"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="47"/>
-      <c r="J93" s="47"/>
-      <c r="K93" s="47"/>
-      <c r="L93" s="47"/>
-      <c r="M93" s="47"/>
-      <c r="N93" s="47"/>
-      <c r="O93" s="47"/>
-      <c r="P93" s="47"/>
-      <c r="Q93" s="47"/>
-      <c r="R93" s="47"/>
-      <c r="S93" s="47"/>
-      <c r="T93" s="47"/>
+      <c r="H93" s="59"/>
+      <c r="I93" s="59"/>
+      <c r="J93" s="59"/>
+      <c r="K93" s="59"/>
+      <c r="L93" s="59"/>
+      <c r="M93" s="59"/>
+      <c r="N93" s="59"/>
+      <c r="O93" s="59"/>
+      <c r="P93" s="59"/>
+      <c r="Q93" s="59"/>
+      <c r="R93" s="59"/>
+      <c r="S93" s="59"/>
+      <c r="T93" s="59"/>
       <c r="U93" s="8"/>
       <c r="V93" s="8"/>
       <c r="W93" s="8"/>
@@ -6761,7 +6898,7 @@
       <c r="Y93" s="8"/>
       <c r="Z93" s="8"/>
       <c r="AA93" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AB93" s="8"/>
       <c r="AC93" s="8"/>
@@ -6776,34 +6913,34 @@
       <c r="AJ93" s="8"/>
       <c r="AK93" s="8"/>
     </row>
-    <row r="94" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="40" t="e">
+        <v>43</v>
+      </c>
+      <c r="C94" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D94" s="41"/>
-      <c r="E94" s="42" t="e">
+      <c r="D94" s="53"/>
+      <c r="E94" s="54" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F94" s="42"/>
+      <c r="F94" s="54"/>
       <c r="G94" s="8"/>
-      <c r="H94" s="47"/>
-      <c r="I94" s="47"/>
-      <c r="J94" s="47"/>
-      <c r="K94" s="47"/>
-      <c r="L94" s="47"/>
-      <c r="M94" s="47"/>
-      <c r="N94" s="47"/>
-      <c r="O94" s="47"/>
-      <c r="P94" s="47"/>
-      <c r="Q94" s="47"/>
-      <c r="R94" s="47"/>
-      <c r="S94" s="47"/>
-      <c r="T94" s="47"/>
+      <c r="H94" s="59"/>
+      <c r="I94" s="59"/>
+      <c r="J94" s="59"/>
+      <c r="K94" s="59"/>
+      <c r="L94" s="59"/>
+      <c r="M94" s="59"/>
+      <c r="N94" s="59"/>
+      <c r="O94" s="59"/>
+      <c r="P94" s="59"/>
+      <c r="Q94" s="59"/>
+      <c r="R94" s="59"/>
+      <c r="S94" s="59"/>
+      <c r="T94" s="59"/>
       <c r="U94" s="8"/>
       <c r="V94" s="8"/>
       <c r="W94" s="8"/>
@@ -6811,7 +6948,7 @@
       <c r="Y94" s="8"/>
       <c r="Z94" s="8"/>
       <c r="AA94" s="8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AB94" s="8"/>
       <c r="AC94" s="8"/>
@@ -6826,34 +6963,34 @@
       <c r="AJ94" s="8"/>
       <c r="AK94" s="8"/>
     </row>
-    <row r="95" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C95" s="40" t="e">
+        <v>45</v>
+      </c>
+      <c r="C95" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D95" s="41"/>
-      <c r="E95" s="42" t="e">
+      <c r="D95" s="53"/>
+      <c r="E95" s="54" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F95" s="42"/>
+      <c r="F95" s="54"/>
       <c r="G95" s="8"/>
-      <c r="H95" s="47"/>
-      <c r="I95" s="47"/>
-      <c r="J95" s="47"/>
-      <c r="K95" s="47"/>
-      <c r="L95" s="47"/>
-      <c r="M95" s="47"/>
-      <c r="N95" s="47"/>
-      <c r="O95" s="47"/>
-      <c r="P95" s="47"/>
-      <c r="Q95" s="47"/>
-      <c r="R95" s="47"/>
-      <c r="S95" s="47"/>
-      <c r="T95" s="47"/>
+      <c r="H95" s="59"/>
+      <c r="I95" s="59"/>
+      <c r="J95" s="59"/>
+      <c r="K95" s="59"/>
+      <c r="L95" s="59"/>
+      <c r="M95" s="59"/>
+      <c r="N95" s="59"/>
+      <c r="O95" s="59"/>
+      <c r="P95" s="59"/>
+      <c r="Q95" s="59"/>
+      <c r="R95" s="59"/>
+      <c r="S95" s="59"/>
+      <c r="T95" s="59"/>
       <c r="U95" s="8"/>
       <c r="V95" s="8"/>
       <c r="W95" s="8"/>
@@ -6861,7 +6998,7 @@
       <c r="Y95" s="8"/>
       <c r="Z95" s="8"/>
       <c r="AA95" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AB95" s="8"/>
       <c r="AC95" s="8"/>
@@ -6876,20 +7013,20 @@
       <c r="AJ95" s="8"/>
       <c r="AK95" s="8"/>
     </row>
-    <row r="96" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" s="40" t="e">
+        <v>47</v>
+      </c>
+      <c r="C96" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D96" s="41"/>
-      <c r="E96" s="42" t="e">
+      <c r="D96" s="53"/>
+      <c r="E96" s="54" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F96" s="42"/>
+      <c r="F96" s="54"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
@@ -6911,7 +7048,7 @@
       <c r="Y96" s="8"/>
       <c r="Z96" s="8"/>
       <c r="AA96" s="8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AB96" s="8"/>
       <c r="AC96" s="8"/>
@@ -6926,20 +7063,20 @@
       <c r="AJ96" s="8"/>
       <c r="AK96" s="8"/>
     </row>
-    <row r="97" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97" s="40" t="e">
+        <v>49</v>
+      </c>
+      <c r="C97" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D97" s="41"/>
-      <c r="E97" s="42" t="e">
+      <c r="D97" s="53"/>
+      <c r="E97" s="54" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F97" s="42"/>
+      <c r="F97" s="54"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
@@ -6961,7 +7098,7 @@
       <c r="Y97" s="8"/>
       <c r="Z97" s="8"/>
       <c r="AA97" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AB97" s="8"/>
       <c r="AC97" s="8"/>
@@ -6976,36 +7113,36 @@
       <c r="AJ97" s="8"/>
       <c r="AK97" s="8"/>
     </row>
-    <row r="98" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" s="40" t="e">
+        <v>51</v>
+      </c>
+      <c r="C98" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D98" s="41"/>
-      <c r="E98" s="42" t="e">
+      <c r="D98" s="53"/>
+      <c r="E98" s="54" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F98" s="42"/>
+      <c r="F98" s="54"/>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
-      <c r="I98" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="J98" s="49"/>
-      <c r="K98" s="49"/>
-      <c r="L98" s="49"/>
-      <c r="M98" s="49"/>
-      <c r="N98" s="49"/>
-      <c r="O98" s="49"/>
-      <c r="P98" s="49"/>
-      <c r="Q98" s="49"/>
-      <c r="R98" s="49"/>
-      <c r="S98" s="49"/>
-      <c r="T98" s="49"/>
+      <c r="I98" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="J98" s="41"/>
+      <c r="K98" s="41"/>
+      <c r="L98" s="41"/>
+      <c r="M98" s="41"/>
+      <c r="N98" s="41"/>
+      <c r="O98" s="41"/>
+      <c r="P98" s="41"/>
+      <c r="Q98" s="41"/>
+      <c r="R98" s="41"/>
+      <c r="S98" s="41"/>
+      <c r="T98" s="41"/>
       <c r="U98" s="8"/>
       <c r="V98" s="8"/>
       <c r="W98" s="8"/>
@@ -7013,7 +7150,7 @@
       <c r="Y98" s="8"/>
       <c r="Z98" s="8"/>
       <c r="AA98" s="8" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AB98" s="8"/>
       <c r="AC98" s="8"/>
@@ -7036,18 +7173,18 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
-      <c r="I99" s="49"/>
-      <c r="J99" s="49"/>
-      <c r="K99" s="49"/>
-      <c r="L99" s="49"/>
-      <c r="M99" s="49"/>
-      <c r="N99" s="49"/>
-      <c r="O99" s="49"/>
-      <c r="P99" s="49"/>
-      <c r="Q99" s="49"/>
-      <c r="R99" s="49"/>
-      <c r="S99" s="49"/>
-      <c r="T99" s="49"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="41"/>
+      <c r="K99" s="41"/>
+      <c r="L99" s="41"/>
+      <c r="M99" s="41"/>
+      <c r="N99" s="41"/>
+      <c r="O99" s="41"/>
+      <c r="P99" s="41"/>
+      <c r="Q99" s="41"/>
+      <c r="R99" s="41"/>
+      <c r="S99" s="41"/>
+      <c r="T99" s="41"/>
       <c r="U99" s="8"/>
       <c r="V99" s="8"/>
       <c r="W99" s="8"/>
@@ -7055,7 +7192,7 @@
       <c r="Y99" s="8"/>
       <c r="Z99" s="8"/>
       <c r="AA99" s="8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AB99" s="8"/>
       <c r="AC99" s="8"/>
@@ -7078,18 +7215,18 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
-      <c r="I100" s="49"/>
-      <c r="J100" s="49"/>
-      <c r="K100" s="49"/>
-      <c r="L100" s="49"/>
-      <c r="M100" s="49"/>
-      <c r="N100" s="49"/>
-      <c r="O100" s="49"/>
-      <c r="P100" s="49"/>
-      <c r="Q100" s="49"/>
-      <c r="R100" s="49"/>
-      <c r="S100" s="49"/>
-      <c r="T100" s="49"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="41"/>
+      <c r="K100" s="41"/>
+      <c r="L100" s="41"/>
+      <c r="M100" s="41"/>
+      <c r="N100" s="41"/>
+      <c r="O100" s="41"/>
+      <c r="P100" s="41"/>
+      <c r="Q100" s="41"/>
+      <c r="R100" s="41"/>
+      <c r="S100" s="41"/>
+      <c r="T100" s="41"/>
       <c r="U100" s="8"/>
       <c r="V100" s="8"/>
       <c r="W100" s="8"/>
@@ -7097,7 +7234,7 @@
       <c r="Y100" s="8"/>
       <c r="Z100" s="8"/>
       <c r="AA100" s="8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AB100" s="8"/>
       <c r="AC100" s="8"/>
@@ -7120,18 +7257,18 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
-      <c r="I101" s="49"/>
-      <c r="J101" s="49"/>
-      <c r="K101" s="49"/>
-      <c r="L101" s="49"/>
-      <c r="M101" s="49"/>
-      <c r="N101" s="49"/>
-      <c r="O101" s="49"/>
-      <c r="P101" s="49"/>
-      <c r="Q101" s="49"/>
-      <c r="R101" s="49"/>
-      <c r="S101" s="49"/>
-      <c r="T101" s="49"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="41"/>
+      <c r="K101" s="41"/>
+      <c r="L101" s="41"/>
+      <c r="M101" s="41"/>
+      <c r="N101" s="41"/>
+      <c r="O101" s="41"/>
+      <c r="P101" s="41"/>
+      <c r="Q101" s="41"/>
+      <c r="R101" s="41"/>
+      <c r="S101" s="41"/>
+      <c r="T101" s="41"/>
       <c r="U101" s="8"/>
       <c r="V101" s="8"/>
       <c r="W101" s="8"/>
@@ -7139,7 +7276,7 @@
       <c r="Y101" s="8"/>
       <c r="Z101" s="8"/>
       <c r="AA101" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AB101" s="8"/>
       <c r="AC101" s="8"/>
@@ -7163,19 +7300,19 @@
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
-      <c r="J102" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="K102" s="51"/>
-      <c r="L102" s="51"/>
-      <c r="M102" s="51"/>
-      <c r="N102" s="51"/>
-      <c r="O102" s="51"/>
-      <c r="P102" s="51"/>
-      <c r="Q102" s="51"/>
-      <c r="R102" s="51"/>
-      <c r="S102" s="51"/>
-      <c r="T102" s="51"/>
+      <c r="J102" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="K102" s="62"/>
+      <c r="L102" s="62"/>
+      <c r="M102" s="62"/>
+      <c r="N102" s="62"/>
+      <c r="O102" s="62"/>
+      <c r="P102" s="62"/>
+      <c r="Q102" s="62"/>
+      <c r="R102" s="62"/>
+      <c r="S102" s="62"/>
+      <c r="T102" s="62"/>
       <c r="U102" s="8"/>
       <c r="V102" s="8"/>
       <c r="W102" s="8"/>
@@ -7183,7 +7320,7 @@
       <c r="Y102" s="8"/>
       <c r="Z102" s="8"/>
       <c r="AA102" s="8" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AB102" s="8"/>
       <c r="AC102" s="8"/>
@@ -7207,17 +7344,17 @@
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
-      <c r="J103" s="51"/>
-      <c r="K103" s="51"/>
-      <c r="L103" s="51"/>
-      <c r="M103" s="51"/>
-      <c r="N103" s="51"/>
-      <c r="O103" s="51"/>
-      <c r="P103" s="51"/>
-      <c r="Q103" s="51"/>
-      <c r="R103" s="51"/>
-      <c r="S103" s="51"/>
-      <c r="T103" s="51"/>
+      <c r="J103" s="62"/>
+      <c r="K103" s="62"/>
+      <c r="L103" s="62"/>
+      <c r="M103" s="62"/>
+      <c r="N103" s="62"/>
+      <c r="O103" s="62"/>
+      <c r="P103" s="62"/>
+      <c r="Q103" s="62"/>
+      <c r="R103" s="62"/>
+      <c r="S103" s="62"/>
+      <c r="T103" s="62"/>
       <c r="U103" s="8"/>
       <c r="V103" s="8"/>
       <c r="W103" s="8"/>
@@ -7225,7 +7362,7 @@
       <c r="Y103" s="8"/>
       <c r="Z103" s="8"/>
       <c r="AA103" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="AB103" s="8"/>
       <c r="AC103" s="8"/>
@@ -7249,17 +7386,17 @@
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
-      <c r="J104" s="51"/>
-      <c r="K104" s="51"/>
-      <c r="L104" s="51"/>
-      <c r="M104" s="51"/>
-      <c r="N104" s="51"/>
-      <c r="O104" s="51"/>
-      <c r="P104" s="51"/>
-      <c r="Q104" s="51"/>
-      <c r="R104" s="51"/>
-      <c r="S104" s="51"/>
-      <c r="T104" s="51"/>
+      <c r="J104" s="62"/>
+      <c r="K104" s="62"/>
+      <c r="L104" s="62"/>
+      <c r="M104" s="62"/>
+      <c r="N104" s="62"/>
+      <c r="O104" s="62"/>
+      <c r="P104" s="62"/>
+      <c r="Q104" s="62"/>
+      <c r="R104" s="62"/>
+      <c r="S104" s="62"/>
+      <c r="T104" s="62"/>
       <c r="U104" s="8"/>
       <c r="V104" s="8"/>
       <c r="W104" s="8"/>
@@ -7267,7 +7404,7 @@
       <c r="Y104" s="8"/>
       <c r="Z104" s="8"/>
       <c r="AA104" s="8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AB104" s="8"/>
       <c r="AC104" s="8"/>
@@ -7309,7 +7446,7 @@
       <c r="Y105" s="8"/>
       <c r="Z105" s="8"/>
       <c r="AA105" s="8" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="AB105" s="8"/>
       <c r="AC105" s="8"/>
@@ -7328,7 +7465,7 @@
       <c r="Y106" s="8"/>
       <c r="Z106" s="8"/>
       <c r="AA106" s="8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AB106" s="8"/>
       <c r="AC106" s="8"/>
@@ -7345,7 +7482,7 @@
     </row>
     <row r="107" spans="2:37" x14ac:dyDescent="0.3">
       <c r="AA107" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="AD107">
         <v>94</v>
@@ -7353,7 +7490,7 @@
     </row>
     <row r="108" spans="2:37" x14ac:dyDescent="0.3">
       <c r="AA108" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AD108">
         <v>95</v>
@@ -7361,7 +7498,7 @@
     </row>
     <row r="109" spans="2:37" x14ac:dyDescent="0.3">
       <c r="AA109" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AD109">
         <v>96</v>
@@ -7369,7 +7506,7 @@
     </row>
     <row r="110" spans="2:37" x14ac:dyDescent="0.3">
       <c r="AA110" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AD110">
         <v>97</v>
@@ -7377,7 +7514,7 @@
     </row>
     <row r="111" spans="2:37" x14ac:dyDescent="0.3">
       <c r="AA111" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AD111">
         <v>98</v>
@@ -7385,7 +7522,7 @@
     </row>
     <row r="112" spans="2:37" x14ac:dyDescent="0.3">
       <c r="AA112" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AD112">
         <v>99</v>
@@ -7393,35 +7530,35 @@
     </row>
     <row r="113" spans="2:27" x14ac:dyDescent="0.3">
       <c r="AA113" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114" spans="2:27" x14ac:dyDescent="0.3">
       <c r="AA114" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="2:27" x14ac:dyDescent="0.3">
       <c r="AA115" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" spans="2:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="AA116" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117" spans="2:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="AA117" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" spans="2:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>248</v>
+        <v>162</v>
       </c>
       <c r="AA118" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="2:27" hidden="1" x14ac:dyDescent="0.3">
@@ -7498,20 +7635,20 @@
         <v>#N/A</v>
       </c>
       <c r="AA119" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120" spans="2:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="AA120" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121" spans="2:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="AA121" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122" spans="2:27" hidden="1" x14ac:dyDescent="0.3">
@@ -7588,437 +7725,437 @@
         <v>#N/A</v>
       </c>
       <c r="AA122" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123" spans="2:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="AA123" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="2:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="AA124" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="2:27" x14ac:dyDescent="0.3">
       <c r="AA125" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="126" spans="2:27" x14ac:dyDescent="0.3">
       <c r="AA126" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127" spans="2:27" x14ac:dyDescent="0.3">
       <c r="AA127" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="128" spans="2:27" x14ac:dyDescent="0.3">
       <c r="AA128" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="129" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA129" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="130" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA130" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="131" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA131" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="132" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA132" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="133" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA133" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="134" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA134" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="135" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA135" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="136" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA136" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="137" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA137" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="138" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA138" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="139" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA139" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="140" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA140" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="141" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA141" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="142" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA142" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="143" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA143" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="144" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA144" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="145" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA145" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="146" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA146" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="147" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA147" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="148" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA148" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="149" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA149" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="150" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA150" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="151" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA151" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="152" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA152" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="153" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA153" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="154" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA154" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA155" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="156" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA156" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="157" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA157" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="158" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA158" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="159" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA159" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="160" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA160" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="161" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA161" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="162" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA162" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="163" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA163" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="164" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA164" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="165" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA165" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="166" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA166" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="167" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA167" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="168" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA168" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="169" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA169" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="170" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA170" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="171" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA171" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="172" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA172" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="173" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA173" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="174" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA174" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="175" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA175" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="176" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA176" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="177" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA177" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="178" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA178" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="179" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA179" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="180" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA180" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="181" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA181" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="182" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA182" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="183" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA183" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="184" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA184" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="185" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA185" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="186" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA186" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="187" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA187" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="188" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA188" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="189" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA189" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="190" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA190" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="191" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA191" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="192" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA192" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="193" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA193" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="194" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA194" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="195" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA195" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="196" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA196" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="197" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA197" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="198" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA198" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="199" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA199" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="200" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA200" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="201" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA201" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="202" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA202" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="203" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA203" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="204" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA204" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="205" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA205" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="206" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA206" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="207" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA207" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="208" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA208" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -8133,8 +8270,8 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B34:T35" r:id="rId1" display="Once you have completed the sheet, please return the filled Excel file to this email address: maryam.seyedinnavadeh@aalto.fi" xr:uid="{A517D907-0406-49EF-BF97-17758B63E8A8}"/>
-    <hyperlink ref="H89:T95" r:id="rId2" display="mailto:maryam.seyedinnavadeh@aalto.fi" xr:uid="{9A27BD88-F91B-4A16-BB96-54A22347BA5D}"/>
+    <hyperlink ref="B34:T35" r:id="rId1" display="Once you have completed the sheet, please return the Excel file to this email address: matis.gourdes@aalto.fi" xr:uid="{A517D907-0406-49EF-BF97-17758B63E8A8}"/>
+    <hyperlink ref="H89:T95" r:id="rId2" display="mailto:matis.gourdes@aalto.fi" xr:uid="{9A27BD88-F91B-4A16-BB96-54A22347BA5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" r:id="rId3"/>
@@ -8152,14 +8289,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D011B23-0567-4E91-ABBA-22E44C87361C}">
   <dimension ref="A10:R25"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="92" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="2" max="2" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="16" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8228,7 +8365,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="5"/>
@@ -8248,7 +8385,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="6"/>
@@ -8268,7 +8405,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -8291,7 +8428,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -8309,12 +8446,12 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="R14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -8332,12 +8469,12 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="R15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -8357,7 +8494,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -8377,7 +8514,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -8397,7 +8534,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -8417,7 +8554,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -8437,7 +8574,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -8457,7 +8594,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -8477,7 +8614,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -8497,7 +8634,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -8517,7 +8654,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -8543,145 +8680,823 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD34DB8-C9A5-4D57-A0EC-7EAD29CA4537}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" customWidth="1"/>
+    <col min="18" max="18" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="B2" s="29">
+        <f>AVERAGE(B4:B51)</f>
+        <v>6.4976525541150787</v>
+      </c>
+      <c r="C2" s="29">
+        <f>AVERAGE(C4:C51)</f>
+        <v>9.4069577065119052</v>
+      </c>
+      <c r="D2" s="29">
+        <f t="shared" ref="D2:P2" si="0">AVERAGE(D4:D51)</f>
+        <v>7.5543448263611106</v>
+      </c>
+      <c r="E2" s="29">
+        <f t="shared" si="0"/>
+        <v>6.8722286164563497</v>
+      </c>
+      <c r="F2" s="29">
+        <f t="shared" si="0"/>
+        <v>6.6368738288849203</v>
+      </c>
+      <c r="G2" s="29">
+        <f t="shared" si="0"/>
+        <v>5.3021203306349207</v>
+      </c>
+      <c r="H2" s="29">
+        <f t="shared" si="0"/>
+        <v>6.2441564885476195</v>
+      </c>
+      <c r="I2" s="29">
+        <f t="shared" si="0"/>
+        <v>7.1990424596944456</v>
+      </c>
+      <c r="J2" s="29">
+        <f t="shared" si="0"/>
+        <v>4.1594956819444446</v>
+      </c>
+      <c r="K2" s="29">
+        <f t="shared" si="0"/>
+        <v>6.7431201138412709</v>
+      </c>
+      <c r="L2" s="29">
+        <f t="shared" si="0"/>
+        <v>6.0721523664246027</v>
+      </c>
+      <c r="M2" s="29">
+        <f t="shared" si="0"/>
+        <v>5.4722823985555555</v>
+      </c>
+      <c r="N2" s="29">
+        <f t="shared" si="0"/>
+        <v>7.2566292701944439</v>
+      </c>
+      <c r="O2" s="29">
+        <f t="shared" si="0"/>
+        <v>7.700697359376985</v>
+      </c>
+      <c r="P2" s="30">
+        <f t="shared" si="0"/>
+        <v>6.8822459958730162</v>
+      </c>
+      <c r="Q2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="32">
+        <f>RANK(B2,$B$2:$P$2)</f>
+        <v>10</v>
+      </c>
+      <c r="C3" s="32">
+        <f>RANK(C2,$B$2:$P$2)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="32">
+        <f t="shared" ref="D3:P3" si="1">RANK(D2,$B$2:$P$2)</f>
+        <v>3</v>
+      </c>
+      <c r="E3" s="32">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F3" s="32">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G3" s="32">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H3" s="32">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I3" s="32">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J3" s="32">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K3" s="32">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L3" s="32">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="M3" s="32">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="N3" s="32">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="14" t="s">
+      <c r="O3" s="32">
+        <f>RANK(O2,$B$2:$P$2)</f>
         <v>2</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="P3" s="33">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="R3" s="23">
+        <f>SUM(B2:P2)</f>
+        <v>99.999999997416666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="24">
+        <v>5.9523809523809526</v>
+      </c>
+      <c r="C4" s="23">
+        <v>7.8571428571428568</v>
+      </c>
+      <c r="D4" s="23">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="E4" s="23">
+        <v>6.1904761904761907</v>
+      </c>
+      <c r="F4" s="23">
+        <v>9.0476190476190474</v>
+      </c>
+      <c r="G4" s="23">
+        <v>4.0476190476190474</v>
+      </c>
+      <c r="H4" s="23">
+        <v>6.4285714285714288</v>
+      </c>
+      <c r="I4" s="23">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="J4" s="23">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="K4" s="23">
+        <v>5.2380952380952381</v>
+      </c>
+      <c r="L4" s="23">
+        <v>5.2380952380952381</v>
+      </c>
+      <c r="M4" s="23">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="N4" s="23">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="O4" s="23">
+        <v>8.8095238095238102</v>
+      </c>
+      <c r="P4" s="23">
+        <v>6.1904761904761907</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" s="24">
+        <v>6.6666666699999997</v>
+      </c>
+      <c r="C5" s="23">
+        <v>9.7619047600000002</v>
+      </c>
+      <c r="D5" s="23">
+        <v>8.0952380999999995</v>
+      </c>
+      <c r="E5" s="23">
+        <v>5.9523809500000002</v>
+      </c>
+      <c r="F5" s="23">
+        <v>7.1428571400000003</v>
+      </c>
+      <c r="G5" s="23">
+        <v>4.7619047600000002</v>
+      </c>
+      <c r="H5" s="23">
+        <v>5.7142857100000004</v>
+      </c>
+      <c r="I5" s="23">
+        <v>6.19047619</v>
+      </c>
+      <c r="J5" s="23">
+        <v>3.80952381</v>
+      </c>
+      <c r="K5" s="23">
+        <v>7.1428571400000003</v>
+      </c>
+      <c r="L5" s="23">
+        <v>5.2380952399999998</v>
+      </c>
+      <c r="M5" s="23">
+        <v>5.4761904799999996</v>
+      </c>
+      <c r="N5" s="23">
+        <v>8.0952380999999995</v>
+      </c>
+      <c r="O5" s="23">
+        <v>8.3333333300000003</v>
+      </c>
+      <c r="P5" s="23">
+        <v>7.6190476199999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" s="24">
+        <v>6.6666666670000003</v>
+      </c>
+      <c r="C6" s="23">
+        <v>8.5714285710000002</v>
+      </c>
+      <c r="D6" s="23">
+        <v>7.1428571429999996</v>
+      </c>
+      <c r="E6" s="23">
+        <v>6.6666666670000003</v>
+      </c>
+      <c r="F6" s="23">
+        <v>6.4285714289999998</v>
+      </c>
+      <c r="G6" s="23">
         <v>5</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="14" t="s">
+      <c r="H6" s="23">
+        <v>5.7142857139999998</v>
+      </c>
+      <c r="I6" s="23">
+        <v>8.3333333330000006</v>
+      </c>
+      <c r="J6" s="23">
+        <v>6.19047619</v>
+      </c>
+      <c r="K6" s="23">
+        <v>5.2380952379999997</v>
+      </c>
+      <c r="L6" s="23">
+        <v>6.4285714289999998</v>
+      </c>
+      <c r="M6" s="23">
+        <v>5.4761904760000002</v>
+      </c>
+      <c r="N6" s="23">
+        <v>7.6190476189999998</v>
+      </c>
+      <c r="O6" s="23">
+        <v>8.3333333330000006</v>
+      </c>
+      <c r="P6" s="23">
+        <v>6.19047619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="24">
+        <v>5.7279236300000003</v>
+      </c>
+      <c r="C7" s="23">
+        <v>9.7852028600000001</v>
+      </c>
+      <c r="D7" s="23">
+        <v>7.3985680199999999</v>
+      </c>
+      <c r="E7" s="23">
+        <v>5.0119331699999998</v>
+      </c>
+      <c r="F7" s="23">
+        <v>8.5918854400000004</v>
+      </c>
+      <c r="G7" s="23">
+        <v>4.5346062099999997</v>
+      </c>
+      <c r="H7" s="23">
+        <v>4.7732696900000002</v>
+      </c>
+      <c r="I7" s="23">
+        <v>6.9212410499999999</v>
+      </c>
+      <c r="J7" s="23">
+        <v>3.3412887800000002</v>
+      </c>
+      <c r="K7" s="23">
+        <v>8.1145584700000004</v>
+      </c>
+      <c r="L7" s="23">
+        <v>7.3985680199999999</v>
+      </c>
+      <c r="M7" s="23">
+        <v>8.5918854400000004</v>
+      </c>
+      <c r="N7" s="23">
+        <v>5.0119331699999998</v>
+      </c>
+      <c r="O7" s="23">
+        <v>5.4892601399999998</v>
+      </c>
+      <c r="P7" s="23">
+        <v>9.30787589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" s="24">
+        <v>3.8186157500000002</v>
+      </c>
+      <c r="C8" s="23">
+        <v>9.7852028600000001</v>
+      </c>
+      <c r="D8" s="23">
+        <v>8.1145584700000004</v>
+      </c>
+      <c r="E8" s="23">
+        <v>4.7732696900000002</v>
+      </c>
+      <c r="F8" s="23">
+        <v>8.5918854400000004</v>
+      </c>
+      <c r="G8" s="23">
+        <v>5.9665871099999999</v>
+      </c>
+      <c r="H8" s="23">
+        <v>5.7279236300000003</v>
+      </c>
+      <c r="I8" s="23">
+        <v>6.2052506000000003</v>
+      </c>
+      <c r="J8" s="23">
+        <v>3.8186157500000002</v>
+      </c>
+      <c r="K8" s="23">
+        <v>7.8758949899999999</v>
+      </c>
+      <c r="L8" s="23">
+        <v>5.4892601399999998</v>
+      </c>
+      <c r="M8" s="23">
+        <v>5.2505966600000002</v>
+      </c>
+      <c r="N8" s="23">
+        <v>8.1145584700000004</v>
+      </c>
+      <c r="O8" s="23">
+        <v>8.3532219600000008</v>
+      </c>
+      <c r="P8" s="23">
+        <v>8.1145584700000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="24">
+        <v>5.4761904799999996</v>
+      </c>
+      <c r="C9" s="23">
+        <v>9.7619047600000002</v>
+      </c>
+      <c r="D9" s="23">
+        <v>9.7619047600000002</v>
+      </c>
+      <c r="E9" s="23">
+        <v>5.7142857100000004</v>
+      </c>
+      <c r="F9" s="23">
+        <v>5.7142857100000004</v>
+      </c>
+      <c r="G9" s="23">
+        <v>3.80952381</v>
+      </c>
+      <c r="H9" s="23">
+        <v>6.4285714299999999</v>
+      </c>
+      <c r="I9" s="23">
+        <v>7.6190476199999999</v>
+      </c>
+      <c r="J9" s="23">
+        <v>3.5714285700000001</v>
+      </c>
+      <c r="K9" s="23">
+        <v>5.9523809500000002</v>
+      </c>
+      <c r="L9" s="23">
+        <v>7.8571428599999997</v>
+      </c>
+      <c r="M9" s="23">
+        <v>6.19047619</v>
+      </c>
+      <c r="N9" s="23">
+        <v>7.3809523800000001</v>
+      </c>
+      <c r="O9" s="23">
+        <v>9.0476190499999998</v>
+      </c>
+      <c r="P9" s="23">
+        <v>5.7142857100000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" s="24">
+        <v>7.2857142899999996</v>
+      </c>
+      <c r="C10" s="23">
+        <v>9.0952380999999995</v>
+      </c>
+      <c r="D10" s="23">
         <v>9</v>
       </c>
-      <c r="L1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="14" t="s">
+      <c r="E10" s="23">
+        <v>7.7380952399999998</v>
+      </c>
+      <c r="F10" s="23">
+        <v>7.7380952399999998</v>
+      </c>
+      <c r="G10" s="23">
+        <v>5.0714285700000001</v>
+      </c>
+      <c r="H10" s="23">
+        <v>6.1428571400000003</v>
+      </c>
+      <c r="I10" s="23">
+        <v>6.6428571400000003</v>
+      </c>
+      <c r="J10" s="23">
+        <v>4.2142857100000004</v>
+      </c>
+      <c r="K10" s="23">
+        <v>7.1190476199999999</v>
+      </c>
+      <c r="L10" s="23">
+        <v>4.7857142899999996</v>
+      </c>
+      <c r="M10" s="23">
+        <v>4.9523809500000002</v>
+      </c>
+      <c r="N10" s="23">
+        <v>7.5714285700000001</v>
+      </c>
+      <c r="O10" s="23">
+        <v>6.7142857100000004</v>
+      </c>
+      <c r="P10" s="23">
+        <v>5.9285714299999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" s="24">
+        <v>8.0952380999999995</v>
+      </c>
+      <c r="C11" s="23">
         <v>10</v>
       </c>
-      <c r="N1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2">
-        <v>5.9523809523809526</v>
-      </c>
-      <c r="F2">
-        <v>7.8571428571428568</v>
-      </c>
-      <c r="G2">
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="H2">
-        <v>6.1904761904761907</v>
-      </c>
-      <c r="I2">
-        <v>9.0476190476190474</v>
-      </c>
-      <c r="J2">
-        <v>4.0476190476190474</v>
-      </c>
-      <c r="K2">
-        <v>6.4285714285714288</v>
-      </c>
-      <c r="L2">
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="M2">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="N2">
-        <v>5.2380952380952381</v>
-      </c>
-      <c r="O2">
-        <v>5.2380952380952381</v>
-      </c>
-      <c r="P2">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="Q2">
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="R2">
-        <v>8.8095238095238102</v>
-      </c>
-      <c r="S2">
-        <v>6.1904761904761907</v>
+      <c r="D11" s="23">
+        <v>7.8571428599999997</v>
+      </c>
+      <c r="E11" s="23">
+        <v>8.3333333300000003</v>
+      </c>
+      <c r="F11" s="23">
+        <v>5</v>
+      </c>
+      <c r="G11" s="23">
+        <v>4.5238095200000004</v>
+      </c>
+      <c r="H11" s="23">
+        <v>6.4285714299999999</v>
+      </c>
+      <c r="I11" s="23">
+        <v>8.3333333300000003</v>
+      </c>
+      <c r="J11" s="23">
+        <v>3.3333333299999999</v>
+      </c>
+      <c r="K11" s="23">
+        <v>8.0952380999999995</v>
+      </c>
+      <c r="L11" s="23">
+        <v>5.9523809500000002</v>
+      </c>
+      <c r="M11" s="23">
+        <v>5.4761904799999996</v>
+      </c>
+      <c r="N11" s="23">
+        <v>8.3333333300000003</v>
+      </c>
+      <c r="O11" s="23">
+        <v>5.2380952399999998</v>
+      </c>
+      <c r="P11" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="24">
+        <v>7.8384798099999999</v>
+      </c>
+      <c r="C12" s="23">
+        <v>9.0261282699999992</v>
+      </c>
+      <c r="D12" s="23">
+        <v>8.3135391900000002</v>
+      </c>
+      <c r="E12" s="23">
+        <v>8.5510688800000008</v>
+      </c>
+      <c r="F12" s="23">
+        <v>4.5130641300000001</v>
+      </c>
+      <c r="G12" s="23">
+        <v>6.1757719700000004</v>
+      </c>
+      <c r="H12" s="23">
+        <v>7.12589074</v>
+      </c>
+      <c r="I12" s="23">
+        <v>7.3634204299999997</v>
+      </c>
+      <c r="J12" s="23">
+        <v>3.56294537</v>
+      </c>
+      <c r="K12" s="23">
+        <v>7.12589074</v>
+      </c>
+      <c r="L12" s="23">
+        <v>7.6009501200000003</v>
+      </c>
+      <c r="M12" s="23">
+        <v>4.7505938199999997</v>
+      </c>
+      <c r="N12" s="23">
+        <v>7.12589074</v>
+      </c>
+      <c r="O12" s="23">
+        <v>7.12589074</v>
+      </c>
+      <c r="P12" s="23">
+        <v>3.8004750600000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" s="24">
+        <v>6.8883610500000003</v>
+      </c>
+      <c r="C13" s="23">
+        <v>9.5011876500000003</v>
+      </c>
+      <c r="D13" s="23">
+        <v>6.1757719700000004</v>
+      </c>
+      <c r="E13" s="23">
+        <v>7.12589074</v>
+      </c>
+      <c r="F13" s="23">
+        <v>8.7885985699999996</v>
+      </c>
+      <c r="G13" s="23">
+        <v>5.7007125900000002</v>
+      </c>
+      <c r="H13" s="23">
+        <v>5.2256532099999999</v>
+      </c>
+      <c r="I13" s="23">
+        <v>5.9382422799999999</v>
+      </c>
+      <c r="J13" s="23">
+        <v>4.7505938199999997</v>
+      </c>
+      <c r="K13" s="23">
+        <v>7.6009501200000003</v>
+      </c>
+      <c r="L13" s="23">
+        <v>6.4133016600000001</v>
+      </c>
+      <c r="M13" s="23">
+        <v>4.5130641300000001</v>
+      </c>
+      <c r="N13" s="23">
+        <v>6.1757719700000004</v>
+      </c>
+      <c r="O13" s="23">
+        <v>5.9382422799999999</v>
+      </c>
+      <c r="P13" s="23">
+        <v>9.2636579599999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14" s="24">
+        <v>6.9047618999999996</v>
+      </c>
+      <c r="C14" s="23">
+        <v>9.7619047600000002</v>
+      </c>
+      <c r="D14" s="23">
+        <v>3.3333333299999999</v>
+      </c>
+      <c r="E14" s="23">
+        <v>8.3333333300000003</v>
+      </c>
+      <c r="F14" s="23">
+        <v>4.0476190499999998</v>
+      </c>
+      <c r="G14" s="23">
+        <v>8.0952380999999995</v>
+      </c>
+      <c r="H14" s="23">
+        <v>7.6190476199999999</v>
+      </c>
+      <c r="I14" s="23">
+        <v>7.8571428599999997</v>
+      </c>
+      <c r="J14" s="23">
+        <v>5</v>
+      </c>
+      <c r="K14" s="23">
+        <v>5.4761904799999996</v>
+      </c>
+      <c r="L14" s="23">
+        <v>5.2380952399999998</v>
+      </c>
+      <c r="M14" s="23">
+        <v>4.0476190499999998</v>
+      </c>
+      <c r="N14" s="23">
+        <v>6.9047618999999996</v>
+      </c>
+      <c r="O14" s="23">
+        <v>9.7619047600000002</v>
+      </c>
+      <c r="P14" s="23">
+        <v>7.6190476199999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" s="24">
+        <v>6.6508313499999998</v>
+      </c>
+      <c r="C15" s="23">
+        <v>9.9762470299999997</v>
+      </c>
+      <c r="D15" s="23">
+        <v>7.12589074</v>
+      </c>
+      <c r="E15" s="23">
+        <v>8.0760094999999996</v>
+      </c>
+      <c r="F15" s="23">
+        <v>4.0380047499999998</v>
+      </c>
+      <c r="G15" s="23">
+        <v>5.9382422799999999</v>
+      </c>
+      <c r="H15" s="23">
+        <v>7.6009501200000003</v>
+      </c>
+      <c r="I15" s="23">
+        <v>6.6508313499999998</v>
+      </c>
+      <c r="J15" s="23">
+        <v>4.9881235200000003</v>
+      </c>
+      <c r="K15" s="23">
+        <v>5.9382422799999999</v>
+      </c>
+      <c r="L15" s="23">
+        <v>5.2256532099999999</v>
+      </c>
+      <c r="M15" s="23">
+        <v>4.2755344400000004</v>
+      </c>
+      <c r="N15" s="23">
+        <v>6.4133016600000001</v>
+      </c>
+      <c r="O15" s="23">
+        <v>9.2636579599999997</v>
+      </c>
+      <c r="P15" s="23">
+        <v>7.8384798099999999</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:D20" xr:uid="{82876270-C851-4743-9D02-719B2C3F52AB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8691,76 +9506,76 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>23</v>
@@ -8816,10 +9631,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>24</v>
@@ -8834,6 +9649,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF98156A4E08ED42B22DA6C86624442E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="11ba5f1833b47c39d11f9a0fc9ca5ad0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56528f00-8daf-4285-8b2f-184ebce7f2e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b814f87d70368c36b985d9f62a71433" ns2:_="">
     <xsd:import namespace="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
@@ -9011,7 +9835,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="56528f00-8daf-4285-8b2f-184ebce7f2e9">
@@ -9021,24 +9845,22 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E55394AD-EAD7-4DB0-8A63-1FFADDFE8C2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00089E46-9D1D-406D-80DB-769E94388862}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -9049,26 +9871,12 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{868C143E-6D51-4467-8AC0-C13BFF0C5CF6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E55394AD-EAD7-4DB0-8A63-1FFADDFE8C2B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Criteria Ranking.xlsx
+++ b/Criteria Ranking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matis\Desktop\Aalto S1\Advanced Energy Project\SMR-X-H2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63A68D8-A7DA-4F34-9082-2B41BC801011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C4F50B-71B1-4924-8A34-11ABC5A3FD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4515" yWindow="-10890" windowWidth="19380" windowHeight="10260" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="276">
   <si>
     <t>Study of Criteria Significance for Establishing a Hydrogen Production Facility Powered by SMR/AMR</t>
   </si>
@@ -975,15 +975,18 @@
   <si>
     <t>Sam2</t>
   </si>
+  <si>
+    <t xml:space="preserve">Rescale Average </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.00000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1295,10 +1298,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1346,8 +1349,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1356,8 +1359,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1366,26 +1369,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1402,54 +1453,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -2198,31 +2205,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
       <c r="Y1" s="18"/>
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
@@ -2238,29 +2245,29 @@
       <c r="AK1" s="8"/>
     </row>
     <row r="2" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
       <c r="Y2" s="18"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
@@ -2276,10 +2283,10 @@
       <c r="AK2" s="8"/>
     </row>
     <row r="3" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="42"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -2316,31 +2323,31 @@
       <c r="AK3" s="8"/>
     </row>
     <row r="4" spans="2:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
       <c r="Y4" s="18"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
@@ -2356,31 +2363,31 @@
       <c r="AK4" s="8"/>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
       <c r="Y5" s="18"/>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
@@ -2396,29 +2403,29 @@
       <c r="AK5" s="8"/>
     </row>
     <row r="6" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
       <c r="Y6" s="18"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
@@ -2434,29 +2441,29 @@
       <c r="AK6" s="8"/>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
       <c r="Y7" s="18"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
@@ -2512,31 +2519,31 @@
       <c r="AK8" s="8"/>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
       <c r="Y9" s="18"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
@@ -2552,29 +2559,29 @@
       <c r="AK9" s="8"/>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
       <c r="Y10" s="18"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
@@ -2590,31 +2597,31 @@
       <c r="AK10" s="8"/>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
       <c r="Y11" s="18"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
@@ -2630,29 +2637,29 @@
       <c r="AK11" s="8"/>
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
       <c r="Y12" s="18"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
@@ -2668,31 +2675,31 @@
       <c r="AK12" s="8"/>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="46"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="62"/>
       <c r="Y13" s="18"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
@@ -2708,29 +2715,29 @@
       <c r="AK13" s="8"/>
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="46"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="62"/>
       <c r="Y14" s="18"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
@@ -2787,32 +2794,32 @@
       <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="35" t="s">
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="43" t="s">
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="35" t="s">
+      <c r="L16" s="59"/>
+      <c r="M16" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="43" t="s">
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -2934,12 +2941,12 @@
       </c>
       <c r="R18" s="10"/>
       <c r="S18" s="8"/>
-      <c r="T18" s="37" t="s">
+      <c r="T18" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="18"/>
       <c r="Z18" s="8"/>
@@ -3605,11 +3612,11 @@
         <v>14</v>
       </c>
       <c r="R26" s="8"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
       <c r="X26" s="8"/>
       <c r="Y26" s="18"/>
       <c r="Z26" s="8"/>
@@ -3693,11 +3700,11 @@
         <v>14</v>
       </c>
       <c r="R27" s="8"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
       <c r="X27" s="8"/>
       <c r="Y27" s="18"/>
       <c r="Z27" s="8"/>
@@ -3780,11 +3787,11 @@
         <v>14</v>
       </c>
       <c r="R28" s="8"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="54"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="18"/>
       <c r="Z28" s="8"/>
@@ -4261,27 +4268,27 @@
       <c r="AK33" s="8"/>
     </row>
     <row r="34" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="52"/>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
@@ -4305,25 +4312,25 @@
       <c r="AK34" s="8"/>
     </row>
     <row r="35" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
@@ -4385,10 +4392,10 @@
       <c r="AK36" s="8"/>
     </row>
     <row r="37" spans="2:37" ht="21" x14ac:dyDescent="0.4">
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="36"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -4476,37 +4483,37 @@
       <c r="AK38" s="8"/>
     </row>
     <row r="39" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="51" t="s">
+      <c r="G39" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
       <c r="O39" s="16"/>
       <c r="P39" s="8"/>
-      <c r="Q39" s="49" t="s">
+      <c r="Q39" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="R39" s="49"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="49"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="46"/>
       <c r="U39" s="8"/>
-      <c r="V39" s="48" t="s">
+      <c r="V39" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="W39" s="48"/>
-      <c r="X39" s="48"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
       <c r="Y39" s="18"/>
       <c r="Z39" s="8"/>
       <c r="AA39" s="8" t="s">
@@ -4526,37 +4533,37 @@
       <c r="AK39" s="8"/>
     </row>
     <row r="40" spans="2:37" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="47" t="s">
+      <c r="G40" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
       <c r="O40" s="13"/>
       <c r="P40" s="8"/>
-      <c r="Q40" s="47" t="s">
+      <c r="Q40" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="R40" s="47"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="47"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
       <c r="U40" s="13"/>
-      <c r="V40" s="47" t="s">
+      <c r="V40" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="W40" s="47"/>
-      <c r="X40" s="47"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="44"/>
       <c r="Y40" s="18"/>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8" t="s">
@@ -4616,37 +4623,37 @@
       <c r="AK41" s="8"/>
     </row>
     <row r="42" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="49" t="s">
+      <c r="G42" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
       <c r="O42" s="1"/>
       <c r="P42" s="8"/>
-      <c r="Q42" s="48" t="s">
+      <c r="Q42" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="R42" s="48"/>
-      <c r="S42" s="48"/>
-      <c r="T42" s="48"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="47"/>
       <c r="U42" s="8"/>
-      <c r="V42" s="48" t="s">
+      <c r="V42" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="W42" s="48"/>
-      <c r="X42" s="48"/>
+      <c r="W42" s="47"/>
+      <c r="X42" s="47"/>
       <c r="Y42" s="18"/>
       <c r="Z42" s="8"/>
       <c r="AA42" s="8" t="s">
@@ -4664,37 +4671,37 @@
       <c r="AK42" s="8"/>
     </row>
     <row r="43" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="47" t="s">
+      <c r="G43" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
       <c r="O43" s="15"/>
       <c r="P43" s="8"/>
-      <c r="Q43" s="55" t="s">
+      <c r="Q43" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="R43" s="56"/>
-      <c r="S43" s="56"/>
-      <c r="T43" s="56"/>
+      <c r="R43" s="49"/>
+      <c r="S43" s="49"/>
+      <c r="T43" s="49"/>
       <c r="U43" s="8"/>
-      <c r="V43" s="55" t="s">
+      <c r="V43" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="W43" s="56"/>
-      <c r="X43" s="56"/>
+      <c r="W43" s="49"/>
+      <c r="X43" s="49"/>
       <c r="Y43" s="18"/>
       <c r="Z43" s="8"/>
       <c r="AA43" s="8" t="s">
@@ -4714,29 +4721,29 @@
       <c r="AK43" s="8"/>
     </row>
     <row r="44" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
       <c r="O44" s="15"/>
       <c r="P44" s="8"/>
-      <c r="Q44" s="56"/>
-      <c r="R44" s="56"/>
-      <c r="S44" s="56"/>
-      <c r="T44" s="56"/>
+      <c r="Q44" s="49"/>
+      <c r="R44" s="49"/>
+      <c r="S44" s="49"/>
+      <c r="T44" s="49"/>
       <c r="U44" s="8"/>
-      <c r="V44" s="56"/>
-      <c r="W44" s="56"/>
-      <c r="X44" s="56"/>
+      <c r="V44" s="49"/>
+      <c r="W44" s="49"/>
+      <c r="X44" s="49"/>
       <c r="Y44" s="18"/>
       <c r="Z44" s="8"/>
       <c r="AA44" s="8" t="s">
@@ -4756,29 +4763,29 @@
       <c r="AK44" s="8"/>
     </row>
     <row r="45" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
       <c r="O45" s="15"/>
       <c r="P45" s="8"/>
-      <c r="Q45" s="56"/>
-      <c r="R45" s="56"/>
-      <c r="S45" s="56"/>
-      <c r="T45" s="56"/>
+      <c r="Q45" s="49"/>
+      <c r="R45" s="49"/>
+      <c r="S45" s="49"/>
+      <c r="T45" s="49"/>
       <c r="U45" s="8"/>
-      <c r="V45" s="56"/>
-      <c r="W45" s="56"/>
-      <c r="X45" s="56"/>
+      <c r="V45" s="49"/>
+      <c r="W45" s="49"/>
+      <c r="X45" s="49"/>
       <c r="Y45" s="18"/>
       <c r="Z45" s="8"/>
       <c r="AA45" s="8" t="s">
@@ -4796,29 +4803,29 @@
       <c r="AK45" s="8"/>
     </row>
     <row r="46" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
       <c r="O46" s="15"/>
       <c r="P46" s="8"/>
-      <c r="Q46" s="56"/>
-      <c r="R46" s="56"/>
-      <c r="S46" s="56"/>
-      <c r="T46" s="56"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="49"/>
+      <c r="T46" s="49"/>
       <c r="U46" s="8"/>
-      <c r="V46" s="56"/>
-      <c r="W46" s="56"/>
-      <c r="X46" s="56"/>
+      <c r="V46" s="49"/>
+      <c r="W46" s="49"/>
+      <c r="X46" s="49"/>
       <c r="Y46" s="18"/>
       <c r="Z46" s="8"/>
       <c r="AA46" s="8" t="s">
@@ -4838,29 +4845,29 @@
       <c r="AK46" s="8"/>
     </row>
     <row r="47" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
       <c r="O47" s="15"/>
       <c r="P47" s="8"/>
-      <c r="Q47" s="56"/>
-      <c r="R47" s="56"/>
-      <c r="S47" s="56"/>
-      <c r="T47" s="56"/>
+      <c r="Q47" s="49"/>
+      <c r="R47" s="49"/>
+      <c r="S47" s="49"/>
+      <c r="T47" s="49"/>
       <c r="U47" s="8"/>
-      <c r="V47" s="56"/>
-      <c r="W47" s="56"/>
-      <c r="X47" s="56"/>
+      <c r="V47" s="49"/>
+      <c r="W47" s="49"/>
+      <c r="X47" s="49"/>
       <c r="Y47" s="18"/>
       <c r="Z47" s="8"/>
       <c r="AA47" s="8" t="s">
@@ -4880,29 +4887,29 @@
       <c r="AK47" s="8"/>
     </row>
     <row r="48" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
       <c r="O48" s="15"/>
       <c r="P48" s="8"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="56"/>
-      <c r="T48" s="56"/>
+      <c r="Q48" s="49"/>
+      <c r="R48" s="49"/>
+      <c r="S48" s="49"/>
+      <c r="T48" s="49"/>
       <c r="U48" s="8"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="56"/>
-      <c r="X48" s="56"/>
+      <c r="V48" s="49"/>
+      <c r="W48" s="49"/>
+      <c r="X48" s="49"/>
       <c r="Y48" s="18"/>
       <c r="Z48" s="8"/>
       <c r="AA48" s="8" t="s">
@@ -4922,29 +4929,29 @@
       <c r="AK48" s="8"/>
     </row>
     <row r="49" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
       <c r="O49" s="15"/>
       <c r="P49" s="8"/>
-      <c r="Q49" s="56"/>
-      <c r="R49" s="56"/>
-      <c r="S49" s="56"/>
-      <c r="T49" s="56"/>
+      <c r="Q49" s="49"/>
+      <c r="R49" s="49"/>
+      <c r="S49" s="49"/>
+      <c r="T49" s="49"/>
       <c r="U49" s="8"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
+      <c r="V49" s="49"/>
+      <c r="W49" s="49"/>
+      <c r="X49" s="49"/>
       <c r="Y49" s="18"/>
       <c r="Z49" s="8"/>
       <c r="AA49" s="8" t="s">
@@ -4964,29 +4971,29 @@
       <c r="AK49" s="8"/>
     </row>
     <row r="50" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
       <c r="F50" s="8"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="47"/>
-      <c r="N50" s="47"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
       <c r="O50" s="15"/>
       <c r="P50" s="8"/>
-      <c r="Q50" s="56"/>
-      <c r="R50" s="56"/>
-      <c r="S50" s="56"/>
-      <c r="T50" s="56"/>
+      <c r="Q50" s="49"/>
+      <c r="R50" s="49"/>
+      <c r="S50" s="49"/>
+      <c r="T50" s="49"/>
       <c r="U50" s="8"/>
-      <c r="V50" s="56"/>
-      <c r="W50" s="56"/>
-      <c r="X50" s="56"/>
+      <c r="V50" s="49"/>
+      <c r="W50" s="49"/>
+      <c r="X50" s="49"/>
       <c r="Y50" s="18"/>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8" t="s">
@@ -5006,29 +5013,29 @@
       <c r="AK50" s="8"/>
     </row>
     <row r="51" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
       <c r="F51" s="8"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="47"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
       <c r="O51" s="15"/>
       <c r="P51" s="8"/>
-      <c r="Q51" s="56"/>
-      <c r="R51" s="56"/>
-      <c r="S51" s="56"/>
-      <c r="T51" s="56"/>
+      <c r="Q51" s="49"/>
+      <c r="R51" s="49"/>
+      <c r="S51" s="49"/>
+      <c r="T51" s="49"/>
       <c r="U51" s="8"/>
-      <c r="V51" s="56"/>
-      <c r="W51" s="56"/>
-      <c r="X51" s="56"/>
+      <c r="V51" s="49"/>
+      <c r="W51" s="49"/>
+      <c r="X51" s="49"/>
       <c r="Y51" s="18"/>
       <c r="Z51" s="8"/>
       <c r="AA51" s="8" t="s">
@@ -5048,25 +5055,25 @@
       <c r="AK51" s="8"/>
     </row>
     <row r="52" spans="2:37" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
       <c r="F52" s="8"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
       <c r="O52" s="15"/>
       <c r="P52" s="8"/>
-      <c r="Q52" s="56"/>
-      <c r="R52" s="56"/>
-      <c r="S52" s="56"/>
-      <c r="T52" s="56"/>
+      <c r="Q52" s="49"/>
+      <c r="R52" s="49"/>
+      <c r="S52" s="49"/>
+      <c r="T52" s="49"/>
       <c r="U52" s="8"/>
       <c r="V52" s="8"/>
       <c r="W52" s="8"/>
@@ -5090,19 +5097,19 @@
       <c r="AK52" s="8"/>
     </row>
     <row r="53" spans="2:37" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
@@ -5132,19 +5139,19 @@
       <c r="AK53" s="8"/>
     </row>
     <row r="54" spans="2:37" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="47"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="44"/>
       <c r="O54" s="8"/>
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
@@ -5214,37 +5221,37 @@
       <c r="AK55" s="8"/>
     </row>
     <row r="56" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B56" s="57" t="s">
+      <c r="B56" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
       <c r="F56" s="8"/>
-      <c r="G56" s="48" t="s">
+      <c r="G56" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="48"/>
-      <c r="L56" s="48"/>
-      <c r="M56" s="48"/>
-      <c r="N56" s="48"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="47"/>
       <c r="O56" s="8"/>
-      <c r="P56" s="48" t="s">
+      <c r="P56" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="48"/>
-      <c r="S56" s="48"/>
-      <c r="T56" s="48"/>
+      <c r="Q56" s="47"/>
+      <c r="R56" s="47"/>
+      <c r="S56" s="47"/>
+      <c r="T56" s="47"/>
       <c r="U56" s="8"/>
-      <c r="V56" s="48" t="s">
+      <c r="V56" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="W56" s="48"/>
-      <c r="X56" s="48"/>
+      <c r="W56" s="47"/>
+      <c r="X56" s="47"/>
       <c r="Y56" s="18"/>
       <c r="Z56" s="8"/>
       <c r="AA56" s="8" t="s">
@@ -5264,37 +5271,37 @@
       <c r="AK56" s="8"/>
     </row>
     <row r="57" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="47" t="s">
+      <c r="G57" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="47"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="47"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="38" t="s">
+      <c r="P57" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="Q57" s="38"/>
-      <c r="R57" s="38"/>
-      <c r="S57" s="38"/>
-      <c r="T57" s="38"/>
+      <c r="Q57" s="50"/>
+      <c r="R57" s="50"/>
+      <c r="S57" s="50"/>
+      <c r="T57" s="50"/>
       <c r="U57" s="8"/>
-      <c r="V57" s="47" t="s">
+      <c r="V57" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="W57" s="47"/>
-      <c r="X57" s="47"/>
+      <c r="W57" s="44"/>
+      <c r="X57" s="44"/>
       <c r="Y57" s="18"/>
       <c r="Z57" s="8"/>
       <c r="AA57" s="8" t="s">
@@ -5314,29 +5321,29 @@
       <c r="AK57" s="8"/>
     </row>
     <row r="58" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
       <c r="F58" s="8"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="47"/>
-      <c r="L58" s="47"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="47"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="38"/>
-      <c r="Q58" s="38"/>
-      <c r="R58" s="38"/>
-      <c r="S58" s="38"/>
-      <c r="T58" s="38"/>
+      <c r="P58" s="50"/>
+      <c r="Q58" s="50"/>
+      <c r="R58" s="50"/>
+      <c r="S58" s="50"/>
+      <c r="T58" s="50"/>
       <c r="U58" s="8"/>
-      <c r="V58" s="47"/>
-      <c r="W58" s="47"/>
-      <c r="X58" s="47"/>
+      <c r="V58" s="44"/>
+      <c r="W58" s="44"/>
+      <c r="X58" s="44"/>
       <c r="Y58" s="18"/>
       <c r="Z58" s="8"/>
       <c r="AA58" s="8" t="s">
@@ -5356,29 +5363,29 @@
       <c r="AK58" s="8"/>
     </row>
     <row r="59" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
       <c r="F59" s="8"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="47"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="47"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
       <c r="O59" s="8"/>
-      <c r="P59" s="38"/>
-      <c r="Q59" s="38"/>
-      <c r="R59" s="38"/>
-      <c r="S59" s="38"/>
-      <c r="T59" s="38"/>
+      <c r="P59" s="50"/>
+      <c r="Q59" s="50"/>
+      <c r="R59" s="50"/>
+      <c r="S59" s="50"/>
+      <c r="T59" s="50"/>
       <c r="U59" s="8"/>
-      <c r="V59" s="47"/>
-      <c r="W59" s="47"/>
-      <c r="X59" s="47"/>
+      <c r="V59" s="44"/>
+      <c r="W59" s="44"/>
+      <c r="X59" s="44"/>
       <c r="Y59" s="18"/>
       <c r="Z59" s="8"/>
       <c r="AA59" s="8" t="s">
@@ -5398,29 +5405,29 @@
       <c r="AK59" s="8"/>
     </row>
     <row r="60" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
       <c r="F60" s="8"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="47"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44"/>
       <c r="O60" s="8"/>
-      <c r="P60" s="38"/>
-      <c r="Q60" s="38"/>
-      <c r="R60" s="38"/>
-      <c r="S60" s="38"/>
-      <c r="T60" s="38"/>
+      <c r="P60" s="50"/>
+      <c r="Q60" s="50"/>
+      <c r="R60" s="50"/>
+      <c r="S60" s="50"/>
+      <c r="T60" s="50"/>
       <c r="U60" s="8"/>
-      <c r="V60" s="47"/>
-      <c r="W60" s="47"/>
-      <c r="X60" s="47"/>
+      <c r="V60" s="44"/>
+      <c r="W60" s="44"/>
+      <c r="X60" s="44"/>
       <c r="Y60" s="18"/>
       <c r="Z60" s="8"/>
       <c r="AA60" s="8" t="s">
@@ -5440,29 +5447,29 @@
       <c r="AK60" s="8"/>
     </row>
     <row r="61" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B61" s="47"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
       <c r="F61" s="8"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="47"/>
-      <c r="M61" s="47"/>
-      <c r="N61" s="47"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="44"/>
+      <c r="N61" s="44"/>
       <c r="O61" s="8"/>
-      <c r="P61" s="38"/>
-      <c r="Q61" s="38"/>
-      <c r="R61" s="38"/>
-      <c r="S61" s="38"/>
-      <c r="T61" s="38"/>
+      <c r="P61" s="50"/>
+      <c r="Q61" s="50"/>
+      <c r="R61" s="50"/>
+      <c r="S61" s="50"/>
+      <c r="T61" s="50"/>
       <c r="U61" s="8"/>
-      <c r="V61" s="47"/>
-      <c r="W61" s="47"/>
-      <c r="X61" s="47"/>
+      <c r="V61" s="44"/>
+      <c r="W61" s="44"/>
+      <c r="X61" s="44"/>
       <c r="Y61" s="18"/>
       <c r="Z61" s="8"/>
       <c r="AA61" s="8" t="s">
@@ -5482,29 +5489,29 @@
       <c r="AK61" s="8"/>
     </row>
     <row r="62" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B62" s="47"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
       <c r="F62" s="8"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="47"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="44"/>
       <c r="O62" s="8"/>
-      <c r="P62" s="38"/>
-      <c r="Q62" s="38"/>
-      <c r="R62" s="38"/>
-      <c r="S62" s="38"/>
-      <c r="T62" s="38"/>
+      <c r="P62" s="50"/>
+      <c r="Q62" s="50"/>
+      <c r="R62" s="50"/>
+      <c r="S62" s="50"/>
+      <c r="T62" s="50"/>
       <c r="U62" s="8"/>
-      <c r="V62" s="47"/>
-      <c r="W62" s="47"/>
-      <c r="X62" s="47"/>
+      <c r="V62" s="44"/>
+      <c r="W62" s="44"/>
+      <c r="X62" s="44"/>
       <c r="Y62" s="18"/>
       <c r="Z62" s="8"/>
       <c r="AA62" s="8" t="s">
@@ -5524,29 +5531,29 @@
       <c r="AK62" s="8"/>
     </row>
     <row r="63" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B63" s="47"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
       <c r="F63" s="8"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="47"/>
-      <c r="N63" s="47"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="44"/>
       <c r="O63" s="8"/>
-      <c r="P63" s="38"/>
-      <c r="Q63" s="38"/>
-      <c r="R63" s="38"/>
-      <c r="S63" s="38"/>
-      <c r="T63" s="38"/>
+      <c r="P63" s="50"/>
+      <c r="Q63" s="50"/>
+      <c r="R63" s="50"/>
+      <c r="S63" s="50"/>
+      <c r="T63" s="50"/>
       <c r="U63" s="8"/>
-      <c r="V63" s="47"/>
-      <c r="W63" s="47"/>
-      <c r="X63" s="47"/>
+      <c r="V63" s="44"/>
+      <c r="W63" s="44"/>
+      <c r="X63" s="44"/>
       <c r="Y63" s="18"/>
       <c r="Z63" s="8"/>
       <c r="AA63" s="8" t="s">
@@ -5566,29 +5573,29 @@
       <c r="AK63" s="8"/>
     </row>
     <row r="64" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B64" s="47"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
       <c r="F64" s="8"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
-      <c r="L64" s="47"/>
-      <c r="M64" s="47"/>
-      <c r="N64" s="47"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
       <c r="O64" s="8"/>
-      <c r="P64" s="38"/>
-      <c r="Q64" s="38"/>
-      <c r="R64" s="38"/>
-      <c r="S64" s="38"/>
-      <c r="T64" s="38"/>
+      <c r="P64" s="50"/>
+      <c r="Q64" s="50"/>
+      <c r="R64" s="50"/>
+      <c r="S64" s="50"/>
+      <c r="T64" s="50"/>
       <c r="U64" s="8"/>
-      <c r="V64" s="47"/>
-      <c r="W64" s="47"/>
-      <c r="X64" s="47"/>
+      <c r="V64" s="44"/>
+      <c r="W64" s="44"/>
+      <c r="X64" s="44"/>
       <c r="Y64" s="18"/>
       <c r="Z64" s="8"/>
       <c r="AA64" s="8" t="s">
@@ -5608,29 +5615,29 @@
       <c r="AK64" s="8"/>
     </row>
     <row r="65" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B65" s="47"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
       <c r="F65" s="8"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
-      <c r="M65" s="47"/>
-      <c r="N65" s="47"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
       <c r="O65" s="8"/>
-      <c r="P65" s="38"/>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="38"/>
-      <c r="S65" s="38"/>
-      <c r="T65" s="38"/>
+      <c r="P65" s="50"/>
+      <c r="Q65" s="50"/>
+      <c r="R65" s="50"/>
+      <c r="S65" s="50"/>
+      <c r="T65" s="50"/>
       <c r="U65" s="8"/>
-      <c r="V65" s="47"/>
-      <c r="W65" s="47"/>
-      <c r="X65" s="47"/>
+      <c r="V65" s="44"/>
+      <c r="W65" s="44"/>
+      <c r="X65" s="44"/>
       <c r="Y65" s="18"/>
       <c r="Z65" s="8"/>
       <c r="AA65" s="8" t="s">
@@ -5650,29 +5657,29 @@
       <c r="AK65" s="8"/>
     </row>
     <row r="66" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B66" s="47"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="47"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="47"/>
-      <c r="L66" s="47"/>
-      <c r="M66" s="47"/>
-      <c r="N66" s="47"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="44"/>
       <c r="O66" s="8"/>
-      <c r="P66" s="38"/>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="38"/>
-      <c r="S66" s="38"/>
-      <c r="T66" s="38"/>
+      <c r="P66" s="50"/>
+      <c r="Q66" s="50"/>
+      <c r="R66" s="50"/>
+      <c r="S66" s="50"/>
+      <c r="T66" s="50"/>
       <c r="U66" s="8"/>
-      <c r="V66" s="47"/>
-      <c r="W66" s="47"/>
-      <c r="X66" s="47"/>
+      <c r="V66" s="44"/>
+      <c r="W66" s="44"/>
+      <c r="X66" s="44"/>
       <c r="Y66" s="18"/>
       <c r="Z66" s="8"/>
       <c r="AA66" s="8" t="s">
@@ -5690,29 +5697,29 @@
       <c r="AK66" s="8"/>
     </row>
     <row r="67" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B67" s="47"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
       <c r="F67" s="8"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="47"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44"/>
       <c r="O67" s="8"/>
-      <c r="P67" s="38"/>
-      <c r="Q67" s="38"/>
-      <c r="R67" s="38"/>
-      <c r="S67" s="38"/>
-      <c r="T67" s="38"/>
+      <c r="P67" s="50"/>
+      <c r="Q67" s="50"/>
+      <c r="R67" s="50"/>
+      <c r="S67" s="50"/>
+      <c r="T67" s="50"/>
       <c r="U67" s="8"/>
-      <c r="V67" s="47"/>
-      <c r="W67" s="47"/>
-      <c r="X67" s="47"/>
+      <c r="V67" s="44"/>
+      <c r="W67" s="44"/>
+      <c r="X67" s="44"/>
       <c r="Y67" s="18"/>
       <c r="Z67" s="8"/>
       <c r="AA67" s="8" t="s">
@@ -5772,31 +5779,31 @@
       <c r="AK68" s="8"/>
     </row>
     <row r="69" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B69" s="48" t="s">
+      <c r="B69" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
       <c r="F69" s="8"/>
-      <c r="G69" s="48" t="s">
+      <c r="G69" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="H69" s="48"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="48"/>
-      <c r="L69" s="48"/>
-      <c r="M69" s="48"/>
-      <c r="N69" s="48"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="47"/>
       <c r="O69" s="8"/>
-      <c r="P69" s="48" t="s">
+      <c r="P69" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="Q69" s="48"/>
-      <c r="R69" s="48"/>
-      <c r="S69" s="48"/>
-      <c r="T69" s="48"/>
+      <c r="Q69" s="47"/>
+      <c r="R69" s="47"/>
+      <c r="S69" s="47"/>
+      <c r="T69" s="47"/>
       <c r="U69" s="8"/>
       <c r="V69" s="13"/>
       <c r="W69" s="13"/>
@@ -5818,31 +5825,31 @@
       <c r="AK69" s="8"/>
     </row>
     <row r="70" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="47" t="s">
+      <c r="B70" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
       <c r="F70" s="8"/>
-      <c r="G70" s="47" t="s">
+      <c r="G70" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="H70" s="47"/>
-      <c r="I70" s="47"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="47"/>
-      <c r="L70" s="47"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="47"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44"/>
       <c r="O70" s="8"/>
-      <c r="P70" s="47" t="s">
+      <c r="P70" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="Q70" s="47"/>
-      <c r="R70" s="47"/>
-      <c r="S70" s="47"/>
-      <c r="T70" s="47"/>
+      <c r="Q70" s="44"/>
+      <c r="R70" s="44"/>
+      <c r="S70" s="44"/>
+      <c r="T70" s="44"/>
       <c r="U70" s="8"/>
       <c r="V70" s="13"/>
       <c r="W70" s="13"/>
@@ -5864,25 +5871,25 @@
       <c r="AK70" s="8"/>
     </row>
     <row r="71" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B71" s="47"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
       <c r="F71" s="8"/>
-      <c r="G71" s="47"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="47"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="47"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
       <c r="O71" s="8"/>
-      <c r="P71" s="47"/>
-      <c r="Q71" s="47"/>
-      <c r="R71" s="47"/>
-      <c r="S71" s="47"/>
-      <c r="T71" s="47"/>
+      <c r="P71" s="44"/>
+      <c r="Q71" s="44"/>
+      <c r="R71" s="44"/>
+      <c r="S71" s="44"/>
+      <c r="T71" s="44"/>
       <c r="U71" s="8"/>
       <c r="V71" s="13"/>
       <c r="W71" s="13"/>
@@ -5904,25 +5911,25 @@
       <c r="AK71" s="8"/>
     </row>
     <row r="72" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B72" s="47"/>
-      <c r="C72" s="47"/>
-      <c r="D72" s="47"/>
-      <c r="E72" s="47"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
       <c r="F72" s="8"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="47"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
       <c r="O72" s="8"/>
-      <c r="P72" s="47"/>
-      <c r="Q72" s="47"/>
-      <c r="R72" s="47"/>
-      <c r="S72" s="47"/>
-      <c r="T72" s="47"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="44"/>
+      <c r="R72" s="44"/>
+      <c r="S72" s="44"/>
+      <c r="T72" s="44"/>
       <c r="U72" s="8"/>
       <c r="V72" s="13"/>
       <c r="W72" s="13"/>
@@ -5946,25 +5953,25 @@
       <c r="AK72" s="8"/>
     </row>
     <row r="73" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B73" s="47"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
       <c r="F73" s="8"/>
-      <c r="G73" s="47"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="47"/>
-      <c r="J73" s="47"/>
-      <c r="K73" s="47"/>
-      <c r="L73" s="47"/>
-      <c r="M73" s="47"/>
-      <c r="N73" s="47"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="44"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="44"/>
       <c r="O73" s="8"/>
-      <c r="P73" s="47"/>
-      <c r="Q73" s="47"/>
-      <c r="R73" s="47"/>
-      <c r="S73" s="47"/>
-      <c r="T73" s="47"/>
+      <c r="P73" s="44"/>
+      <c r="Q73" s="44"/>
+      <c r="R73" s="44"/>
+      <c r="S73" s="44"/>
+      <c r="T73" s="44"/>
       <c r="U73" s="8"/>
       <c r="V73" s="8"/>
       <c r="W73" s="8"/>
@@ -5988,25 +5995,25 @@
       <c r="AK73" s="8"/>
     </row>
     <row r="74" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B74" s="47"/>
-      <c r="C74" s="47"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
       <c r="F74" s="8"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="47"/>
-      <c r="J74" s="47"/>
-      <c r="K74" s="47"/>
-      <c r="L74" s="47"/>
-      <c r="M74" s="47"/>
-      <c r="N74" s="47"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="44"/>
       <c r="O74" s="8"/>
-      <c r="P74" s="47"/>
-      <c r="Q74" s="47"/>
-      <c r="R74" s="47"/>
-      <c r="S74" s="47"/>
-      <c r="T74" s="47"/>
+      <c r="P74" s="44"/>
+      <c r="Q74" s="44"/>
+      <c r="R74" s="44"/>
+      <c r="S74" s="44"/>
+      <c r="T74" s="44"/>
       <c r="U74" s="8"/>
       <c r="V74" s="8"/>
       <c r="W74" s="8"/>
@@ -6030,25 +6037,25 @@
       <c r="AK74" s="8"/>
     </row>
     <row r="75" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B75" s="47"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
       <c r="F75" s="8"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47"/>
-      <c r="J75" s="47"/>
-      <c r="K75" s="47"/>
-      <c r="L75" s="47"/>
-      <c r="M75" s="47"/>
-      <c r="N75" s="47"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="44"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="44"/>
       <c r="O75" s="8"/>
-      <c r="P75" s="47"/>
-      <c r="Q75" s="47"/>
-      <c r="R75" s="47"/>
-      <c r="S75" s="47"/>
-      <c r="T75" s="47"/>
+      <c r="P75" s="44"/>
+      <c r="Q75" s="44"/>
+      <c r="R75" s="44"/>
+      <c r="S75" s="44"/>
+      <c r="T75" s="44"/>
       <c r="U75" s="8"/>
       <c r="V75" s="8"/>
       <c r="W75" s="8"/>
@@ -6072,25 +6079,25 @@
       <c r="AK75" s="8"/>
     </row>
     <row r="76" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B76" s="47"/>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
       <c r="F76" s="8"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="47"/>
-      <c r="K76" s="47"/>
-      <c r="L76" s="47"/>
-      <c r="M76" s="47"/>
-      <c r="N76" s="47"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="44"/>
+      <c r="L76" s="44"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="44"/>
       <c r="O76" s="8"/>
-      <c r="P76" s="47"/>
-      <c r="Q76" s="47"/>
-      <c r="R76" s="47"/>
-      <c r="S76" s="47"/>
-      <c r="T76" s="47"/>
+      <c r="P76" s="44"/>
+      <c r="Q76" s="44"/>
+      <c r="R76" s="44"/>
+      <c r="S76" s="44"/>
+      <c r="T76" s="44"/>
       <c r="U76" s="8"/>
       <c r="V76" s="8"/>
       <c r="W76" s="8"/>
@@ -6114,25 +6121,25 @@
       <c r="AK76" s="8"/>
     </row>
     <row r="77" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B77" s="47"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
       <c r="F77" s="8"/>
-      <c r="G77" s="47"/>
-      <c r="H77" s="47"/>
-      <c r="I77" s="47"/>
-      <c r="J77" s="47"/>
-      <c r="K77" s="47"/>
-      <c r="L77" s="47"/>
-      <c r="M77" s="47"/>
-      <c r="N77" s="47"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="44"/>
       <c r="O77" s="8"/>
-      <c r="P77" s="47"/>
-      <c r="Q77" s="47"/>
-      <c r="R77" s="47"/>
-      <c r="S77" s="47"/>
-      <c r="T77" s="47"/>
+      <c r="P77" s="44"/>
+      <c r="Q77" s="44"/>
+      <c r="R77" s="44"/>
+      <c r="S77" s="44"/>
+      <c r="T77" s="44"/>
       <c r="U77" s="8"/>
       <c r="V77" s="8"/>
       <c r="W77" s="8"/>
@@ -6156,25 +6163,25 @@
       <c r="AK77" s="8"/>
     </row>
     <row r="78" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B78" s="47"/>
-      <c r="C78" s="47"/>
-      <c r="D78" s="47"/>
-      <c r="E78" s="47"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
       <c r="F78" s="8"/>
-      <c r="G78" s="47"/>
-      <c r="H78" s="47"/>
-      <c r="I78" s="47"/>
-      <c r="J78" s="47"/>
-      <c r="K78" s="47"/>
-      <c r="L78" s="47"/>
-      <c r="M78" s="47"/>
-      <c r="N78" s="47"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="44"/>
+      <c r="L78" s="44"/>
+      <c r="M78" s="44"/>
+      <c r="N78" s="44"/>
       <c r="O78" s="8"/>
-      <c r="P78" s="47"/>
-      <c r="Q78" s="47"/>
-      <c r="R78" s="47"/>
-      <c r="S78" s="47"/>
-      <c r="T78" s="47"/>
+      <c r="P78" s="44"/>
+      <c r="Q78" s="44"/>
+      <c r="R78" s="44"/>
+      <c r="S78" s="44"/>
+      <c r="T78" s="44"/>
       <c r="U78" s="8"/>
       <c r="V78" s="8"/>
       <c r="W78" s="8"/>
@@ -6212,11 +6219,11 @@
       <c r="M79" s="8"/>
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
-      <c r="P79" s="47"/>
-      <c r="Q79" s="47"/>
-      <c r="R79" s="47"/>
-      <c r="S79" s="47"/>
-      <c r="T79" s="47"/>
+      <c r="P79" s="44"/>
+      <c r="Q79" s="44"/>
+      <c r="R79" s="44"/>
+      <c r="S79" s="44"/>
+      <c r="T79" s="44"/>
       <c r="U79" s="8"/>
       <c r="V79" s="8"/>
       <c r="W79" s="8"/>
@@ -6254,11 +6261,11 @@
       <c r="M80" s="8"/>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
-      <c r="P80" s="47"/>
-      <c r="Q80" s="47"/>
-      <c r="R80" s="47"/>
-      <c r="S80" s="47"/>
-      <c r="T80" s="47"/>
+      <c r="P80" s="44"/>
+      <c r="Q80" s="44"/>
+      <c r="R80" s="44"/>
+      <c r="S80" s="44"/>
+      <c r="T80" s="44"/>
       <c r="U80" s="8"/>
       <c r="V80" s="8"/>
       <c r="W80" s="8"/>
@@ -6324,15 +6331,15 @@
       <c r="AK81" s="8"/>
     </row>
     <row r="82" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B82" s="37" t="s">
+      <c r="B82" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37" t="s">
+      <c r="C82" s="51"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="F82" s="37"/>
+      <c r="F82" s="51"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
@@ -6370,11 +6377,11 @@
       <c r="AK82" s="8"/>
     </row>
     <row r="83" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B83" s="37"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="51"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
@@ -6415,16 +6422,16 @@
       <c r="B84" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C84" s="52" t="e">
+      <c r="C84" s="36" t="e">
         <f>AG19</f>
         <v>#N/A</v>
       </c>
-      <c r="D84" s="53"/>
-      <c r="E84" s="54" t="e">
+      <c r="D84" s="37"/>
+      <c r="E84" s="35" t="e">
         <f>_xlfn.RANK.EQ(C84,$C$84:$D$98)</f>
         <v>#N/A</v>
       </c>
-      <c r="F84" s="54"/>
+      <c r="F84" s="35"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
@@ -6465,16 +6472,16 @@
       <c r="B85" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C85" s="52" t="e">
+      <c r="C85" s="36" t="e">
         <f t="shared" ref="C85:C98" si="2">AG20</f>
         <v>#N/A</v>
       </c>
-      <c r="D85" s="53"/>
-      <c r="E85" s="54" t="e">
+      <c r="D85" s="37"/>
+      <c r="E85" s="35" t="e">
         <f t="shared" ref="E85:E98" si="3">_xlfn.RANK.EQ(C85,$C$84:$D$98)</f>
         <v>#N/A</v>
       </c>
-      <c r="F85" s="54"/>
+      <c r="F85" s="35"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
@@ -6515,16 +6522,16 @@
       <c r="B86" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C86" s="52" t="e">
+      <c r="C86" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D86" s="53"/>
-      <c r="E86" s="54" t="e">
+      <c r="D86" s="37"/>
+      <c r="E86" s="35" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F86" s="54"/>
+      <c r="F86" s="35"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
@@ -6565,16 +6572,16 @@
       <c r="B87" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C87" s="52" t="e">
+      <c r="C87" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D87" s="53"/>
-      <c r="E87" s="54" t="e">
+      <c r="D87" s="37"/>
+      <c r="E87" s="35" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F87" s="54"/>
+      <c r="F87" s="35"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
@@ -6615,16 +6622,16 @@
       <c r="B88" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C88" s="52" t="e">
+      <c r="C88" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D88" s="53"/>
-      <c r="E88" s="54" t="e">
+      <c r="D88" s="37"/>
+      <c r="E88" s="35" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F88" s="54"/>
+      <c r="F88" s="35"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
@@ -6665,32 +6672,32 @@
       <c r="B89" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C89" s="52" t="e">
+      <c r="C89" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D89" s="53"/>
-      <c r="E89" s="54" t="e">
+      <c r="D89" s="37"/>
+      <c r="E89" s="35" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F89" s="54"/>
+      <c r="F89" s="35"/>
       <c r="G89" s="8"/>
-      <c r="H89" s="58" t="s">
+      <c r="H89" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="I89" s="59"/>
-      <c r="J89" s="59"/>
-      <c r="K89" s="59"/>
-      <c r="L89" s="59"/>
-      <c r="M89" s="59"/>
-      <c r="N89" s="59"/>
-      <c r="O89" s="59"/>
-      <c r="P89" s="59"/>
-      <c r="Q89" s="59"/>
-      <c r="R89" s="59"/>
-      <c r="S89" s="59"/>
-      <c r="T89" s="59"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="39"/>
+      <c r="L89" s="39"/>
+      <c r="M89" s="39"/>
+      <c r="N89" s="39"/>
+      <c r="O89" s="39"/>
+      <c r="P89" s="39"/>
+      <c r="Q89" s="39"/>
+      <c r="R89" s="39"/>
+      <c r="S89" s="39"/>
+      <c r="T89" s="39"/>
       <c r="U89" s="8"/>
       <c r="V89" s="8"/>
       <c r="W89" s="8"/>
@@ -6717,30 +6724,30 @@
       <c r="B90" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C90" s="52" t="e">
+      <c r="C90" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D90" s="53"/>
-      <c r="E90" s="54" t="e">
+      <c r="D90" s="37"/>
+      <c r="E90" s="35" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F90" s="54"/>
+      <c r="F90" s="35"/>
       <c r="G90" s="8"/>
-      <c r="H90" s="59"/>
-      <c r="I90" s="59"/>
-      <c r="J90" s="59"/>
-      <c r="K90" s="59"/>
-      <c r="L90" s="59"/>
-      <c r="M90" s="59"/>
-      <c r="N90" s="59"/>
-      <c r="O90" s="59"/>
-      <c r="P90" s="59"/>
-      <c r="Q90" s="59"/>
-      <c r="R90" s="59"/>
-      <c r="S90" s="59"/>
-      <c r="T90" s="59"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="39"/>
+      <c r="M90" s="39"/>
+      <c r="N90" s="39"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="39"/>
+      <c r="Q90" s="39"/>
+      <c r="R90" s="39"/>
+      <c r="S90" s="39"/>
+      <c r="T90" s="39"/>
       <c r="U90" s="8"/>
       <c r="V90" s="8"/>
       <c r="W90" s="8"/>
@@ -6767,30 +6774,30 @@
       <c r="B91" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C91" s="52" t="e">
+      <c r="C91" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D91" s="53"/>
-      <c r="E91" s="54" t="e">
+      <c r="D91" s="37"/>
+      <c r="E91" s="35" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F91" s="54"/>
+      <c r="F91" s="35"/>
       <c r="G91" s="8"/>
-      <c r="H91" s="59"/>
-      <c r="I91" s="59"/>
-      <c r="J91" s="59"/>
-      <c r="K91" s="59"/>
-      <c r="L91" s="59"/>
-      <c r="M91" s="59"/>
-      <c r="N91" s="59"/>
-      <c r="O91" s="59"/>
-      <c r="P91" s="59"/>
-      <c r="Q91" s="59"/>
-      <c r="R91" s="59"/>
-      <c r="S91" s="59"/>
-      <c r="T91" s="59"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="39"/>
+      <c r="L91" s="39"/>
+      <c r="M91" s="39"/>
+      <c r="N91" s="39"/>
+      <c r="O91" s="39"/>
+      <c r="P91" s="39"/>
+      <c r="Q91" s="39"/>
+      <c r="R91" s="39"/>
+      <c r="S91" s="39"/>
+      <c r="T91" s="39"/>
       <c r="U91" s="8"/>
       <c r="V91" s="8"/>
       <c r="W91" s="8"/>
@@ -6817,30 +6824,30 @@
       <c r="B92" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C92" s="52" t="e">
+      <c r="C92" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D92" s="53"/>
-      <c r="E92" s="54" t="e">
+      <c r="D92" s="37"/>
+      <c r="E92" s="35" t="e">
         <f>_xlfn.RANK.EQ(C92,$C$84:$D$98)</f>
         <v>#N/A</v>
       </c>
-      <c r="F92" s="54"/>
+      <c r="F92" s="35"/>
       <c r="G92" s="8"/>
-      <c r="H92" s="59"/>
-      <c r="I92" s="59"/>
-      <c r="J92" s="59"/>
-      <c r="K92" s="59"/>
-      <c r="L92" s="59"/>
-      <c r="M92" s="59"/>
-      <c r="N92" s="59"/>
-      <c r="O92" s="59"/>
-      <c r="P92" s="59"/>
-      <c r="Q92" s="59"/>
-      <c r="R92" s="59"/>
-      <c r="S92" s="59"/>
-      <c r="T92" s="59"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="39"/>
+      <c r="L92" s="39"/>
+      <c r="M92" s="39"/>
+      <c r="N92" s="39"/>
+      <c r="O92" s="39"/>
+      <c r="P92" s="39"/>
+      <c r="Q92" s="39"/>
+      <c r="R92" s="39"/>
+      <c r="S92" s="39"/>
+      <c r="T92" s="39"/>
       <c r="U92" s="8"/>
       <c r="V92" s="8"/>
       <c r="W92" s="8"/>
@@ -6867,30 +6874,30 @@
       <c r="B93" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C93" s="52" t="e">
+      <c r="C93" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D93" s="53"/>
-      <c r="E93" s="54" t="e">
+      <c r="D93" s="37"/>
+      <c r="E93" s="35" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F93" s="54"/>
+      <c r="F93" s="35"/>
       <c r="G93" s="8"/>
-      <c r="H93" s="59"/>
-      <c r="I93" s="59"/>
-      <c r="J93" s="59"/>
-      <c r="K93" s="59"/>
-      <c r="L93" s="59"/>
-      <c r="M93" s="59"/>
-      <c r="N93" s="59"/>
-      <c r="O93" s="59"/>
-      <c r="P93" s="59"/>
-      <c r="Q93" s="59"/>
-      <c r="R93" s="59"/>
-      <c r="S93" s="59"/>
-      <c r="T93" s="59"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="39"/>
+      <c r="L93" s="39"/>
+      <c r="M93" s="39"/>
+      <c r="N93" s="39"/>
+      <c r="O93" s="39"/>
+      <c r="P93" s="39"/>
+      <c r="Q93" s="39"/>
+      <c r="R93" s="39"/>
+      <c r="S93" s="39"/>
+      <c r="T93" s="39"/>
       <c r="U93" s="8"/>
       <c r="V93" s="8"/>
       <c r="W93" s="8"/>
@@ -6917,30 +6924,30 @@
       <c r="B94" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C94" s="52" t="e">
+      <c r="C94" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D94" s="53"/>
-      <c r="E94" s="54" t="e">
+      <c r="D94" s="37"/>
+      <c r="E94" s="35" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F94" s="54"/>
+      <c r="F94" s="35"/>
       <c r="G94" s="8"/>
-      <c r="H94" s="59"/>
-      <c r="I94" s="59"/>
-      <c r="J94" s="59"/>
-      <c r="K94" s="59"/>
-      <c r="L94" s="59"/>
-      <c r="M94" s="59"/>
-      <c r="N94" s="59"/>
-      <c r="O94" s="59"/>
-      <c r="P94" s="59"/>
-      <c r="Q94" s="59"/>
-      <c r="R94" s="59"/>
-      <c r="S94" s="59"/>
-      <c r="T94" s="59"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="39"/>
+      <c r="L94" s="39"/>
+      <c r="M94" s="39"/>
+      <c r="N94" s="39"/>
+      <c r="O94" s="39"/>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39"/>
+      <c r="R94" s="39"/>
+      <c r="S94" s="39"/>
+      <c r="T94" s="39"/>
       <c r="U94" s="8"/>
       <c r="V94" s="8"/>
       <c r="W94" s="8"/>
@@ -6967,30 +6974,30 @@
       <c r="B95" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C95" s="52" t="e">
+      <c r="C95" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D95" s="53"/>
-      <c r="E95" s="54" t="e">
+      <c r="D95" s="37"/>
+      <c r="E95" s="35" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F95" s="54"/>
+      <c r="F95" s="35"/>
       <c r="G95" s="8"/>
-      <c r="H95" s="59"/>
-      <c r="I95" s="59"/>
-      <c r="J95" s="59"/>
-      <c r="K95" s="59"/>
-      <c r="L95" s="59"/>
-      <c r="M95" s="59"/>
-      <c r="N95" s="59"/>
-      <c r="O95" s="59"/>
-      <c r="P95" s="59"/>
-      <c r="Q95" s="59"/>
-      <c r="R95" s="59"/>
-      <c r="S95" s="59"/>
-      <c r="T95" s="59"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="39"/>
+      <c r="L95" s="39"/>
+      <c r="M95" s="39"/>
+      <c r="N95" s="39"/>
+      <c r="O95" s="39"/>
+      <c r="P95" s="39"/>
+      <c r="Q95" s="39"/>
+      <c r="R95" s="39"/>
+      <c r="S95" s="39"/>
+      <c r="T95" s="39"/>
       <c r="U95" s="8"/>
       <c r="V95" s="8"/>
       <c r="W95" s="8"/>
@@ -7017,16 +7024,16 @@
       <c r="B96" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C96" s="52" t="e">
+      <c r="C96" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D96" s="53"/>
-      <c r="E96" s="54" t="e">
+      <c r="D96" s="37"/>
+      <c r="E96" s="35" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F96" s="54"/>
+      <c r="F96" s="35"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
@@ -7067,16 +7074,16 @@
       <c r="B97" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C97" s="52" t="e">
+      <c r="C97" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D97" s="53"/>
-      <c r="E97" s="54" t="e">
+      <c r="D97" s="37"/>
+      <c r="E97" s="35" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F97" s="54"/>
+      <c r="F97" s="35"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
@@ -7117,19 +7124,19 @@
       <c r="B98" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C98" s="52" t="e">
+      <c r="C98" s="36" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="D98" s="53"/>
-      <c r="E98" s="54" t="e">
+      <c r="D98" s="37"/>
+      <c r="E98" s="35" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="F98" s="54"/>
+      <c r="F98" s="35"/>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
-      <c r="I98" s="60" t="s">
+      <c r="I98" s="40" t="s">
         <v>140</v>
       </c>
       <c r="J98" s="41"/>
@@ -7300,19 +7307,19 @@
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
-      <c r="J102" s="61" t="s">
+      <c r="J102" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="K102" s="62"/>
-      <c r="L102" s="62"/>
-      <c r="M102" s="62"/>
-      <c r="N102" s="62"/>
-      <c r="O102" s="62"/>
-      <c r="P102" s="62"/>
-      <c r="Q102" s="62"/>
-      <c r="R102" s="62"/>
-      <c r="S102" s="62"/>
-      <c r="T102" s="62"/>
+      <c r="K102" s="43"/>
+      <c r="L102" s="43"/>
+      <c r="M102" s="43"/>
+      <c r="N102" s="43"/>
+      <c r="O102" s="43"/>
+      <c r="P102" s="43"/>
+      <c r="Q102" s="43"/>
+      <c r="R102" s="43"/>
+      <c r="S102" s="43"/>
+      <c r="T102" s="43"/>
       <c r="U102" s="8"/>
       <c r="V102" s="8"/>
       <c r="W102" s="8"/>
@@ -7344,17 +7351,17 @@
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
-      <c r="J103" s="62"/>
-      <c r="K103" s="62"/>
-      <c r="L103" s="62"/>
-      <c r="M103" s="62"/>
-      <c r="N103" s="62"/>
-      <c r="O103" s="62"/>
-      <c r="P103" s="62"/>
-      <c r="Q103" s="62"/>
-      <c r="R103" s="62"/>
-      <c r="S103" s="62"/>
-      <c r="T103" s="62"/>
+      <c r="J103" s="43"/>
+      <c r="K103" s="43"/>
+      <c r="L103" s="43"/>
+      <c r="M103" s="43"/>
+      <c r="N103" s="43"/>
+      <c r="O103" s="43"/>
+      <c r="P103" s="43"/>
+      <c r="Q103" s="43"/>
+      <c r="R103" s="43"/>
+      <c r="S103" s="43"/>
+      <c r="T103" s="43"/>
       <c r="U103" s="8"/>
       <c r="V103" s="8"/>
       <c r="W103" s="8"/>
@@ -7386,17 +7393,17 @@
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
-      <c r="J104" s="62"/>
-      <c r="K104" s="62"/>
-      <c r="L104" s="62"/>
-      <c r="M104" s="62"/>
-      <c r="N104" s="62"/>
-      <c r="O104" s="62"/>
-      <c r="P104" s="62"/>
-      <c r="Q104" s="62"/>
-      <c r="R104" s="62"/>
-      <c r="S104" s="62"/>
-      <c r="T104" s="62"/>
+      <c r="J104" s="43"/>
+      <c r="K104" s="43"/>
+      <c r="L104" s="43"/>
+      <c r="M104" s="43"/>
+      <c r="N104" s="43"/>
+      <c r="O104" s="43"/>
+      <c r="P104" s="43"/>
+      <c r="Q104" s="43"/>
+      <c r="R104" s="43"/>
+      <c r="S104" s="43"/>
+      <c r="T104" s="43"/>
       <c r="U104" s="8"/>
       <c r="V104" s="8"/>
       <c r="W104" s="8"/>
@@ -8160,14 +8167,64 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="S26:W28"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="B5:X7"/>
+    <mergeCell ref="B1:X2"/>
+    <mergeCell ref="B4:X4"/>
+    <mergeCell ref="B8:X8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B9:X10"/>
+    <mergeCell ref="B11:X12"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B13:X14"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="B34:T35"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G40:N40"/>
+    <mergeCell ref="G39:N39"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="B57:E67"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="G69:N69"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="B70:E78"/>
+    <mergeCell ref="G70:N78"/>
+    <mergeCell ref="P57:T67"/>
+    <mergeCell ref="G57:N67"/>
+    <mergeCell ref="P70:T80"/>
+    <mergeCell ref="B82:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E82:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="P56:T56"/>
+    <mergeCell ref="V57:X67"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="V43:X51"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="Q43:T52"/>
+    <mergeCell ref="B43:E54"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="G43:N54"/>
+    <mergeCell ref="G42:N42"/>
+    <mergeCell ref="G56:N56"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="H89:T95"/>
     <mergeCell ref="I98:T101"/>
@@ -8184,64 +8241,14 @@
     <mergeCell ref="E94:F94"/>
     <mergeCell ref="E95:F95"/>
     <mergeCell ref="E96:F96"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="B43:E54"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="G43:N54"/>
-    <mergeCell ref="G42:N42"/>
-    <mergeCell ref="G56:N56"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="P56:T56"/>
-    <mergeCell ref="V57:X67"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="V43:X51"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="Q43:T52"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="B57:E67"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="G69:N69"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="B70:E78"/>
-    <mergeCell ref="G70:N78"/>
-    <mergeCell ref="P57:T67"/>
-    <mergeCell ref="G57:N67"/>
-    <mergeCell ref="P70:T80"/>
-    <mergeCell ref="B82:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E82:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="B34:T35"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="G40:N40"/>
-    <mergeCell ref="G39:N39"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="S26:W28"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="B5:X7"/>
-    <mergeCell ref="B1:X2"/>
-    <mergeCell ref="B4:X4"/>
-    <mergeCell ref="B8:X8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B9:X10"/>
-    <mergeCell ref="B11:X12"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B13:X14"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
   </mergeCells>
   <conditionalFormatting sqref="C84:D98">
     <cfRule type="colorScale" priority="1">
@@ -8680,10 +8687,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD34DB8-C9A5-4D57-A0EC-7EAD29CA4537}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8759,740 +8766,805 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="63" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="64">
+        <f>5 + ((B3-MIN($B$3:$P$3))*(15-5))/(MAX($B$3:$P$3)-MIN($B$3:$P$3))</f>
+        <v>9.4557861709601685</v>
+      </c>
+      <c r="C2" s="64">
+        <f t="shared" ref="C2:P2" si="0">5 + ((C3-MIN($B$3:$P$3))*(15-5))/(MAX($B$3:$P$3)-MIN($B$3:$P$3))</f>
+        <v>15</v>
+      </c>
+      <c r="D2" s="64">
+        <f t="shared" si="0"/>
+        <v>11.469506836872245</v>
+      </c>
+      <c r="E2" s="64">
+        <f t="shared" si="0"/>
+        <v>10.169609464178087</v>
+      </c>
+      <c r="F2" s="64">
+        <f t="shared" si="0"/>
+        <v>9.7210978094590068</v>
+      </c>
+      <c r="G2" s="64">
+        <f t="shared" si="0"/>
+        <v>7.1774805483888393</v>
+      </c>
+      <c r="H2" s="64">
+        <f t="shared" si="0"/>
+        <v>8.9727029883079723</v>
+      </c>
+      <c r="I2" s="64">
+        <f t="shared" si="0"/>
+        <v>10.792413100884795</v>
+      </c>
+      <c r="J2" s="64">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K2" s="64">
+        <f t="shared" si="0"/>
+        <v>9.9235695652505278</v>
+      </c>
+      <c r="L2" s="64">
+        <f t="shared" si="0"/>
+        <v>8.6449176297522889</v>
+      </c>
+      <c r="M2" s="64">
+        <f t="shared" si="0"/>
+        <v>7.5017555352757821</v>
+      </c>
+      <c r="N2" s="64">
+        <f t="shared" si="0"/>
+        <v>10.902155315750552</v>
+      </c>
+      <c r="O2" s="64">
+        <f t="shared" si="0"/>
+        <v>11.748408394102547</v>
+      </c>
+      <c r="P2" s="64">
+        <f t="shared" si="0"/>
+        <v>10.188699415415023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="29">
-        <f>AVERAGE(B4:B51)</f>
+      <c r="B3" s="29">
+        <f>AVERAGE(B5:B52)</f>
         <v>6.4976525541150787</v>
       </c>
-      <c r="C2" s="29">
-        <f>AVERAGE(C4:C51)</f>
+      <c r="C3" s="29">
+        <f>AVERAGE(C5:C52)</f>
         <v>9.4069577065119052</v>
       </c>
-      <c r="D2" s="29">
-        <f t="shared" ref="D2:P2" si="0">AVERAGE(D4:D51)</f>
+      <c r="D3" s="29">
+        <f t="shared" ref="D3:P3" si="1">AVERAGE(D5:D52)</f>
         <v>7.5543448263611106</v>
       </c>
-      <c r="E2" s="29">
-        <f t="shared" si="0"/>
+      <c r="E3" s="29">
+        <f t="shared" si="1"/>
         <v>6.8722286164563497</v>
       </c>
-      <c r="F2" s="29">
-        <f t="shared" si="0"/>
+      <c r="F3" s="29">
+        <f t="shared" si="1"/>
         <v>6.6368738288849203</v>
       </c>
-      <c r="G2" s="29">
-        <f t="shared" si="0"/>
+      <c r="G3" s="29">
+        <f t="shared" si="1"/>
         <v>5.3021203306349207</v>
       </c>
-      <c r="H2" s="29">
-        <f t="shared" si="0"/>
+      <c r="H3" s="29">
+        <f t="shared" si="1"/>
         <v>6.2441564885476195</v>
       </c>
-      <c r="I2" s="29">
-        <f t="shared" si="0"/>
+      <c r="I3" s="29">
+        <f t="shared" si="1"/>
         <v>7.1990424596944456</v>
       </c>
-      <c r="J2" s="29">
-        <f t="shared" si="0"/>
+      <c r="J3" s="29">
+        <f t="shared" si="1"/>
         <v>4.1594956819444446</v>
       </c>
-      <c r="K2" s="29">
-        <f t="shared" si="0"/>
+      <c r="K3" s="29">
+        <f t="shared" si="1"/>
         <v>6.7431201138412709</v>
       </c>
-      <c r="L2" s="29">
-        <f t="shared" si="0"/>
+      <c r="L3" s="29">
+        <f t="shared" si="1"/>
         <v>6.0721523664246027</v>
       </c>
-      <c r="M2" s="29">
-        <f t="shared" si="0"/>
+      <c r="M3" s="29">
+        <f t="shared" si="1"/>
         <v>5.4722823985555555</v>
       </c>
-      <c r="N2" s="29">
-        <f t="shared" si="0"/>
+      <c r="N3" s="29">
+        <f t="shared" si="1"/>
         <v>7.2566292701944439</v>
       </c>
-      <c r="O2" s="29">
-        <f t="shared" si="0"/>
+      <c r="O3" s="29">
+        <f t="shared" si="1"/>
         <v>7.700697359376985</v>
       </c>
-      <c r="P2" s="30">
-        <f t="shared" si="0"/>
+      <c r="P3" s="30">
+        <f t="shared" si="1"/>
         <v>6.8822459958730162</v>
       </c>
-      <c r="Q2" s="23"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="Q3" s="23"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="32">
-        <f>RANK(B2,$B$2:$P$2)</f>
+      <c r="B4" s="32">
+        <f>RANK(B3,$B$3:$P$3)</f>
         <v>10</v>
       </c>
-      <c r="C3" s="32">
-        <f>RANK(C2,$B$2:$P$2)</f>
+      <c r="C4" s="32">
+        <f>RANK(C3,$B$3:$P$3)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="32">
-        <f t="shared" ref="D3:P3" si="1">RANK(D2,$B$2:$P$2)</f>
+      <c r="D4" s="32">
+        <f t="shared" ref="D4:P4" si="2">RANK(D3,$B$3:$P$3)</f>
         <v>3</v>
       </c>
-      <c r="E3" s="32">
-        <f t="shared" si="1"/>
+      <c r="E4" s="32">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F3" s="32">
-        <f t="shared" si="1"/>
+      <c r="F4" s="32">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G3" s="32">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="H3" s="32">
-        <f t="shared" si="1"/>
+      <c r="G4" s="32">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="H4" s="32">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I3" s="32">
-        <f t="shared" si="1"/>
+      <c r="I4" s="32">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J3" s="32">
-        <f t="shared" si="1"/>
+      <c r="J4" s="32">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="K3" s="32">
-        <f t="shared" si="1"/>
+      <c r="K4" s="32">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L3" s="32">
-        <f t="shared" si="1"/>
+      <c r="L4" s="32">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="M3" s="32">
-        <f t="shared" si="1"/>
+      <c r="M4" s="32">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="N3" s="32">
-        <f t="shared" si="1"/>
+      <c r="N4" s="32">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="O3" s="32">
-        <f>RANK(O2,$B$2:$P$2)</f>
+      <c r="O4" s="32">
+        <f>RANK(O3,$B$3:$P$3)</f>
         <v>2</v>
       </c>
-      <c r="P3" s="33">
-        <f t="shared" si="1"/>
+      <c r="P4" s="33">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="Q4" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="R3" s="23">
-        <f>SUM(B2:P2)</f>
+      <c r="R4" s="23">
+        <f>SUM(B3:P3)</f>
         <v>99.999999997416666</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="B4" s="24">
-        <v>5.9523809523809526</v>
-      </c>
-      <c r="C4" s="23">
-        <v>7.8571428571428568</v>
-      </c>
-      <c r="D4" s="23">
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="E4" s="23">
-        <v>6.1904761904761907</v>
-      </c>
-      <c r="F4" s="23">
-        <v>9.0476190476190474</v>
-      </c>
-      <c r="G4" s="23">
-        <v>4.0476190476190474</v>
-      </c>
-      <c r="H4" s="23">
-        <v>6.4285714285714288</v>
-      </c>
-      <c r="I4" s="23">
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="J4" s="23">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="K4" s="23">
-        <v>5.2380952380952381</v>
-      </c>
-      <c r="L4" s="23">
-        <v>5.2380952380952381</v>
-      </c>
-      <c r="M4" s="23">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="N4" s="23">
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="O4" s="23">
-        <v>8.8095238095238102</v>
-      </c>
-      <c r="P4" s="23">
-        <v>6.1904761904761907</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B5" s="24">
-        <v>6.6666666699999997</v>
+        <v>5.9523809523809526</v>
       </c>
       <c r="C5" s="23">
-        <v>9.7619047600000002</v>
+        <v>7.8571428571428568</v>
       </c>
       <c r="D5" s="23">
-        <v>8.0952380999999995</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="E5" s="23">
-        <v>5.9523809500000002</v>
+        <v>6.1904761904761907</v>
       </c>
       <c r="F5" s="23">
-        <v>7.1428571400000003</v>
+        <v>9.0476190476190474</v>
       </c>
       <c r="G5" s="23">
-        <v>4.7619047600000002</v>
+        <v>4.0476190476190474</v>
       </c>
       <c r="H5" s="23">
-        <v>5.7142857100000004</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="I5" s="23">
-        <v>6.19047619</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="J5" s="23">
-        <v>3.80952381</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="K5" s="23">
-        <v>7.1428571400000003</v>
+        <v>5.2380952380952381</v>
       </c>
       <c r="L5" s="23">
-        <v>5.2380952399999998</v>
+        <v>5.2380952380952381</v>
       </c>
       <c r="M5" s="23">
-        <v>5.4761904799999996</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="N5" s="23">
-        <v>8.0952380999999995</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="O5" s="23">
-        <v>8.3333333300000003</v>
+        <v>8.8095238095238102</v>
       </c>
       <c r="P5" s="23">
-        <v>7.6190476199999999</v>
+        <v>6.1904761904761907</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B6" s="24">
-        <v>6.6666666670000003</v>
+        <v>6.6666666699999997</v>
       </c>
       <c r="C6" s="23">
-        <v>8.5714285710000002</v>
+        <v>9.7619047600000002</v>
       </c>
       <c r="D6" s="23">
-        <v>7.1428571429999996</v>
+        <v>8.0952380999999995</v>
       </c>
       <c r="E6" s="23">
-        <v>6.6666666670000003</v>
+        <v>5.9523809500000002</v>
       </c>
       <c r="F6" s="23">
-        <v>6.4285714289999998</v>
+        <v>7.1428571400000003</v>
       </c>
       <c r="G6" s="23">
-        <v>5</v>
+        <v>4.7619047600000002</v>
       </c>
       <c r="H6" s="23">
-        <v>5.7142857139999998</v>
+        <v>5.7142857100000004</v>
       </c>
       <c r="I6" s="23">
-        <v>8.3333333330000006</v>
+        <v>6.19047619</v>
       </c>
       <c r="J6" s="23">
-        <v>6.19047619</v>
+        <v>3.80952381</v>
       </c>
       <c r="K6" s="23">
-        <v>5.2380952379999997</v>
+        <v>7.1428571400000003</v>
       </c>
       <c r="L6" s="23">
-        <v>6.4285714289999998</v>
+        <v>5.2380952399999998</v>
       </c>
       <c r="M6" s="23">
-        <v>5.4761904760000002</v>
+        <v>5.4761904799999996</v>
       </c>
       <c r="N6" s="23">
-        <v>7.6190476189999998</v>
+        <v>8.0952380999999995</v>
       </c>
       <c r="O6" s="23">
-        <v>8.3333333330000006</v>
+        <v>8.3333333300000003</v>
       </c>
       <c r="P6" s="23">
-        <v>6.19047619</v>
+        <v>7.6190476199999999</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B7" s="24">
-        <v>5.7279236300000003</v>
+        <v>6.6666666670000003</v>
       </c>
       <c r="C7" s="23">
-        <v>9.7852028600000001</v>
+        <v>8.5714285710000002</v>
       </c>
       <c r="D7" s="23">
-        <v>7.3985680199999999</v>
+        <v>7.1428571429999996</v>
       </c>
       <c r="E7" s="23">
-        <v>5.0119331699999998</v>
+        <v>6.6666666670000003</v>
       </c>
       <c r="F7" s="23">
-        <v>8.5918854400000004</v>
+        <v>6.4285714289999998</v>
       </c>
       <c r="G7" s="23">
-        <v>4.5346062099999997</v>
+        <v>5</v>
       </c>
       <c r="H7" s="23">
-        <v>4.7732696900000002</v>
+        <v>5.7142857139999998</v>
       </c>
       <c r="I7" s="23">
-        <v>6.9212410499999999</v>
+        <v>8.3333333330000006</v>
       </c>
       <c r="J7" s="23">
-        <v>3.3412887800000002</v>
+        <v>6.19047619</v>
       </c>
       <c r="K7" s="23">
-        <v>8.1145584700000004</v>
+        <v>5.2380952379999997</v>
       </c>
       <c r="L7" s="23">
-        <v>7.3985680199999999</v>
+        <v>6.4285714289999998</v>
       </c>
       <c r="M7" s="23">
-        <v>8.5918854400000004</v>
+        <v>5.4761904760000002</v>
       </c>
       <c r="N7" s="23">
-        <v>5.0119331699999998</v>
+        <v>7.6190476189999998</v>
       </c>
       <c r="O7" s="23">
-        <v>5.4892601399999998</v>
+        <v>8.3333333330000006</v>
       </c>
       <c r="P7" s="23">
-        <v>9.30787589</v>
+        <v>6.19047619</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B8" s="24">
-        <v>3.8186157500000002</v>
+        <v>5.7279236300000003</v>
       </c>
       <c r="C8" s="23">
         <v>9.7852028600000001</v>
       </c>
       <c r="D8" s="23">
-        <v>8.1145584700000004</v>
+        <v>7.3985680199999999</v>
       </c>
       <c r="E8" s="23">
-        <v>4.7732696900000002</v>
+        <v>5.0119331699999998</v>
       </c>
       <c r="F8" s="23">
         <v>8.5918854400000004</v>
       </c>
       <c r="G8" s="23">
-        <v>5.9665871099999999</v>
+        <v>4.5346062099999997</v>
       </c>
       <c r="H8" s="23">
-        <v>5.7279236300000003</v>
+        <v>4.7732696900000002</v>
       </c>
       <c r="I8" s="23">
-        <v>6.2052506000000003</v>
+        <v>6.9212410499999999</v>
       </c>
       <c r="J8" s="23">
-        <v>3.8186157500000002</v>
+        <v>3.3412887800000002</v>
       </c>
       <c r="K8" s="23">
-        <v>7.8758949899999999</v>
+        <v>8.1145584700000004</v>
       </c>
       <c r="L8" s="23">
+        <v>7.3985680199999999</v>
+      </c>
+      <c r="M8" s="23">
+        <v>8.5918854400000004</v>
+      </c>
+      <c r="N8" s="23">
+        <v>5.0119331699999998</v>
+      </c>
+      <c r="O8" s="23">
         <v>5.4892601399999998</v>
       </c>
-      <c r="M8" s="23">
-        <v>5.2505966600000002</v>
-      </c>
-      <c r="N8" s="23">
-        <v>8.1145584700000004</v>
-      </c>
-      <c r="O8" s="23">
-        <v>8.3532219600000008</v>
-      </c>
       <c r="P8" s="23">
-        <v>8.1145584700000004</v>
+        <v>9.30787589</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B9" s="24">
-        <v>5.4761904799999996</v>
+        <v>3.8186157500000002</v>
       </c>
       <c r="C9" s="23">
-        <v>9.7619047600000002</v>
+        <v>9.7852028600000001</v>
       </c>
       <c r="D9" s="23">
-        <v>9.7619047600000002</v>
+        <v>8.1145584700000004</v>
       </c>
       <c r="E9" s="23">
-        <v>5.7142857100000004</v>
+        <v>4.7732696900000002</v>
       </c>
       <c r="F9" s="23">
-        <v>5.7142857100000004</v>
+        <v>8.5918854400000004</v>
       </c>
       <c r="G9" s="23">
-        <v>3.80952381</v>
+        <v>5.9665871099999999</v>
       </c>
       <c r="H9" s="23">
-        <v>6.4285714299999999</v>
+        <v>5.7279236300000003</v>
       </c>
       <c r="I9" s="23">
-        <v>7.6190476199999999</v>
+        <v>6.2052506000000003</v>
       </c>
       <c r="J9" s="23">
-        <v>3.5714285700000001</v>
+        <v>3.8186157500000002</v>
       </c>
       <c r="K9" s="23">
-        <v>5.9523809500000002</v>
+        <v>7.8758949899999999</v>
       </c>
       <c r="L9" s="23">
-        <v>7.8571428599999997</v>
+        <v>5.4892601399999998</v>
       </c>
       <c r="M9" s="23">
-        <v>6.19047619</v>
+        <v>5.2505966600000002</v>
       </c>
       <c r="N9" s="23">
-        <v>7.3809523800000001</v>
+        <v>8.1145584700000004</v>
       </c>
       <c r="O9" s="23">
-        <v>9.0476190499999998</v>
+        <v>8.3532219600000008</v>
       </c>
       <c r="P9" s="23">
-        <v>5.7142857100000004</v>
+        <v>8.1145584700000004</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B10" s="24">
-        <v>7.2857142899999996</v>
+        <v>5.4761904799999996</v>
       </c>
       <c r="C10" s="23">
-        <v>9.0952380999999995</v>
+        <v>9.7619047600000002</v>
       </c>
       <c r="D10" s="23">
-        <v>9</v>
+        <v>9.7619047600000002</v>
       </c>
       <c r="E10" s="23">
-        <v>7.7380952399999998</v>
+        <v>5.7142857100000004</v>
       </c>
       <c r="F10" s="23">
-        <v>7.7380952399999998</v>
+        <v>5.7142857100000004</v>
       </c>
       <c r="G10" s="23">
-        <v>5.0714285700000001</v>
+        <v>3.80952381</v>
       </c>
       <c r="H10" s="23">
-        <v>6.1428571400000003</v>
+        <v>6.4285714299999999</v>
       </c>
       <c r="I10" s="23">
-        <v>6.6428571400000003</v>
+        <v>7.6190476199999999</v>
       </c>
       <c r="J10" s="23">
-        <v>4.2142857100000004</v>
+        <v>3.5714285700000001</v>
       </c>
       <c r="K10" s="23">
-        <v>7.1190476199999999</v>
+        <v>5.9523809500000002</v>
       </c>
       <c r="L10" s="23">
-        <v>4.7857142899999996</v>
+        <v>7.8571428599999997</v>
       </c>
       <c r="M10" s="23">
-        <v>4.9523809500000002</v>
+        <v>6.19047619</v>
       </c>
       <c r="N10" s="23">
-        <v>7.5714285700000001</v>
+        <v>7.3809523800000001</v>
       </c>
       <c r="O10" s="23">
-        <v>6.7142857100000004</v>
+        <v>9.0476190499999998</v>
       </c>
       <c r="P10" s="23">
-        <v>5.9285714299999999</v>
+        <v>5.7142857100000004</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B11" s="24">
-        <v>8.0952380999999995</v>
+        <v>7.2857142899999996</v>
       </c>
       <c r="C11" s="23">
-        <v>10</v>
+        <v>9.0952380999999995</v>
       </c>
       <c r="D11" s="23">
-        <v>7.8571428599999997</v>
+        <v>9</v>
       </c>
       <c r="E11" s="23">
-        <v>8.3333333300000003</v>
+        <v>7.7380952399999998</v>
       </c>
       <c r="F11" s="23">
-        <v>5</v>
+        <v>7.7380952399999998</v>
       </c>
       <c r="G11" s="23">
-        <v>4.5238095200000004</v>
+        <v>5.0714285700000001</v>
       </c>
       <c r="H11" s="23">
-        <v>6.4285714299999999</v>
+        <v>6.1428571400000003</v>
       </c>
       <c r="I11" s="23">
-        <v>8.3333333300000003</v>
+        <v>6.6428571400000003</v>
       </c>
       <c r="J11" s="23">
-        <v>3.3333333299999999</v>
+        <v>4.2142857100000004</v>
       </c>
       <c r="K11" s="23">
-        <v>8.0952380999999995</v>
+        <v>7.1190476199999999</v>
       </c>
       <c r="L11" s="23">
-        <v>5.9523809500000002</v>
+        <v>4.7857142899999996</v>
       </c>
       <c r="M11" s="23">
-        <v>5.4761904799999996</v>
+        <v>4.9523809500000002</v>
       </c>
       <c r="N11" s="23">
-        <v>8.3333333300000003</v>
+        <v>7.5714285700000001</v>
       </c>
       <c r="O11" s="23">
-        <v>5.2380952399999998</v>
+        <v>6.7142857100000004</v>
       </c>
       <c r="P11" s="23">
-        <v>5</v>
+        <v>5.9285714299999999</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B12" s="24">
-        <v>7.8384798099999999</v>
+        <v>8.0952380999999995</v>
       </c>
       <c r="C12" s="23">
-        <v>9.0261282699999992</v>
+        <v>10</v>
       </c>
       <c r="D12" s="23">
-        <v>8.3135391900000002</v>
+        <v>7.8571428599999997</v>
       </c>
       <c r="E12" s="23">
-        <v>8.5510688800000008</v>
+        <v>8.3333333300000003</v>
       </c>
       <c r="F12" s="23">
-        <v>4.5130641300000001</v>
+        <v>5</v>
       </c>
       <c r="G12" s="23">
-        <v>6.1757719700000004</v>
+        <v>4.5238095200000004</v>
       </c>
       <c r="H12" s="23">
-        <v>7.12589074</v>
+        <v>6.4285714299999999</v>
       </c>
       <c r="I12" s="23">
-        <v>7.3634204299999997</v>
+        <v>8.3333333300000003</v>
       </c>
       <c r="J12" s="23">
-        <v>3.56294537</v>
+        <v>3.3333333299999999</v>
       </c>
       <c r="K12" s="23">
-        <v>7.12589074</v>
+        <v>8.0952380999999995</v>
       </c>
       <c r="L12" s="23">
-        <v>7.6009501200000003</v>
+        <v>5.9523809500000002</v>
       </c>
       <c r="M12" s="23">
-        <v>4.7505938199999997</v>
+        <v>5.4761904799999996</v>
       </c>
       <c r="N12" s="23">
-        <v>7.12589074</v>
+        <v>8.3333333300000003</v>
       </c>
       <c r="O12" s="23">
-        <v>7.12589074</v>
+        <v>5.2380952399999998</v>
       </c>
       <c r="P12" s="23">
-        <v>3.8004750600000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B13" s="24">
-        <v>6.8883610500000003</v>
+        <v>7.8384798099999999</v>
       </c>
       <c r="C13" s="23">
-        <v>9.5011876500000003</v>
+        <v>9.0261282699999992</v>
       </c>
       <c r="D13" s="23">
+        <v>8.3135391900000002</v>
+      </c>
+      <c r="E13" s="23">
+        <v>8.5510688800000008</v>
+      </c>
+      <c r="F13" s="23">
+        <v>4.5130641300000001</v>
+      </c>
+      <c r="G13" s="23">
         <v>6.1757719700000004</v>
       </c>
-      <c r="E13" s="23">
+      <c r="H13" s="23">
         <v>7.12589074</v>
       </c>
-      <c r="F13" s="23">
-        <v>8.7885985699999996</v>
-      </c>
-      <c r="G13" s="23">
-        <v>5.7007125900000002</v>
-      </c>
-      <c r="H13" s="23">
-        <v>5.2256532099999999</v>
-      </c>
       <c r="I13" s="23">
-        <v>5.9382422799999999</v>
+        <v>7.3634204299999997</v>
       </c>
       <c r="J13" s="23">
+        <v>3.56294537</v>
+      </c>
+      <c r="K13" s="23">
+        <v>7.12589074</v>
+      </c>
+      <c r="L13" s="23">
+        <v>7.6009501200000003</v>
+      </c>
+      <c r="M13" s="23">
         <v>4.7505938199999997</v>
       </c>
-      <c r="K13" s="23">
-        <v>7.6009501200000003</v>
-      </c>
-      <c r="L13" s="23">
-        <v>6.4133016600000001</v>
-      </c>
-      <c r="M13" s="23">
-        <v>4.5130641300000001</v>
-      </c>
       <c r="N13" s="23">
-        <v>6.1757719700000004</v>
+        <v>7.12589074</v>
       </c>
       <c r="O13" s="23">
-        <v>5.9382422799999999</v>
+        <v>7.12589074</v>
       </c>
       <c r="P13" s="23">
-        <v>9.2636579599999997</v>
+        <v>3.8004750600000001</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B14" s="24">
-        <v>6.9047618999999996</v>
+        <v>6.8883610500000003</v>
       </c>
       <c r="C14" s="23">
-        <v>9.7619047600000002</v>
+        <v>9.5011876500000003</v>
       </c>
       <c r="D14" s="23">
-        <v>3.3333333299999999</v>
+        <v>6.1757719700000004</v>
       </c>
       <c r="E14" s="23">
-        <v>8.3333333300000003</v>
+        <v>7.12589074</v>
       </c>
       <c r="F14" s="23">
-        <v>4.0476190499999998</v>
+        <v>8.7885985699999996</v>
       </c>
       <c r="G14" s="23">
-        <v>8.0952380999999995</v>
+        <v>5.7007125900000002</v>
       </c>
       <c r="H14" s="23">
-        <v>7.6190476199999999</v>
+        <v>5.2256532099999999</v>
       </c>
       <c r="I14" s="23">
-        <v>7.8571428599999997</v>
+        <v>5.9382422799999999</v>
       </c>
       <c r="J14" s="23">
-        <v>5</v>
+        <v>4.7505938199999997</v>
       </c>
       <c r="K14" s="23">
-        <v>5.4761904799999996</v>
+        <v>7.6009501200000003</v>
       </c>
       <c r="L14" s="23">
-        <v>5.2380952399999998</v>
+        <v>6.4133016600000001</v>
       </c>
       <c r="M14" s="23">
-        <v>4.0476190499999998</v>
+        <v>4.5130641300000001</v>
       </c>
       <c r="N14" s="23">
-        <v>6.9047618999999996</v>
+        <v>6.1757719700000004</v>
       </c>
       <c r="O14" s="23">
-        <v>9.7619047600000002</v>
+        <v>5.9382422799999999</v>
       </c>
       <c r="P14" s="23">
-        <v>7.6190476199999999</v>
+        <v>9.2636579599999997</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="24">
+        <v>6.9047618999999996</v>
+      </c>
+      <c r="C15" s="23">
+        <v>9.7619047600000002</v>
+      </c>
+      <c r="D15" s="23">
+        <v>3.3333333299999999</v>
+      </c>
+      <c r="E15" s="23">
+        <v>8.3333333300000003</v>
+      </c>
+      <c r="F15" s="23">
+        <v>4.0476190499999998</v>
+      </c>
+      <c r="G15" s="23">
+        <v>8.0952380999999995</v>
+      </c>
+      <c r="H15" s="23">
+        <v>7.6190476199999999</v>
+      </c>
+      <c r="I15" s="23">
+        <v>7.8571428599999997</v>
+      </c>
+      <c r="J15" s="23">
+        <v>5</v>
+      </c>
+      <c r="K15" s="23">
+        <v>5.4761904799999996</v>
+      </c>
+      <c r="L15" s="23">
+        <v>5.2380952399999998</v>
+      </c>
+      <c r="M15" s="23">
+        <v>4.0476190499999998</v>
+      </c>
+      <c r="N15" s="23">
+        <v>6.9047618999999996</v>
+      </c>
+      <c r="O15" s="23">
+        <v>9.7619047600000002</v>
+      </c>
+      <c r="P15" s="23">
+        <v>7.6190476199999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B16" s="24">
         <v>6.6508313499999998</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C16" s="23">
         <v>9.9762470299999997</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D16" s="23">
         <v>7.12589074</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E16" s="23">
         <v>8.0760094999999996</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F16" s="23">
         <v>4.0380047499999998</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G16" s="23">
         <v>5.9382422799999999</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H16" s="23">
         <v>7.6009501200000003</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I16" s="23">
         <v>6.6508313499999998</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J16" s="23">
         <v>4.9881235200000003</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K16" s="23">
         <v>5.9382422799999999</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L16" s="23">
         <v>5.2256532099999999</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M16" s="23">
         <v>4.2755344400000004</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N16" s="23">
         <v>6.4133016600000001</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O16" s="23">
         <v>9.2636579599999997</v>
       </c>
-      <c r="P15" s="23">
+      <c r="P16" s="23">
         <v>7.8384798099999999</v>
       </c>
     </row>
@@ -9649,15 +9721,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF98156A4E08ED42B22DA6C86624442E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="11ba5f1833b47c39d11f9a0fc9ca5ad0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56528f00-8daf-4285-8b2f-184ebce7f2e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b814f87d70368c36b985d9f62a71433" ns2:_="">
     <xsd:import namespace="56528f00-8daf-4285-8b2f-184ebce7f2e9"/>
@@ -9835,6 +9898,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9846,14 +9918,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E55394AD-EAD7-4DB0-8A63-1FFADDFE8C2B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00089E46-9D1D-406D-80DB-769E94388862}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9871,6 +9935,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E55394AD-EAD7-4DB0-8A63-1FFADDFE8C2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{868C143E-6D51-4467-8AC0-C13BFF0C5CF6}">
   <ds:schemaRefs>
